--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12672" yWindow="108" windowWidth="3720" windowHeight="6096"/>
+    <workbookView xWindow="39312" yWindow="108" windowWidth="3720" windowHeight="6096"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
+    <sheet name="暂时不管" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="115">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Linux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,22 +62,12 @@
     <t>C++ Primer Plus 自学笔记1：C++特性及程序主体简介</t>
   </si>
   <si>
-    <t>最新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ubuntu系统及命令行操作（持续更新）</t>
   </si>
   <si>
     <t>vim笔记</t>
   </si>
   <si>
-    <t>Ubuntu软件管理、换源、驱动及部分软件安装操作（持续更新）</t>
-  </si>
-  <si>
-    <t>（新手向）Win7下安装Ubuntu（双硬盘）的简要步骤</t>
-  </si>
-  <si>
     <t>Ubuntu捉虫记</t>
   </si>
   <si>
@@ -99,9 +86,6 @@
     <t>二叉搜索树及AVL</t>
   </si>
   <si>
-    <t>前缀和</t>
-  </si>
-  <si>
     <t>三个较为高效的排序算法</t>
   </si>
   <si>
@@ -111,18 +95,6 @@
     <t>利用栈实现简易计算器</t>
   </si>
   <si>
-    <t>筛法求素数时间空间双优化</t>
-  </si>
-  <si>
-    <t>组合数算法（暨CSUOJ2049解题报告）</t>
-  </si>
-  <si>
-    <t>ACM环境下C++的一些小操作、常用库及函数（持续更新）</t>
-  </si>
-  <si>
-    <t>Python Matplotlib绘图操作极简笔记</t>
-  </si>
-  <si>
     <t>Python下OS操作（路径、读写、引用、字符串操作）</t>
   </si>
   <si>
@@ -144,9 +116,6 @@
     <t>ACM环境下对拍程序的写法</t>
   </si>
   <si>
-    <t>位操作</t>
-  </si>
-  <si>
     <t>Python图像操作</t>
   </si>
   <si>
@@ -159,9 +128,6 @@
     <t>Git自学笔记（远程仓库）</t>
   </si>
   <si>
-    <t>LaTeX语法入门</t>
-  </si>
-  <si>
     <t>LaTeX简介及环境配置</t>
   </si>
   <si>
@@ -252,32 +218,13 @@
     <t>B树与B+树</t>
   </si>
   <si>
-    <t>用匈牙利算法解决二部图匹配问题</t>
-  </si>
-  <si>
     <t>gdb调试笔记</t>
   </si>
   <si>
-    <t>动态规划题解</t>
-  </si>
-  <si>
     <t>最小生成树</t>
   </si>
   <si>
     <t>最短路径（Optimal Path）</t>
-  </si>
-  <si>
-    <t>并查集</t>
-  </si>
-  <si>
-    <t>Computer
-Basics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web
-Development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RMQ与树状数组</t>
@@ -288,29 +235,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Machine
-Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game
-Programing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Github</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>论文笔记：Fast AutoAugment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSDN</t>
+    <t>20220211</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220211</t>
+    <t>20220215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包问题及优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匈牙利算法与二部图匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaTeX语法入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Basics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Programing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算（以C语言为例）</t>
+  </si>
+  <si>
+    <t>Matplotlib绘图操作极简笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu软件管理（持续更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win7下安装Ubuntu（双硬盘）的简要步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质数相关算法及优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSDN同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++常用数据结构及函数</t>
+  </si>
+  <si>
+    <t>C语言文件读写及字符操作笔记</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode-1题解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛谷-P2242题解</t>
+  </si>
+  <si>
+    <t>20220320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,12 +531,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -471,6 +566,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -777,66 +878,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="3" style="21" customWidth="1"/>
-    <col min="8" max="8" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="3" style="19" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="42" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="21" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="G1" s="18"/>
       <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -856,54 +957,58 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -922,27 +1027,31 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -961,27 +1070,31 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1000,27 +1113,31 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1038,30 +1155,32 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
+    <row r="7" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="22" t="s">
+        <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1080,27 +1199,31 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1119,27 +1242,31 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="9"/>
+      <c r="A9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1158,27 +1285,31 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1197,27 +1328,31 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B11" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="K11" s="9"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1236,27 +1371,31 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B12" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1275,27 +1414,31 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1314,27 +1457,31 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="I14" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1353,27 +1500,31 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B15" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1392,27 +1543,31 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1431,27 +1586,31 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1470,29 +1629,31 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1511,27 +1672,31 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1550,29 +1715,31 @@
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="9" t="s">
-        <v>4</v>
+      <c r="F20" s="11"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="K20" s="9"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1591,27 +1758,31 @@
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="I21" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="K21" s="9"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1629,30 +1800,32 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="1" t="s">
-        <v>43</v>
+      <c r="I22" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1670,28 +1843,32 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1709,28 +1886,32 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="I24" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1748,28 +1929,32 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="I25" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="K25" s="9"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1787,28 +1972,32 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1826,28 +2015,32 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="9"/>
+    <row r="27" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1866,29 +2059,25 @@
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="11"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="12"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1907,27 +2096,13 @@
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="12"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1946,29 +2121,13 @@
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="12"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1986,30 +2145,14 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+    <row r="31" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="18"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2027,28 +2170,14 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+    <row r="32" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="18"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -2066,28 +2195,20 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+    <row r="33" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="12"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2105,28 +2226,20 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+    <row r="34" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2144,28 +2257,20 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+    <row r="35" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2184,29 +2289,19 @@
       <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="12"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2224,28 +2319,20 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+    <row r="37" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2263,24 +2350,14 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+    <row r="38" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="18"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2299,19 +2376,13 @@
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="14"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="18"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2330,19 +2401,13 @@
       <c r="AC39" s="1"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="18"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2361,19 +2426,19 @@
       <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2392,19 +2457,19 @@
       <c r="AC41" s="1"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2423,19 +2488,19 @@
       <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2454,19 +2519,19 @@
       <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2485,19 +2550,19 @@
       <c r="AC44" s="1"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2516,19 +2581,19 @@
       <c r="AC45" s="1"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -2547,19 +2612,19 @@
       <c r="AC46" s="1"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2578,19 +2643,19 @@
       <c r="AC47" s="1"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -2609,19 +2674,19 @@
       <c r="AC48" s="1"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2640,19 +2705,19 @@
       <c r="AC49" s="1"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -2671,19 +2736,19 @@
       <c r="AC50" s="1"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2702,19 +2767,19 @@
       <c r="AC51" s="1"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -2733,19 +2798,19 @@
       <c r="AC52" s="1"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2764,19 +2829,19 @@
       <c r="AC53" s="1"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -2795,19 +2860,19 @@
       <c r="AC54" s="1"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -2826,19 +2891,19 @@
       <c r="AC55" s="1"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -2857,19 +2922,19 @@
       <c r="AC56" s="1"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -2888,19 +2953,19 @@
       <c r="AC57" s="1"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="14"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="12"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -2919,19 +2984,19 @@
       <c r="AC58" s="1"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -2950,19 +3015,19 @@
       <c r="AC59" s="1"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -2982,18 +3047,18 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -3012,19 +3077,19 @@
       <c r="AC61" s="1"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -3043,19 +3108,19 @@
       <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="14"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="12"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -3074,19 +3139,19 @@
       <c r="AC63" s="1"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -3105,19 +3170,19 @@
       <c r="AC64" s="1"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -3136,19 +3201,19 @@
       <c r="AC65" s="1"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -3167,19 +3232,19 @@
       <c r="AC66" s="1"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -3198,19 +3263,19 @@
       <c r="AC67" s="1"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -3229,19 +3294,19 @@
       <c r="AC68" s="1"/>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -3260,19 +3325,19 @@
       <c r="AC69" s="1"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -3291,19 +3356,19 @@
       <c r="AC70" s="1"/>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -3322,19 +3387,19 @@
       <c r="AC71" s="1"/>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -3353,19 +3418,19 @@
       <c r="AC72" s="1"/>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -3384,19 +3449,19 @@
       <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -3415,13 +3480,13 @@
       <c r="AC74" s="1"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="20"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="18"/>
       <c r="H75" s="5"/>
       <c r="J75" s="1"/>
       <c r="N75" s="1"/>
@@ -3442,13 +3507,13 @@
       <c r="AC75" s="1"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="20"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="18"/>
       <c r="H76" s="5"/>
       <c r="J76" s="1"/>
       <c r="N76" s="1"/>
@@ -3469,13 +3534,13 @@
       <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="20"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="18"/>
       <c r="H77" s="5"/>
       <c r="J77" s="1"/>
       <c r="N77" s="1"/>
@@ -3496,13 +3561,13 @@
       <c r="AC77" s="1"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="20"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="18"/>
       <c r="H78" s="5"/>
       <c r="J78" s="1"/>
       <c r="N78" s="1"/>
@@ -3523,13 +3588,13 @@
       <c r="AC78" s="1"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="20"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="5"/>
       <c r="J79" s="1"/>
       <c r="N79" s="1"/>
@@ -3550,13 +3615,13 @@
       <c r="AC79" s="1"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="20"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="18"/>
       <c r="H80" s="5"/>
       <c r="J80" s="1"/>
       <c r="N80" s="1"/>
@@ -3577,13 +3642,13 @@
       <c r="AC80" s="1"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="20"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="18"/>
       <c r="H81" s="5"/>
       <c r="J81" s="1"/>
       <c r="N81" s="1"/>
@@ -3604,13 +3669,13 @@
       <c r="AC81" s="1"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="20"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="18"/>
       <c r="H82" s="5"/>
       <c r="J82" s="1"/>
       <c r="N82" s="1"/>
@@ -3631,13 +3696,13 @@
       <c r="AC82" s="1"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="20"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="18"/>
       <c r="H83" s="5"/>
       <c r="J83" s="1"/>
       <c r="N83" s="1"/>
@@ -3658,13 +3723,13 @@
       <c r="AC83" s="1"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="20"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="18"/>
       <c r="H84" s="5"/>
       <c r="J84" s="1"/>
       <c r="N84" s="1"/>
@@ -3685,13 +3750,13 @@
       <c r="AC84" s="1"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="20"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="18"/>
       <c r="H85" s="5"/>
       <c r="J85" s="1"/>
       <c r="N85" s="1"/>
@@ -3712,13 +3777,13 @@
       <c r="AC85" s="1"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="20"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="18"/>
       <c r="H86" s="5"/>
       <c r="J86" s="1"/>
       <c r="N86" s="1"/>
@@ -3739,13 +3804,13 @@
       <c r="AC86" s="1"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="20"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="18"/>
       <c r="H87" s="5"/>
       <c r="J87" s="1"/>
       <c r="N87" s="1"/>
@@ -3766,13 +3831,13 @@
       <c r="AC87" s="1"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="20"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="18"/>
       <c r="H88" s="5"/>
       <c r="J88" s="1"/>
       <c r="N88" s="1"/>
@@ -3793,13 +3858,13 @@
       <c r="AC88" s="1"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="20"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="18"/>
       <c r="H89" s="5"/>
       <c r="J89" s="1"/>
       <c r="N89" s="1"/>
@@ -3820,13 +3885,13 @@
       <c r="AC89" s="1"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="20"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="18"/>
       <c r="H90" s="5"/>
       <c r="J90" s="1"/>
       <c r="N90" s="1"/>
@@ -3847,13 +3912,13 @@
       <c r="AC90" s="1"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="20"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="18"/>
       <c r="H91" s="5"/>
       <c r="J91" s="1"/>
       <c r="N91" s="1"/>
@@ -3874,13 +3939,13 @@
       <c r="AC91" s="1"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="20"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="18"/>
       <c r="H92" s="5"/>
       <c r="J92" s="1"/>
       <c r="N92" s="1"/>
@@ -3901,13 +3966,13 @@
       <c r="AC92" s="1"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="20"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="18"/>
       <c r="H93" s="5"/>
       <c r="J93" s="1"/>
       <c r="N93" s="1"/>
@@ -3928,13 +3993,13 @@
       <c r="AC93" s="1"/>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="20"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="18"/>
       <c r="H94" s="5"/>
       <c r="J94" s="1"/>
       <c r="N94" s="1"/>
@@ -3955,13 +4020,13 @@
       <c r="AC94" s="1"/>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="20"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="18"/>
       <c r="H95" s="5"/>
       <c r="J95" s="1"/>
       <c r="N95" s="1"/>
@@ -3982,13 +4047,13 @@
       <c r="AC95" s="1"/>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="20"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="18"/>
       <c r="H96" s="5"/>
       <c r="J96" s="1"/>
       <c r="N96" s="1"/>
@@ -4009,13 +4074,13 @@
       <c r="AC96" s="1"/>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="20"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="18"/>
       <c r="H97" s="5"/>
       <c r="J97" s="1"/>
       <c r="N97" s="1"/>
@@ -4036,13 +4101,13 @@
       <c r="AC97" s="1"/>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="20"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="18"/>
       <c r="H98" s="5"/>
       <c r="J98" s="1"/>
       <c r="N98" s="1"/>
@@ -4063,13 +4128,13 @@
       <c r="AC98" s="1"/>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="20"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="18"/>
       <c r="H99" s="5"/>
       <c r="J99" s="1"/>
       <c r="N99" s="1"/>
@@ -4090,13 +4155,13 @@
       <c r="AC99" s="1"/>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="20"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="18"/>
       <c r="H100" s="5"/>
       <c r="J100" s="1"/>
       <c r="N100" s="1"/>
@@ -4117,13 +4182,13 @@
       <c r="AC100" s="1"/>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="20"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="18"/>
       <c r="H101" s="5"/>
       <c r="J101" s="1"/>
       <c r="N101" s="1"/>
@@ -4144,13 +4209,13 @@
       <c r="AC101" s="1"/>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="20"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="18"/>
       <c r="H102" s="5"/>
       <c r="J102" s="1"/>
       <c r="N102" s="1"/>
@@ -4171,13 +4236,13 @@
       <c r="AC102" s="1"/>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="20"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="18"/>
       <c r="H103" s="5"/>
       <c r="J103" s="1"/>
       <c r="N103" s="1"/>
@@ -4198,13 +4263,13 @@
       <c r="AC103" s="1"/>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="20"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="18"/>
       <c r="H104" s="5"/>
       <c r="J104" s="1"/>
       <c r="N104" s="1"/>
@@ -4225,13 +4290,13 @@
       <c r="AC104" s="1"/>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="20"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="18"/>
       <c r="H105" s="5"/>
       <c r="J105" s="1"/>
       <c r="N105" s="1"/>
@@ -4252,13 +4317,13 @@
       <c r="AC105" s="1"/>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A106" s="18"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="20"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="18"/>
       <c r="H106" s="5"/>
       <c r="J106" s="1"/>
       <c r="N106" s="1"/>
@@ -4279,13 +4344,13 @@
       <c r="AC106" s="1"/>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="20"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="18"/>
       <c r="H107" s="5"/>
       <c r="J107" s="1"/>
       <c r="N107" s="1"/>
@@ -4306,13 +4371,13 @@
       <c r="AC107" s="1"/>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="20"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="18"/>
       <c r="H108" s="5"/>
       <c r="J108" s="1"/>
       <c r="N108" s="1"/>
@@ -4333,13 +4398,13 @@
       <c r="AC108" s="1"/>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="20"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="18"/>
       <c r="H109" s="5"/>
       <c r="J109" s="1"/>
       <c r="N109" s="1"/>
@@ -4360,13 +4425,13 @@
       <c r="AC109" s="1"/>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A110" s="18"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="20"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="18"/>
       <c r="H110" s="5"/>
       <c r="J110" s="1"/>
       <c r="N110" s="1"/>
@@ -4387,13 +4452,13 @@
       <c r="AC110" s="1"/>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="20"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="18"/>
       <c r="H111" s="5"/>
       <c r="J111" s="1"/>
       <c r="N111" s="1"/>
@@ -4414,13 +4479,13 @@
       <c r="AC111" s="1"/>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="20"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="18"/>
       <c r="H112" s="5"/>
       <c r="J112" s="1"/>
       <c r="N112" s="1"/>
@@ -4441,13 +4506,13 @@
       <c r="AC112" s="1"/>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A113" s="18"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="20"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="18"/>
       <c r="H113" s="5"/>
       <c r="J113" s="1"/>
       <c r="N113" s="1"/>
@@ -4468,13 +4533,13 @@
       <c r="AC113" s="1"/>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="20"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="18"/>
       <c r="H114" s="5"/>
       <c r="J114" s="1"/>
       <c r="N114" s="1"/>
@@ -4495,13 +4560,13 @@
       <c r="AC114" s="1"/>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A115" s="18"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="20"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="18"/>
       <c r="H115" s="5"/>
       <c r="J115" s="1"/>
       <c r="N115" s="1"/>
@@ -4522,13 +4587,13 @@
       <c r="AC115" s="1"/>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="20"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="18"/>
       <c r="H116" s="5"/>
       <c r="J116" s="1"/>
       <c r="N116" s="1"/>
@@ -4549,13 +4614,13 @@
       <c r="AC116" s="1"/>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="20"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="18"/>
       <c r="H117" s="5"/>
       <c r="J117" s="1"/>
       <c r="N117" s="1"/>
@@ -4576,13 +4641,13 @@
       <c r="AC117" s="1"/>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="20"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="18"/>
       <c r="H118" s="5"/>
       <c r="J118" s="1"/>
       <c r="N118" s="1"/>
@@ -4603,13 +4668,13 @@
       <c r="AC118" s="1"/>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A119" s="18"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="20"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="18"/>
       <c r="H119" s="5"/>
       <c r="J119" s="1"/>
       <c r="N119" s="1"/>
@@ -4630,13 +4695,13 @@
       <c r="AC119" s="1"/>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="20"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="18"/>
       <c r="H120" s="5"/>
       <c r="J120" s="1"/>
       <c r="N120" s="1"/>
@@ -4657,13 +4722,13 @@
       <c r="AC120" s="1"/>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="20"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="18"/>
       <c r="H121" s="5"/>
       <c r="J121" s="1"/>
       <c r="N121" s="1"/>
@@ -4684,13 +4749,13 @@
       <c r="AC121" s="1"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A122" s="18"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="20"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="18"/>
       <c r="H122" s="5"/>
       <c r="J122" s="1"/>
       <c r="N122" s="1"/>
@@ -4711,13 +4776,13 @@
       <c r="AC122" s="1"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A123" s="18"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="20"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="18"/>
       <c r="H123" s="5"/>
       <c r="J123" s="1"/>
       <c r="N123" s="1"/>
@@ -4738,13 +4803,13 @@
       <c r="AC123" s="1"/>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="20"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="18"/>
       <c r="H124" s="5"/>
       <c r="J124" s="1"/>
       <c r="N124" s="1"/>
@@ -4765,13 +4830,13 @@
       <c r="AC124" s="1"/>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="20"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="18"/>
       <c r="H125" s="5"/>
       <c r="J125" s="1"/>
       <c r="N125" s="1"/>
@@ -4792,13 +4857,13 @@
       <c r="AC125" s="1"/>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A126" s="18"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="20"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="18"/>
       <c r="H126" s="5"/>
       <c r="J126" s="1"/>
       <c r="N126" s="1"/>
@@ -4819,13 +4884,13 @@
       <c r="AC126" s="1"/>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A127" s="18"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="20"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="18"/>
       <c r="H127" s="5"/>
       <c r="J127" s="1"/>
       <c r="N127" s="1"/>
@@ -4846,13 +4911,13 @@
       <c r="AC127" s="1"/>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A128" s="18"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="20"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="18"/>
       <c r="H128" s="5"/>
       <c r="J128" s="1"/>
       <c r="N128" s="1"/>
@@ -4873,13 +4938,13 @@
       <c r="AC128" s="1"/>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A129" s="18"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="20"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="18"/>
       <c r="H129" s="5"/>
       <c r="J129" s="1"/>
       <c r="N129" s="1"/>
@@ -4900,13 +4965,13 @@
       <c r="AC129" s="1"/>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A130" s="18"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="20"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="18"/>
       <c r="H130" s="5"/>
       <c r="J130" s="1"/>
       <c r="N130" s="1"/>
@@ -4927,13 +4992,13 @@
       <c r="AC130" s="1"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A131" s="18"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="20"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="18"/>
       <c r="H131" s="5"/>
       <c r="J131" s="1"/>
       <c r="N131" s="1"/>
@@ -4954,13 +5019,13 @@
       <c r="AC131" s="1"/>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="20"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="18"/>
       <c r="H132" s="5"/>
       <c r="J132" s="1"/>
       <c r="N132" s="1"/>
@@ -4981,13 +5046,13 @@
       <c r="AC132" s="1"/>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A133" s="18"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="20"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="18"/>
       <c r="H133" s="5"/>
       <c r="J133" s="1"/>
       <c r="N133" s="1"/>
@@ -5008,13 +5073,13 @@
       <c r="AC133" s="1"/>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A134" s="18"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="20"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="18"/>
       <c r="H134" s="5"/>
       <c r="J134" s="1"/>
       <c r="N134" s="1"/>
@@ -5035,327 +5100,277 @@
       <c r="AC134" s="1"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A135" s="18"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
       <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A136" s="18"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="22"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
       <c r="H136" s="5"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
-      <c r="B137" s="16"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="22"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
       <c r="H137" s="5"/>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="18"/>
-      <c r="B138" s="16"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="22"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
       <c r="H138" s="5"/>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="18"/>
-      <c r="B139" s="16"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
       <c r="H139" s="5"/>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="22"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
       <c r="H140" s="5"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A141" s="18"/>
-      <c r="B141" s="16"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="22"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
       <c r="H141" s="5"/>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A142" s="18"/>
-      <c r="B142" s="16"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="22"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A143" s="18"/>
-      <c r="B143" s="16"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
       <c r="H143" s="5"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="22"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
       <c r="H144" s="5"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="18"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
       <c r="H145" s="5"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="18"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
       <c r="H146" s="5"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
-      <c r="B147" s="16"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="22"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
       <c r="H147" s="5"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
-      <c r="B148" s="16"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="22"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
       <c r="H148" s="5"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="18"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
       <c r="H149" s="5"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="18"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
       <c r="H150" s="5"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="18"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
       <c r="H151" s="5"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="18"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="22"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
       <c r="H152" s="5"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
-      <c r="B153" s="16"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
       <c r="H153" s="5"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="18"/>
-      <c r="B154" s="16"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="22"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
       <c r="H154" s="5"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="18"/>
-      <c r="B155" s="16"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
       <c r="H155" s="5"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
-      <c r="B156" s="16"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="22"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
       <c r="H156" s="5"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="18"/>
-      <c r="B157" s="16"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="22"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
       <c r="H157" s="5"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="18"/>
-      <c r="B158" s="16"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="22"/>
-      <c r="F158" s="22"/>
+      <c r="A158" s="16"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
       <c r="H158" s="5"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="18"/>
-      <c r="B159" s="16"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
       <c r="H159" s="5"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22"/>
+      <c r="A160" s="5"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
       <c r="H160" s="5"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="18"/>
-      <c r="B161" s="16"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="22"/>
+      <c r="A161" s="5"/>
       <c r="H161" s="5"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="18"/>
-      <c r="B162" s="16"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
-      <c r="F162" s="22"/>
+      <c r="A162" s="5"/>
       <c r="H162" s="5"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="18"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22"/>
+      <c r="A163" s="5"/>
       <c r="H163" s="5"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="18"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="22"/>
-      <c r="F164" s="22"/>
+      <c r="A164" s="5"/>
       <c r="H164" s="5"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="18"/>
-      <c r="B165" s="16"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
+      <c r="A165" s="5"/>
       <c r="H165" s="5"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="18"/>
-      <c r="B166" s="16"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="22"/>
+      <c r="A166" s="5"/>
       <c r="H166" s="5"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="18"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="22"/>
-      <c r="F167" s="22"/>
+      <c r="A167" s="5"/>
       <c r="H167" s="5"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="18"/>
-      <c r="B168" s="16"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="22"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="22"/>
+      <c r="A168" s="5"/>
       <c r="H168" s="5"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="18"/>
-      <c r="B169" s="16"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="22"/>
+      <c r="A169" s="5"/>
       <c r="H169" s="5"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="18"/>
-      <c r="B170" s="16"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="22"/>
-      <c r="F170" s="22"/>
+      <c r="A170" s="5"/>
       <c r="H170" s="5"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5403,67 +5418,1096 @@
       <c r="H181" s="5"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
       <c r="H182" s="5"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
       <c r="H183" s="5"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
       <c r="H184" s="5"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
       <c r="H185" s="5"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
       <c r="H186" s="5"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
       <c r="H187" s="5"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
       <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
       <c r="H189" s="5"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
       <c r="H190" s="5"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
       <c r="H191" s="5"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
       <c r="H192" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H7:H19"/>
-    <mergeCell ref="H20:H29"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A37"/>
-  </mergeCells>
+  <sortState ref="A2:F43">
+    <sortCondition ref="A2:A43"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C31" numberStoredAsText="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F176"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="39312" yWindow="108" windowWidth="3720" windowHeight="6096"/>
+    <workbookView xWindow="40200" yWindow="108" windowWidth="3720" windowHeight="6096"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>质数相关算法及优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220314</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220315</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +404,10 @@
   </si>
   <si>
     <t>Solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220323</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +876,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -912,13 +908,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="5" t="s">
@@ -931,13 +927,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1047,7 +1043,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="10"/>
@@ -1077,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -1203,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -1262,7 +1258,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
@@ -1335,7 +1331,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -1507,7 +1503,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -1593,7 +1589,7 @@
         <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
@@ -1636,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
@@ -1762,10 +1758,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="10"/>
@@ -1805,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
@@ -1851,7 +1847,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
@@ -1864,7 +1860,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
@@ -1974,13 +1970,13 @@
     </row>
     <row r="26" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
@@ -2017,13 +2013,13 @@
     </row>
     <row r="27" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="10"/>
@@ -2036,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
@@ -2070,10 +2066,10 @@
         <v>81</v>
       </c>
       <c r="I28" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="10"/>
@@ -5489,13 +5485,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="40200" yWindow="108" windowWidth="3720" windowHeight="6096"/>
+    <workbookView xWindow="41976" yWindow="108" windowWidth="3720" windowHeight="6096"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="115">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,10 @@
   </si>
   <si>
     <t>20220323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220325</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +880,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="41976" yWindow="108" windowWidth="3720" windowHeight="6096"/>
+    <workbookView xWindow="48192" yWindow="108" windowWidth="3720" windowHeight="6096"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="118">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,18 +346,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220307</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C++常用数据结构及函数</t>
   </si>
   <si>
@@ -372,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,22 +384,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洛谷-P2242题解</t>
-  </si>
-  <si>
-    <t>20220320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Solution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220323</t>
+    <t>20220328</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220325</t>
+    <t>20220329</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未分类贪心算法</t>
+  </si>
+  <si>
+    <t>20220406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220407</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +504,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -505,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -571,6 +589,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +904,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -918,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="5" t="s">
@@ -937,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1047,11 +1071,11 @@
         <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1077,7 +1101,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -1163,11 +1187,11 @@
         <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="D7" s="25"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="18"/>
       <c r="H7" s="22" t="s">
         <v>3</v>
@@ -1206,7 +1230,7 @@
         <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -1262,7 +1286,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
@@ -1335,7 +1359,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -1507,7 +1531,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -1762,12 +1786,12 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="10"/>
       <c r="F21" s="12"/>
       <c r="G21" s="18"/>
@@ -1805,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
@@ -1851,11 +1875,11 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="18"/>
       <c r="H23" s="23" t="s">
         <v>81</v>
@@ -1864,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
@@ -1974,13 +1998,13 @@
     </row>
     <row r="26" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
@@ -2017,13 +2041,13 @@
     </row>
     <row r="27" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="10"/>
@@ -2036,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
@@ -2070,10 +2094,10 @@
         <v>81</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="10"/>
@@ -5465,7 +5489,7 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5495,7 +5519,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED90B23-FD72-482C-8F59-A1B7FF7626A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48192" yWindow="108" windowWidth="3720" windowHeight="6096"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="122">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220402</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,23 +422,41 @@
   <si>
     <t>20220407</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NP问题与算法思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220409</t>
+  </si>
+  <si>
+    <t>LeetCode经验与技巧</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -450,7 +465,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -459,7 +474,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -467,7 +482,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -614,7 +629,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -689,6 +704,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -724,6 +756,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -899,15 +948,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
@@ -917,7 +966,7 @@
     <col min="6" max="6" width="12.5546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="3" style="19" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="42" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.88671875" style="21" customWidth="1"/>
@@ -925,7 +974,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -980,7 +1029,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1056,7 @@
       <c r="L2" s="14"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1099,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="4" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1071,11 +1120,11 @@
         <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="12"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1093,7 +1142,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1185,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1228,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
@@ -1187,11 +1236,11 @@
         <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="25"/>
+        <v>120</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="18"/>
       <c r="H7" s="22" t="s">
         <v>3</v>
@@ -1222,7 +1271,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1314,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1357,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1326,14 +1375,14 @@
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="K10" s="24"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1351,7 +1400,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
@@ -1369,13 +1418,13 @@
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1394,7 +1443,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
@@ -1409,16 +1458,16 @@
       <c r="F12" s="12"/>
       <c r="G12" s="18"/>
       <c r="H12" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="11"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1437,7 +1486,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="22" t="s">
         <v>0</v>
       </c>
@@ -1451,14 +1500,14 @@
       <c r="E13" s="10"/>
       <c r="F13" s="12"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="22" t="s">
-        <v>6</v>
+      <c r="H13" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
@@ -1480,7 +1529,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="22" t="s">
         <v>0</v>
       </c>
@@ -1494,14 +1543,14 @@
       <c r="E14" s="10"/>
       <c r="F14" s="12"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="22" t="s">
-        <v>6</v>
+      <c r="H14" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="10"/>
@@ -1523,7 +1572,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="22" t="s">
         <v>0</v>
       </c>
@@ -1531,17 +1580,17 @@
         <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="22" t="s">
-        <v>6</v>
+      <c r="H15" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>78</v>
@@ -1566,7 +1615,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
@@ -1580,17 +1629,17 @@
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="22" t="s">
-        <v>6</v>
+      <c r="H16" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="11"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1609,25 +1658,25 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29">
       <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="D17" s="25"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>26</v>
+      <c r="H17" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>78</v>
@@ -1652,28 +1701,28 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="23" t="s">
         <v>81</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
@@ -1695,28 +1744,28 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="18"/>
       <c r="H19" s="23" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
@@ -1738,28 +1787,28 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29">
       <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="18"/>
       <c r="H20" s="23" t="s">
         <v>81</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="3"/>
@@ -1781,31 +1830,31 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29">
       <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="18"/>
       <c r="H21" s="23" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K21" s="9"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="11"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1824,28 +1873,28 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="A22" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="18"/>
       <c r="H22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>64</v>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
@@ -1867,32 +1916,32 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="18"/>
       <c r="H23" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" s="9"/>
+      <c r="I23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="14"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1910,32 +1959,32 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>2</v>
+    <row r="24" spans="1:29" ht="17.399999999999999" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="23" t="s">
-        <v>81</v>
+      <c r="H24" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1953,31 +2002,31 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:29" ht="17.399999999999999" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="K25" s="9"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="11"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1996,28 +2045,16 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
+    <row r="26" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="G26" s="18"/>
-      <c r="H26" s="23" t="s">
-        <v>81</v>
+      <c r="H26" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="10"/>
@@ -2039,32 +2076,14 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
+    <row r="27" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="G27" s="18"/>
-      <c r="H27" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="11"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2082,25 +2101,13 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+    <row r="28" spans="1:29">
       <c r="G28" s="18"/>
-      <c r="H28" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="12"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2119,7 +2126,13 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="18"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
@@ -2144,13 +2157,13 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29">
       <c r="G30" s="18"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2169,13 +2182,13 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="G31" s="18"/>
       <c r="H31" s="13"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="12"/>
+      <c r="L31" s="14"/>
       <c r="M31" s="12"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2194,7 +2207,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="G32" s="18"/>
       <c r="H32" s="13"/>
       <c r="I32" s="14"/>
@@ -2219,20 +2232,8 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+    <row r="33" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="G33" s="18"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="12"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2250,7 +2251,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2258,12 +2259,6 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="12"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2281,7 +2276,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2289,12 +2284,6 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2312,7 +2301,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2324,7 +2313,7 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2343,7 +2332,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2355,7 +2344,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2374,7 +2363,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="17.399999999999999" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2382,6 +2371,12 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="18"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2399,7 +2394,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2407,6 +2402,12 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="18"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2424,7 +2425,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2432,6 +2433,12 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="18"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2449,7 +2456,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2480,7 +2487,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2511,7 +2518,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2519,7 +2526,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="18"/>
-      <c r="H43" s="15"/>
+      <c r="H43" s="13"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
@@ -2542,7 +2549,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2573,7 +2580,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2604,7 +2611,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2635,7 +2642,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2666,12 +2673,12 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="18"/>
       <c r="H48" s="13"/>
@@ -2697,12 +2704,12 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="12"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="12"/>
       <c r="G49" s="18"/>
       <c r="H49" s="13"/>
@@ -2728,7 +2735,7 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2759,7 +2766,7 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2790,7 +2797,7 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2821,19 +2828,19 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="18"/>
       <c r="H53" s="13"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
-      <c r="L53" s="12"/>
+      <c r="L53" s="14"/>
       <c r="M53" s="12"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -2852,12 +2859,12 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="12"/>
       <c r="G54" s="18"/>
       <c r="H54" s="13"/>
@@ -2883,7 +2890,7 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2914,7 +2921,7 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -2945,7 +2952,7 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -2976,7 +2983,7 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3007,7 +3014,7 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3038,7 +3045,7 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3069,8 +3076,8 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+    <row r="61" spans="1:29">
+      <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -3100,8 +3107,8 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+    <row r="62" spans="1:29">
+      <c r="A62" s="15"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -3131,7 +3138,7 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3143,7 +3150,7 @@
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
+      <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -3162,8 +3169,8 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+    <row r="64" spans="1:29">
+      <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -3193,13 +3200,13 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29">
       <c r="A65" s="16"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="18"/>
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
@@ -3224,7 +3231,7 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29">
       <c r="A66" s="16"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3255,7 +3262,7 @@
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29">
       <c r="A67" s="16"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3263,7 +3270,7 @@
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="18"/>
-      <c r="H67" s="13"/>
+      <c r="H67" s="15"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
@@ -3286,7 +3293,7 @@
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29">
       <c r="A68" s="16"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3317,7 +3324,7 @@
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29">
       <c r="A69" s="16"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3348,7 +3355,7 @@
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29">
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3356,12 +3363,8 @@
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
       <c r="G70" s="18"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
+      <c r="H70" s="5"/>
+      <c r="J70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -3379,7 +3382,7 @@
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29">
       <c r="A71" s="16"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3387,12 +3390,8 @@
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
       <c r="G71" s="18"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
+      <c r="H71" s="5"/>
+      <c r="J71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -3410,7 +3409,7 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29">
       <c r="A72" s="16"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3418,12 +3417,8 @@
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
       <c r="G72" s="18"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
+      <c r="H72" s="5"/>
+      <c r="J72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -3441,7 +3436,7 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29">
       <c r="A73" s="16"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3449,12 +3444,8 @@
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
       <c r="G73" s="18"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
+      <c r="H73" s="5"/>
+      <c r="J73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -3472,7 +3463,7 @@
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29">
       <c r="A74" s="16"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3480,12 +3471,8 @@
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
       <c r="G74" s="18"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
+      <c r="H74" s="5"/>
+      <c r="J74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -3503,7 +3490,7 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29">
       <c r="A75" s="16"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3530,7 +3517,7 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29">
       <c r="A76" s="16"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3557,7 +3544,7 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29">
       <c r="A77" s="16"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3584,7 +3571,7 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29">
       <c r="A78" s="16"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3611,7 +3598,7 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29">
       <c r="A79" s="16"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3638,7 +3625,7 @@
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29">
       <c r="A80" s="16"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3665,7 +3652,7 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29">
       <c r="A81" s="16"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3692,7 +3679,7 @@
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29">
       <c r="A82" s="16"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3719,7 +3706,7 @@
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29">
       <c r="A83" s="16"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3746,7 +3733,7 @@
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29">
       <c r="A84" s="16"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -3773,7 +3760,7 @@
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29">
       <c r="A85" s="16"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3800,7 +3787,7 @@
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29">
       <c r="A86" s="16"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3827,7 +3814,7 @@
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29">
       <c r="A87" s="16"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -3854,7 +3841,7 @@
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29">
       <c r="A88" s="16"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -3881,7 +3868,7 @@
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29">
       <c r="A89" s="16"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -3908,7 +3895,7 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29">
       <c r="A90" s="16"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -3935,7 +3922,7 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29">
       <c r="A91" s="16"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -3962,7 +3949,7 @@
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29">
       <c r="A92" s="16"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -3989,7 +3976,7 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29">
       <c r="A93" s="16"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4016,7 +4003,7 @@
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29">
       <c r="A94" s="16"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -4043,7 +4030,7 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29">
       <c r="A95" s="16"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4070,7 +4057,7 @@
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29">
       <c r="A96" s="16"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4097,7 +4084,7 @@
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29">
       <c r="A97" s="16"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -4124,7 +4111,7 @@
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29">
       <c r="A98" s="16"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4151,7 +4138,7 @@
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29">
       <c r="A99" s="16"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4178,7 +4165,7 @@
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29">
       <c r="A100" s="16"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4205,7 +4192,7 @@
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29">
       <c r="A101" s="16"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4232,7 +4219,7 @@
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29">
       <c r="A102" s="16"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4259,7 +4246,7 @@
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29">
       <c r="A103" s="16"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4286,7 +4273,7 @@
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29">
       <c r="A104" s="16"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4313,7 +4300,7 @@
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29">
       <c r="A105" s="16"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4340,7 +4327,7 @@
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29">
       <c r="A106" s="16"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4367,7 +4354,7 @@
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29">
       <c r="A107" s="16"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4394,7 +4381,7 @@
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29">
       <c r="A108" s="16"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4421,7 +4408,7 @@
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29">
       <c r="A109" s="16"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4448,7 +4435,7 @@
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4475,7 +4462,7 @@
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4502,7 +4489,7 @@
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -4529,7 +4516,7 @@
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -4556,7 +4543,7 @@
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29">
       <c r="A114" s="16"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -4583,7 +4570,7 @@
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29">
       <c r="A115" s="16"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -4610,7 +4597,7 @@
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29">
       <c r="A116" s="16"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -4637,7 +4624,7 @@
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29">
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -4664,7 +4651,7 @@
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29">
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -4691,7 +4678,7 @@
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29">
       <c r="A119" s="16"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -4718,7 +4705,7 @@
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29">
       <c r="A120" s="16"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -4745,7 +4732,7 @@
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29">
       <c r="A121" s="16"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -4772,7 +4759,7 @@
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29">
       <c r="A122" s="16"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -4799,7 +4786,7 @@
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29">
       <c r="A123" s="16"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -4826,7 +4813,7 @@
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29">
       <c r="A124" s="16"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -4853,10 +4840,10 @@
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29">
       <c r="A125" s="16"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="17"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -4880,7 +4867,7 @@
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29">
       <c r="A126" s="16"/>
       <c r="B126" s="14"/>
       <c r="C126" s="17"/>
@@ -4907,7 +4894,7 @@
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29">
       <c r="A127" s="16"/>
       <c r="B127" s="14"/>
       <c r="C127" s="17"/>
@@ -4934,7 +4921,7 @@
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29">
       <c r="A128" s="16"/>
       <c r="B128" s="14"/>
       <c r="C128" s="17"/>
@@ -4961,7 +4948,7 @@
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29">
       <c r="A129" s="16"/>
       <c r="B129" s="14"/>
       <c r="C129" s="17"/>
@@ -4988,7 +4975,7 @@
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29">
       <c r="A130" s="16"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -4997,7 +4984,6 @@
       <c r="F130" s="20"/>
       <c r="G130" s="18"/>
       <c r="H130" s="5"/>
-      <c r="J130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -5015,7 +5001,7 @@
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29">
       <c r="A131" s="16"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
@@ -5024,7 +5010,6 @@
       <c r="F131" s="20"/>
       <c r="G131" s="18"/>
       <c r="H131" s="5"/>
-      <c r="J131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -5042,7 +5027,7 @@
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29">
       <c r="A132" s="16"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
@@ -5051,7 +5036,6 @@
       <c r="F132" s="20"/>
       <c r="G132" s="18"/>
       <c r="H132" s="5"/>
-      <c r="J132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
@@ -5069,7 +5053,7 @@
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29">
       <c r="A133" s="16"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
@@ -5078,7 +5062,6 @@
       <c r="F133" s="20"/>
       <c r="G133" s="18"/>
       <c r="H133" s="5"/>
-      <c r="J133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
@@ -5096,7 +5079,7 @@
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29">
       <c r="A134" s="16"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
@@ -5105,7 +5088,6 @@
       <c r="F134" s="20"/>
       <c r="G134" s="18"/>
       <c r="H134" s="5"/>
-      <c r="J134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
@@ -5123,7 +5105,7 @@
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29">
       <c r="A135" s="16"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
@@ -5132,7 +5114,7 @@
       <c r="F135" s="20"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29">
       <c r="A136" s="16"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
@@ -5141,7 +5123,7 @@
       <c r="F136" s="20"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29">
       <c r="A137" s="16"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -5150,7 +5132,7 @@
       <c r="F137" s="20"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29">
       <c r="A138" s="16"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -5159,7 +5141,7 @@
       <c r="F138" s="20"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29">
       <c r="A139" s="16"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -5168,7 +5150,7 @@
       <c r="F139" s="20"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29">
       <c r="A140" s="16"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -5177,7 +5159,7 @@
       <c r="F140" s="20"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29">
       <c r="A141" s="16"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -5186,7 +5168,7 @@
       <c r="F141" s="20"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29">
       <c r="A142" s="16"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -5195,7 +5177,7 @@
       <c r="F142" s="20"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29">
       <c r="A143" s="16"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -5204,7 +5186,7 @@
       <c r="F143" s="20"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29">
       <c r="A144" s="16"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -5213,7 +5195,7 @@
       <c r="F144" s="20"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
@@ -5222,7 +5204,7 @@
       <c r="F145" s="20"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="16"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
@@ -5231,7 +5213,7 @@
       <c r="F146" s="20"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="16"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -5240,7 +5222,7 @@
       <c r="F147" s="20"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -5249,7 +5231,7 @@
       <c r="F148" s="20"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -5258,7 +5240,7 @@
       <c r="F149" s="20"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -5267,7 +5249,7 @@
       <c r="F150" s="20"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="16"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -5276,7 +5258,7 @@
       <c r="F151" s="20"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="16"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -5285,7 +5267,7 @@
       <c r="F152" s="20"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="16"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -5294,7 +5276,7 @@
       <c r="F153" s="20"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="16"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
@@ -5303,7 +5285,7 @@
       <c r="F154" s="20"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="16"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
@@ -5312,7 +5294,7 @@
       <c r="F155" s="20"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="16"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
@@ -5321,7 +5303,7 @@
       <c r="F156" s="20"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="16"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
@@ -5330,7 +5312,7 @@
       <c r="F157" s="20"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="16"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
@@ -5339,7 +5321,7 @@
       <c r="F158" s="20"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="16"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
@@ -5348,8 +5330,8 @@
       <c r="F159" s="20"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
+    <row r="160" spans="1:8">
+      <c r="A160" s="16"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
       <c r="D160" s="20"/>
@@ -5357,125 +5339,116 @@
       <c r="F160" s="20"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="5"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="5"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="5"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="5"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="5"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="5"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="5"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="5"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="5"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="5"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="5"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="5"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="5"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="5"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="5"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="5"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="5"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="5"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="5"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="5"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
+      <c r="A182" s="5"/>
       <c r="H182" s="5"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="H186" s="5"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H188" s="5"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H189" s="5"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H190" s="5"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H191" s="5"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H192" s="5"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:F43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
     <sortCondition ref="A2:A43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5485,14 +5458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
@@ -5502,7 +5475,7 @@
     <col min="6" max="6" width="13.109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5522,7 +5495,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="23" t="s">
         <v>82</v>
       </c>
@@ -5536,7 +5509,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>82</v>
       </c>
@@ -5550,7 +5523,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="23" t="s">
         <v>82</v>
       </c>
@@ -5564,7 +5537,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="23" t="s">
         <v>82</v>
       </c>
@@ -5578,7 +5551,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="23" t="s">
         <v>82</v>
       </c>
@@ -5592,7 +5565,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="23" t="s">
         <v>82</v>
       </c>
@@ -5606,7 +5579,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="23" t="s">
         <v>82</v>
       </c>
@@ -5620,7 +5593,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="23" t="s">
         <v>83</v>
       </c>
@@ -5634,7 +5607,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="23" t="s">
         <v>83</v>
       </c>
@@ -5648,7 +5621,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="23" t="s">
         <v>83</v>
       </c>
@@ -5662,7 +5635,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="23" t="s">
         <v>83</v>
       </c>
@@ -5676,7 +5649,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="23" t="s">
         <v>83</v>
       </c>
@@ -5690,7 +5663,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="23" t="s">
         <v>83</v>
       </c>
@@ -5704,7 +5677,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="23" t="s">
         <v>83</v>
       </c>
@@ -5718,7 +5691,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="23" t="s">
         <v>83</v>
       </c>
@@ -5732,7 +5705,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="23" t="s">
         <v>83</v>
       </c>
@@ -5746,7 +5719,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="23" t="s">
         <v>83</v>
       </c>
@@ -5760,7 +5733,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="23" t="s">
         <v>83</v>
       </c>
@@ -5774,7 +5747,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="23" t="s">
         <v>83</v>
       </c>
@@ -5788,7 +5761,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="23" t="s">
         <v>83</v>
       </c>
@@ -5802,7 +5775,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="23" t="s">
         <v>84</v>
       </c>
@@ -5816,7 +5789,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="23" t="s">
         <v>84</v>
       </c>
@@ -5830,7 +5803,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="23" t="s">
         <v>84</v>
       </c>
@@ -5844,55 +5817,91 @@
       <c r="E24" s="3"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
+      <c r="A25" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -5900,7 +5909,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -5908,7 +5917,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5916,7 +5925,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -5924,7 +5933,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5932,7 +5941,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -5940,7 +5949,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -5948,7 +5957,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -5956,7 +5965,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -5964,7 +5973,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -5972,7 +5981,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -5980,7 +5989,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -5988,7 +5997,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -5996,7 +6005,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6004,7 +6013,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6012,7 +6021,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6020,7 +6029,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6028,7 +6037,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6036,7 +6045,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6044,7 +6053,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6052,7 +6061,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6060,7 +6069,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6068,7 +6077,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6076,7 +6085,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6084,7 +6093,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6092,7 +6101,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="15"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6100,7 +6109,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6108,7 +6117,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6116,418 +6125,418 @@
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="5"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="5"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="5"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="5"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="5"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" s="5"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="5"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="5"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="5"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="5"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" s="5"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="5"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="5"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="5"/>
     </row>
   </sheetData>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED90B23-FD72-482C-8F59-A1B7FF7626A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="123">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,16 +53,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C语言指针使用笔记</t>
-  </si>
-  <si>
     <t>C++ Primer Plus 自学笔记2：函数及数据类型简介</t>
   </si>
   <si>
     <t>C++ Primer Plus 自学笔记1：C++特性及程序主体简介</t>
-  </si>
-  <si>
-    <t>Ubuntu系统及命令行操作（持续更新）</t>
   </si>
   <si>
     <t>vim笔记</t>
@@ -354,9 +347,6 @@
     <t>C++常用数据结构及函数</t>
   </si>
   <si>
-    <t>C语言文件读写及字符操作笔记</t>
-  </si>
-  <si>
     <t>正则表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,18 +371,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Solution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220329</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,18 +383,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未分类贪心算法</t>
   </si>
   <si>
@@ -439,24 +413,52 @@
     <t>20220409</t>
   </si>
   <si>
-    <t>LeetCode经验与技巧</t>
+    <t>20220410</t>
+  </si>
+  <si>
+    <t>LeetCode-347题解</t>
+  </si>
+  <si>
+    <t>C指针使用笔记</t>
+  </si>
+  <si>
+    <t>C文件读写笔记</t>
+  </si>
+  <si>
+    <t>C字符串操作笔记</t>
+  </si>
+  <si>
+    <t>20220412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu系统命令（持续更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -465,7 +467,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,7 +476,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -482,7 +484,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -704,23 +706,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -756,23 +741,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -948,15 +916,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
@@ -974,7 +942,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -985,13 +953,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="5" t="s">
@@ -1004,13 +972,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1029,15 +997,15 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
@@ -1047,24 +1015,24 @@
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="14"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
@@ -1074,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="3"/>
@@ -1099,15 +1067,15 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1">
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
@@ -1117,10 +1085,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="10"/>
@@ -1142,15 +1110,15 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="10"/>
@@ -1160,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="14"/>
@@ -1185,15 +1153,15 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
@@ -1203,10 +1171,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="14"/>
@@ -1228,15 +1196,15 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -1246,10 +1214,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
@@ -1271,15 +1239,15 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -1289,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="10"/>
@@ -1314,15 +1282,15 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -1332,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
@@ -1357,15 +1325,15 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -1375,14 +1343,14 @@
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="24"/>
+        <v>76</v>
+      </c>
+      <c r="K10" s="9"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="24"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1400,15 +1368,15 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -1418,13 +1386,13 @@
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="11"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1443,31 +1411,31 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
       <c r="F12" s="12"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="22" t="s">
-        <v>3</v>
+      <c r="H12" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K12" s="9"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="11"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1486,28 +1454,28 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
       <c r="F13" s="12"/>
       <c r="G13" s="18"/>
       <c r="H13" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
@@ -1529,31 +1497,31 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
       <c r="F14" s="12"/>
       <c r="G14" s="18"/>
       <c r="H14" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="11"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1572,28 +1540,28 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="18"/>
       <c r="H15" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="3"/>
@@ -1615,31 +1583,31 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="18"/>
       <c r="H16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="11"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1658,28 +1626,28 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="10"/>
       <c r="F17" s="24"/>
       <c r="G17" s="18"/>
       <c r="H17" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
@@ -1701,28 +1669,28 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
@@ -1744,31 +1712,31 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="10"/>
       <c r="F19" s="12"/>
       <c r="G19" s="18"/>
       <c r="H19" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="11"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1787,31 +1755,31 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="18"/>
       <c r="H20" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="11"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1830,28 +1798,28 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="3"/>
       <c r="F21" s="11"/>
       <c r="G21" s="18"/>
       <c r="H21" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
@@ -1873,32 +1841,30 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="9"/>
+        <v>119</v>
+      </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
       <c r="G22" s="18"/>
       <c r="H22" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="14"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="12"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1916,30 +1882,29 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="9"/>
+        <v>119</v>
+      </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" s="14"/>
+      <c r="H23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="9"/>
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
       <c r="N23" s="1"/>
@@ -1959,15 +1924,15 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" ht="17.399999999999999" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>107</v>
+    <row r="24" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
@@ -1977,14 +1942,14 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="12"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2002,28 +1967,28 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="18"/>
       <c r="H25" s="22" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
@@ -2045,20 +2010,26 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2076,7 +2047,17 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="G27" s="18"/>
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
@@ -2101,7 +2082,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G28" s="18"/>
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
@@ -2126,19 +2107,13 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G29" s="18"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2157,13 +2132,19 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="18"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="12"/>
+      <c r="L30" s="14"/>
       <c r="M30" s="12"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2182,7 +2163,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="18"/>
       <c r="H31" s="13"/>
       <c r="I31" s="14"/>
@@ -2207,14 +2188,8 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="18"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="12"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -2232,7 +2207,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="18"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2251,13 +2226,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="17.399999999999999" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+    <row r="34" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="18"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2276,7 +2245,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2284,6 +2253,12 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="18"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2301,7 +2276,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2332,7 +2307,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2340,7 +2315,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -2363,7 +2338,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2371,7 +2346,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="15"/>
+      <c r="H38" s="13"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -2394,7 +2369,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2425,7 +2400,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2456,7 +2431,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2487,7 +2462,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2518,7 +2493,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2549,7 +2524,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2580,7 +2555,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2611,7 +2586,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2642,7 +2617,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2673,7 +2648,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2704,12 +2679,12 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="18"/>
       <c r="H49" s="13"/>
@@ -2735,12 +2710,12 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="12"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="12"/>
       <c r="G50" s="18"/>
       <c r="H50" s="13"/>
@@ -2766,7 +2741,7 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2797,7 +2772,7 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2809,7 +2784,7 @@
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
-      <c r="L52" s="12"/>
+      <c r="L52" s="14"/>
       <c r="M52" s="12"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -2828,7 +2803,7 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -2840,7 +2815,7 @@
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
+      <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -2859,12 +2834,12 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="18"/>
       <c r="H54" s="13"/>
@@ -2890,12 +2865,12 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="12"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="12"/>
       <c r="G55" s="18"/>
       <c r="H55" s="13"/>
@@ -2921,7 +2896,7 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -2952,7 +2927,7 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -2964,7 +2939,7 @@
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
-      <c r="L57" s="12"/>
+      <c r="L57" s="14"/>
       <c r="M57" s="12"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -2983,7 +2958,7 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -2995,7 +2970,7 @@
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
+      <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -3014,7 +2989,7 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3045,7 +3020,7 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3076,7 +3051,7 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -3107,8 +3082,8 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="1:29">
-      <c r="A62" s="15"/>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -3138,8 +3113,8 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="1:29">
-      <c r="A63" s="13"/>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -3169,7 +3144,7 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -3200,8 +3175,8 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="1:29">
-      <c r="A65" s="16"/>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -3231,15 +3206,15 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
       <c r="G66" s="18"/>
-      <c r="H66" s="13"/>
+      <c r="H66" s="15"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
@@ -3262,7 +3237,7 @@
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3270,7 +3245,7 @@
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="18"/>
-      <c r="H67" s="15"/>
+      <c r="H67" s="13"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
@@ -3293,7 +3268,7 @@
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3324,7 +3299,7 @@
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3332,12 +3307,8 @@
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
       <c r="G69" s="18"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
+      <c r="H69" s="5"/>
+      <c r="J69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -3355,7 +3326,7 @@
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3382,7 +3353,7 @@
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3409,7 +3380,7 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3436,7 +3407,7 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3463,7 +3434,7 @@
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3490,7 +3461,7 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3517,7 +3488,7 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3544,7 +3515,7 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3571,7 +3542,7 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3598,7 +3569,7 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3625,7 +3596,7 @@
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3652,7 +3623,7 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3679,7 +3650,7 @@
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3706,7 +3677,7 @@
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3733,7 +3704,7 @@
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -3760,7 +3731,7 @@
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3787,7 +3758,7 @@
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3814,7 +3785,7 @@
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -3841,7 +3812,7 @@
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -3868,7 +3839,7 @@
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -3895,7 +3866,7 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -3922,7 +3893,7 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -3949,7 +3920,7 @@
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -3976,7 +3947,7 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4003,7 +3974,7 @@
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -4030,7 +4001,7 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4057,7 +4028,7 @@
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4084,7 +4055,7 @@
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -4111,7 +4082,7 @@
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4138,7 +4109,7 @@
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4165,7 +4136,7 @@
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4192,7 +4163,7 @@
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4219,7 +4190,7 @@
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4246,7 +4217,7 @@
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4273,7 +4244,7 @@
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4300,7 +4271,7 @@
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4327,7 +4298,7 @@
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4354,7 +4325,7 @@
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4381,7 +4352,7 @@
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4408,7 +4379,7 @@
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4435,7 +4406,7 @@
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4462,7 +4433,7 @@
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4489,7 +4460,7 @@
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -4516,7 +4487,7 @@
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -4543,7 +4514,7 @@
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -4570,7 +4541,7 @@
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -4597,7 +4568,7 @@
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -4624,7 +4595,7 @@
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -4651,7 +4622,7 @@
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -4678,7 +4649,7 @@
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -4705,7 +4676,7 @@
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -4732,7 +4703,7 @@
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -4759,7 +4730,7 @@
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -4786,7 +4757,7 @@
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -4813,7 +4784,7 @@
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -4840,7 +4811,7 @@
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -4867,10 +4838,10 @@
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="17"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -4894,7 +4865,7 @@
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="14"/>
       <c r="C127" s="17"/>
@@ -4921,7 +4892,7 @@
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="14"/>
       <c r="C128" s="17"/>
@@ -4948,7 +4919,7 @@
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="14"/>
       <c r="C129" s="17"/>
@@ -4957,7 +4928,6 @@
       <c r="F129" s="20"/>
       <c r="G129" s="18"/>
       <c r="H129" s="5"/>
-      <c r="J129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -4975,7 +4945,7 @@
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -5001,7 +4971,7 @@
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
     </row>
-    <row r="131" spans="1:29">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
@@ -5027,7 +4997,7 @@
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
     </row>
-    <row r="132" spans="1:29">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
@@ -5053,7 +5023,7 @@
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
     </row>
-    <row r="133" spans="1:29">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
@@ -5079,7 +5049,7 @@
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
     </row>
-    <row r="134" spans="1:29">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
@@ -5105,7 +5075,7 @@
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
     </row>
-    <row r="135" spans="1:29">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
@@ -5114,7 +5084,7 @@
       <c r="F135" s="20"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:29">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
@@ -5123,7 +5093,7 @@
       <c r="F136" s="20"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:29">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -5132,7 +5102,7 @@
       <c r="F137" s="20"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:29">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -5141,7 +5111,7 @@
       <c r="F138" s="20"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:29">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -5150,7 +5120,7 @@
       <c r="F139" s="20"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:29">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -5159,7 +5129,7 @@
       <c r="F140" s="20"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:29">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -5168,7 +5138,7 @@
       <c r="F141" s="20"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:29">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -5177,7 +5147,7 @@
       <c r="F142" s="20"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:29">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -5186,7 +5156,7 @@
       <c r="F143" s="20"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:29">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -5195,7 +5165,7 @@
       <c r="F144" s="20"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
@@ -5204,7 +5174,7 @@
       <c r="F145" s="20"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
@@ -5213,7 +5183,7 @@
       <c r="F146" s="20"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -5222,7 +5192,7 @@
       <c r="F147" s="20"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -5231,7 +5201,7 @@
       <c r="F148" s="20"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -5240,7 +5210,7 @@
       <c r="F149" s="20"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -5249,7 +5219,7 @@
       <c r="F150" s="20"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -5258,7 +5228,7 @@
       <c r="F151" s="20"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -5267,7 +5237,7 @@
       <c r="F152" s="20"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -5276,7 +5246,7 @@
       <c r="F153" s="20"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
@@ -5285,7 +5255,7 @@
       <c r="F154" s="20"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
@@ -5294,7 +5264,7 @@
       <c r="F155" s="20"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
@@ -5303,7 +5273,7 @@
       <c r="F156" s="20"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
@@ -5312,7 +5282,7 @@
       <c r="F157" s="20"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
@@ -5321,7 +5291,7 @@
       <c r="F158" s="20"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
@@ -5330,7 +5300,7 @@
       <c r="F159" s="20"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="16"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
@@ -5339,8 +5309,8 @@
       <c r="F160" s="20"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="5"/>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
       <c r="B161" s="14"/>
       <c r="C161" s="17"/>
       <c r="D161" s="20"/>
@@ -5348,124 +5318,130 @@
       <c r="F161" s="20"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="H182" s="5"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H186" s="5"/>
     </row>
-    <row r="187" spans="1:8">
-      <c r="H187" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
-    <sortCondition ref="A2:A43"/>
+  <sortState ref="A2:F44">
+    <sortCondition ref="A2:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C27" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
@@ -5475,7 +5451,7 @@
     <col min="6" max="6" width="13.109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5486,422 +5462,422 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="3"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="3"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="3"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="3"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="3"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="3"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="3"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="3"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="3"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="3"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="3"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="3"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="3"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="3"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="3"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="3"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="3"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="3"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="3"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="3"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="3"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="3"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -5909,7 +5885,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -5917,7 +5893,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5925,7 +5901,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -5933,7 +5909,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5941,7 +5917,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -5949,7 +5925,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -5957,7 +5933,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -5965,7 +5941,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -5973,7 +5949,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -5981,7 +5957,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -5989,7 +5965,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -5997,7 +5973,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6005,7 +5981,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6013,7 +5989,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6021,7 +5997,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6029,7 +6005,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6037,7 +6013,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6045,7 +6021,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6053,7 +6029,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6061,7 +6037,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6069,7 +6045,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6077,7 +6053,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6085,7 +6061,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6093,7 +6069,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6101,7 +6077,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6109,7 +6085,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6117,7 +6093,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6125,418 +6101,418 @@
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
     </row>
   </sheetData>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="5220" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="124">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220407</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NP问题与算法思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +433,18 @@
   </si>
   <si>
     <t>Ubuntu系统命令（持续更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSDN发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220418</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +531,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -540,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -611,6 +621,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -917,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -929,20 +942,22 @@
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="3" style="19" customWidth="1"/>
-    <col min="8" max="8" width="26.77734375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="49.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="21" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="21" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="3" style="19" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="49.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="21" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -953,35 +968,39 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -996,8 +1015,10 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1008,23 +1029,25 @@
         <v>76</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L2" s="9"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1035,23 +1058,23 @@
         <v>90</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1066,8 +1089,10 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1078,23 +1103,23 @@
         <v>76</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="22" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1109,8 +1134,10 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
@@ -1120,24 +1147,24 @@
       <c r="C5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1152,8 +1179,10 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1164,23 +1193,23 @@
         <v>76</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="22" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1195,8 +1224,10 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
@@ -1204,26 +1235,26 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1238,8 +1269,10 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
@@ -1250,23 +1283,23 @@
         <v>94</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="22" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1281,8 +1314,10 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -1292,24 +1327,24 @@
       <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="22" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1324,8 +1359,10 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1335,24 +1372,24 @@
       <c r="C10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1367,8 +1404,10 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
@@ -1376,26 +1415,26 @@
         <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1410,8 +1449,10 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
@@ -1421,24 +1462,24 @@
       <c r="C12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="23" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1453,8 +1494,10 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>0</v>
       </c>
@@ -1464,24 +1507,24 @@
       <c r="C13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="23" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1496,8 +1539,10 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>0</v>
       </c>
@@ -1507,24 +1552,24 @@
       <c r="C14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1539,8 +1584,10 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>0</v>
       </c>
@@ -1548,26 +1595,26 @@
         <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="23" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="11"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1582,8 +1629,10 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
@@ -1594,23 +1643,23 @@
         <v>76</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="23" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1625,35 +1674,37 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1668,8 +1719,10 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>0</v>
       </c>
@@ -1680,23 +1733,23 @@
         <v>92</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="23" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1711,35 +1764,37 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1754,8 +1809,10 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
@@ -1766,23 +1823,23 @@
         <v>76</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="23" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1797,8 +1854,10 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
@@ -1809,23 +1868,23 @@
         <v>76</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="23" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1840,33 +1899,35 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="K22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="12"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1881,34 +1942,36 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="22" t="s">
+      <c r="D23" s="1"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1923,8 +1986,10 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>1</v>
       </c>
@@ -1932,26 +1997,26 @@
         <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="22" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1966,35 +2031,37 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="22" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2009,29 +2076,31 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="12"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2046,27 +2115,29 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="12"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2081,17 +2152,17 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G28" s="18"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H28" s="18"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="12"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2106,17 +2177,17 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G29" s="18"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H29" s="18"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2131,23 +2202,25 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="13"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="12"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2162,17 +2235,17 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="18"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="18"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="12"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -2187,11 +2260,11 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="18"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="18"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2206,11 +2279,11 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-    </row>
-    <row r="33" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="18"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="18"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2225,11 +2298,11 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-    </row>
-    <row r="34" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="18"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="18"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2244,23 +2317,25 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2275,23 +2350,25 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -2306,23 +2383,25 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-    </row>
-    <row r="37" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="14"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -2337,23 +2416,25 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-    </row>
-    <row r="38" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2368,23 +2449,25 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2399,23 +2482,25 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2430,23 +2515,25 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2461,23 +2548,25 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2492,23 +2581,25 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2523,23 +2614,25 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="13"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -2554,23 +2647,25 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="13"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -2585,23 +2680,25 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="13"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -2616,23 +2713,25 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2647,23 +2746,25 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="13"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2678,23 +2779,25 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="12"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2709,23 +2812,25 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2740,23 +2845,25 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="12"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2771,23 +2878,25 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="12"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="12"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2802,23 +2911,25 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="12"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2833,23 +2944,25 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2864,23 +2977,25 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="13"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2895,23 +3010,25 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="14"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="13"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -2926,23 +3043,25 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="14"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="13"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="12"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -2957,23 +3076,25 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="12"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="13"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -2988,23 +3109,25 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="12"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="14"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="13"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3019,23 +3142,25 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="12"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="14"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="13"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -3050,23 +3175,25 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="12"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="14"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="13"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -3081,23 +3208,25 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="12"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="13"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -3112,23 +3241,25 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="12"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="14"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="13"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -3143,23 +3274,25 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="12"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="14"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="13"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -3174,23 +3307,25 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="12"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="12"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="13"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -3205,23 +3340,25 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="12"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="12"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="14"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -3236,23 +3373,25 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="20"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="13"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -3267,23 +3406,25 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="20"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="13"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -3298,19 +3439,21 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="20"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="5"/>
-      <c r="J69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="5"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="14"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -3325,19 +3468,21 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="20"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="5"/>
-      <c r="J70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="5"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="14"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -3352,19 +3497,21 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="20"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="5"/>
-      <c r="J71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="5"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="14"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -3379,19 +3526,21 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="20"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="5"/>
-      <c r="J72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="5"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="14"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -3406,19 +3555,21 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="20"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="5"/>
-      <c r="J73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="5"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="14"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -3433,19 +3584,21 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="20"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="5"/>
-      <c r="J74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="5"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="14"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -3460,19 +3613,21 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="20"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="5"/>
-      <c r="J75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="5"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="14"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -3487,19 +3642,21 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="20"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="5"/>
-      <c r="J76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="5"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="14"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -3514,19 +3671,21 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="20"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="5"/>
-      <c r="J77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="5"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="14"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -3541,19 +3700,21 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="20"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="5"/>
-      <c r="J78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="5"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="14"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -3568,19 +3729,21 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="20"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="5"/>
-      <c r="J79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="5"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="14"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
@@ -3595,19 +3758,21 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="20"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="5"/>
-      <c r="J80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="5"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="14"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
@@ -3622,19 +3787,21 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="20"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="5"/>
-      <c r="J81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="5"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="14"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
@@ -3649,19 +3816,21 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="20"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="5"/>
-      <c r="J82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="5"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="14"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -3676,19 +3845,21 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="20"/>
+      <c r="D83" s="14"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="5"/>
-      <c r="J83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="5"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="14"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -3703,19 +3874,21 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="20"/>
+      <c r="D84" s="14"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="5"/>
-      <c r="J84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="5"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="14"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -3730,19 +3903,21 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="20"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="5"/>
-      <c r="J85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="5"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="14"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -3757,19 +3932,21 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="20"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="5"/>
-      <c r="J86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="5"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="14"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -3784,19 +3961,21 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="20"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="5"/>
-      <c r="J87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="5"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="14"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -3811,19 +3990,21 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="20"/>
+      <c r="D88" s="14"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="5"/>
-      <c r="J88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="5"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="14"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -3838,19 +4019,21 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="20"/>
+      <c r="D89" s="14"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="5"/>
-      <c r="J89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="5"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="14"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -3865,19 +4048,21 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="20"/>
+      <c r="D90" s="14"/>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="5"/>
-      <c r="J90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="5"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="14"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -3892,19 +4077,21 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="20"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="5"/>
-      <c r="J91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="5"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="14"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -3919,19 +4106,21 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
-      <c r="D92" s="20"/>
+      <c r="D92" s="14"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="5"/>
-      <c r="J92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="5"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="14"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
@@ -3946,19 +4135,21 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="20"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="5"/>
-      <c r="J93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="5"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="14"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
@@ -3973,19 +4164,21 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="20"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="5"/>
-      <c r="J94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="5"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="14"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -4000,19 +4193,21 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
-      <c r="D95" s="20"/>
+      <c r="D95" s="14"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="5"/>
-      <c r="J95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="5"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="14"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -4027,19 +4222,21 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
-      <c r="D96" s="20"/>
+      <c r="D96" s="14"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="5"/>
-      <c r="J96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="5"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="14"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -4054,19 +4251,21 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="20"/>
+      <c r="D97" s="14"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="5"/>
-      <c r="J97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="5"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="14"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -4081,19 +4280,21 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
-      <c r="D98" s="20"/>
+      <c r="D98" s="14"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="5"/>
-      <c r="J98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="5"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="14"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -4108,19 +4309,21 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="20"/>
+      <c r="D99" s="14"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="5"/>
-      <c r="J99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="5"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="14"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -4135,19 +4338,21 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="20"/>
+      <c r="D100" s="14"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="5"/>
-      <c r="J100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="5"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="14"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -4162,19 +4367,21 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="20"/>
+      <c r="D101" s="14"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="5"/>
-      <c r="J101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="5"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="14"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -4189,19 +4396,21 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
-      <c r="D102" s="20"/>
+      <c r="D102" s="14"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="5"/>
-      <c r="J102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="5"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="14"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -4216,19 +4425,21 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="20"/>
+      <c r="D103" s="14"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="5"/>
-      <c r="J103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="5"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="14"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -4243,19 +4454,21 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="20"/>
+      <c r="D104" s="14"/>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="5"/>
-      <c r="J104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="5"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="14"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -4270,19 +4483,21 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="20"/>
+      <c r="D105" s="14"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="5"/>
-      <c r="J105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="5"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="14"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
@@ -4297,19 +4512,21 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="20"/>
+      <c r="D106" s="14"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="5"/>
-      <c r="J106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="5"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="14"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
@@ -4324,19 +4541,21 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
-      <c r="D107" s="20"/>
+      <c r="D107" s="14"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="5"/>
-      <c r="J107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="5"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="14"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
@@ -4351,19 +4570,21 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
-      <c r="D108" s="20"/>
+      <c r="D108" s="14"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="5"/>
-      <c r="J108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="5"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="14"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -4378,19 +4599,21 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
-      <c r="D109" s="20"/>
+      <c r="D109" s="14"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="5"/>
-      <c r="J109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="5"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="14"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -4405,19 +4628,21 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
-      <c r="D110" s="20"/>
+      <c r="D110" s="14"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="5"/>
-      <c r="J110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="5"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="14"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -4432,19 +4657,21 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
-      <c r="D111" s="20"/>
+      <c r="D111" s="14"/>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="5"/>
-      <c r="J111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="5"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="14"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -4459,19 +4686,21 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
-      <c r="D112" s="20"/>
+      <c r="D112" s="14"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="5"/>
-      <c r="J112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="5"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="14"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -4486,19 +4715,21 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
-      <c r="D113" s="20"/>
+      <c r="D113" s="14"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="5"/>
-      <c r="J113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="5"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="14"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -4513,19 +4744,21 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="20"/>
+      <c r="D114" s="14"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="5"/>
-      <c r="J114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="5"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="14"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -4540,19 +4773,21 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
-      <c r="D115" s="20"/>
+      <c r="D115" s="14"/>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="5"/>
-      <c r="J115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="5"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="14"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -4567,19 +4802,21 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
-      <c r="D116" s="20"/>
+      <c r="D116" s="14"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="5"/>
-      <c r="J116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="5"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="14"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -4594,19 +4831,21 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="20"/>
+      <c r="D117" s="14"/>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="5"/>
-      <c r="J117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="5"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="14"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -4621,19 +4860,21 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
-      <c r="D118" s="20"/>
+      <c r="D118" s="14"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="5"/>
-      <c r="J118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="5"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="14"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
@@ -4648,19 +4889,21 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
-      <c r="D119" s="20"/>
+      <c r="D119" s="14"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="5"/>
-      <c r="J119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="5"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="14"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -4675,19 +4918,21 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
-      <c r="D120" s="20"/>
+      <c r="D120" s="14"/>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="5"/>
-      <c r="J120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="5"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="14"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -4702,19 +4947,21 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="20"/>
+      <c r="D121" s="14"/>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="5"/>
-      <c r="J121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="5"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="14"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -4729,19 +4976,21 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
-      <c r="D122" s="20"/>
+      <c r="D122" s="14"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="5"/>
-      <c r="J122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="5"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="14"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -4756,19 +5005,21 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
-      <c r="D123" s="20"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="5"/>
-      <c r="J123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="5"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="14"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -4783,19 +5034,21 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
-      <c r="D124" s="20"/>
+      <c r="D124" s="14"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="5"/>
-      <c r="J124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="5"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="14"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -4810,19 +5063,21 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
-      <c r="D125" s="20"/>
+      <c r="D125" s="14"/>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="5"/>
-      <c r="J125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="5"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="14"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -4837,19 +5092,21 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
-      <c r="D126" s="20"/>
+      <c r="D126" s="14"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="5"/>
-      <c r="J126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="5"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="14"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -4864,19 +5121,21 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="14"/>
       <c r="C127" s="17"/>
-      <c r="D127" s="20"/>
+      <c r="D127" s="17"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="5"/>
-      <c r="J127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="5"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="17"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
@@ -4891,19 +5150,21 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="14"/>
       <c r="C128" s="17"/>
-      <c r="D128" s="20"/>
+      <c r="D128" s="17"/>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="5"/>
-      <c r="J128" s="1"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="5"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="17"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -4918,18 +5179,20 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="14"/>
       <c r="C129" s="17"/>
-      <c r="D129" s="20"/>
+      <c r="D129" s="17"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="5"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="5"/>
+      <c r="L129" s="17"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -4944,18 +5207,20 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
-    </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
-      <c r="D130" s="20"/>
+      <c r="D130" s="17"/>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="5"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="5"/>
+      <c r="L130" s="17"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -4970,18 +5235,20 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
-    </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
-      <c r="D131" s="20"/>
+      <c r="D131" s="17"/>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="5"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="5"/>
+      <c r="L131" s="17"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
@@ -4996,18 +5263,20 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
-      <c r="D132" s="20"/>
+      <c r="D132" s="17"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="5"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="5"/>
+      <c r="L132" s="17"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
@@ -5022,18 +5291,20 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
-    </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="1"/>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
-      <c r="D133" s="20"/>
+      <c r="D133" s="17"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="5"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="5"/>
+      <c r="L133" s="17"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
@@ -5048,18 +5319,20 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
-      <c r="D134" s="20"/>
+      <c r="D134" s="17"/>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="5"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="5"/>
+      <c r="L134" s="17"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -5074,351 +5347,409 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
-      <c r="D135" s="20"/>
+      <c r="D135" s="17"/>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
-      <c r="H135" s="5"/>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G135" s="20"/>
+      <c r="I135" s="5"/>
+      <c r="L135" s="17"/>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
-      <c r="D136" s="20"/>
+      <c r="D136" s="17"/>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
-      <c r="H136" s="5"/>
-    </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G136" s="20"/>
+      <c r="I136" s="5"/>
+      <c r="L136" s="17"/>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
-      <c r="D137" s="20"/>
+      <c r="D137" s="17"/>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
-      <c r="H137" s="5"/>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G137" s="20"/>
+      <c r="I137" s="5"/>
+      <c r="L137" s="17"/>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
-      <c r="D138" s="20"/>
+      <c r="D138" s="17"/>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
-      <c r="H138" s="5"/>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G138" s="20"/>
+      <c r="I138" s="5"/>
+      <c r="L138" s="17"/>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
-      <c r="D139" s="20"/>
+      <c r="D139" s="17"/>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
-      <c r="H139" s="5"/>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G139" s="20"/>
+      <c r="I139" s="5"/>
+      <c r="L139" s="17"/>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
-      <c r="D140" s="20"/>
+      <c r="D140" s="17"/>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
-      <c r="H140" s="5"/>
-    </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G140" s="20"/>
+      <c r="I140" s="5"/>
+      <c r="L140" s="17"/>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
-      <c r="D141" s="20"/>
+      <c r="D141" s="17"/>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
-      <c r="H141" s="5"/>
-    </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G141" s="20"/>
+      <c r="I141" s="5"/>
+      <c r="L141" s="17"/>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
-      <c r="D142" s="20"/>
+      <c r="D142" s="17"/>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
-      <c r="H142" s="5"/>
-    </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G142" s="20"/>
+      <c r="I142" s="5"/>
+      <c r="L142" s="17"/>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
-      <c r="D143" s="20"/>
+      <c r="D143" s="17"/>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
-      <c r="H143" s="5"/>
-    </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G143" s="20"/>
+      <c r="I143" s="5"/>
+      <c r="L143" s="17"/>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
-      <c r="D144" s="20"/>
+      <c r="D144" s="17"/>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
-      <c r="H144" s="5"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G144" s="20"/>
+      <c r="I144" s="5"/>
+      <c r="L144" s="17"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
-      <c r="D145" s="20"/>
+      <c r="D145" s="17"/>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
-      <c r="H145" s="5"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G145" s="20"/>
+      <c r="I145" s="5"/>
+      <c r="L145" s="17"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
-      <c r="D146" s="20"/>
+      <c r="D146" s="17"/>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
-      <c r="H146" s="5"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G146" s="20"/>
+      <c r="I146" s="5"/>
+      <c r="L146" s="17"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
-      <c r="D147" s="20"/>
+      <c r="D147" s="17"/>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
-      <c r="H147" s="5"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G147" s="20"/>
+      <c r="I147" s="5"/>
+      <c r="L147" s="17"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
-      <c r="D148" s="20"/>
+      <c r="D148" s="17"/>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
-      <c r="H148" s="5"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G148" s="20"/>
+      <c r="I148" s="5"/>
+      <c r="L148" s="17"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
-      <c r="D149" s="20"/>
+      <c r="D149" s="17"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
-      <c r="H149" s="5"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G149" s="20"/>
+      <c r="I149" s="5"/>
+      <c r="L149" s="17"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
-      <c r="D150" s="20"/>
+      <c r="D150" s="17"/>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
-      <c r="H150" s="5"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G150" s="20"/>
+      <c r="I150" s="5"/>
+      <c r="L150" s="17"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
-      <c r="D151" s="20"/>
+      <c r="D151" s="17"/>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
-      <c r="H151" s="5"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G151" s="20"/>
+      <c r="I151" s="5"/>
+      <c r="L151" s="17"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
-      <c r="D152" s="20"/>
+      <c r="D152" s="17"/>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
-      <c r="H152" s="5"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G152" s="20"/>
+      <c r="I152" s="5"/>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
-      <c r="D153" s="20"/>
+      <c r="D153" s="17"/>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
-      <c r="H153" s="5"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G153" s="20"/>
+      <c r="I153" s="5"/>
+      <c r="L153" s="17"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
-      <c r="D154" s="20"/>
+      <c r="D154" s="17"/>
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
-      <c r="H154" s="5"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G154" s="20"/>
+      <c r="I154" s="5"/>
+      <c r="L154" s="17"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
-      <c r="D155" s="20"/>
+      <c r="D155" s="17"/>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
-      <c r="H155" s="5"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G155" s="20"/>
+      <c r="I155" s="5"/>
+      <c r="L155" s="17"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
-      <c r="D156" s="20"/>
+      <c r="D156" s="17"/>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
-      <c r="H156" s="5"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G156" s="20"/>
+      <c r="I156" s="5"/>
+      <c r="L156" s="17"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
-      <c r="D157" s="20"/>
+      <c r="D157" s="17"/>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
-      <c r="H157" s="5"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G157" s="20"/>
+      <c r="I157" s="5"/>
+      <c r="L157" s="17"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
-      <c r="D158" s="20"/>
+      <c r="D158" s="17"/>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
-      <c r="H158" s="5"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G158" s="20"/>
+      <c r="I158" s="5"/>
+      <c r="L158" s="17"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
-      <c r="D159" s="20"/>
+      <c r="D159" s="17"/>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
-      <c r="H159" s="5"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G159" s="20"/>
+      <c r="I159" s="5"/>
+      <c r="L159" s="17"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="16"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
-      <c r="D160" s="20"/>
+      <c r="D160" s="17"/>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
-      <c r="H160" s="5"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G160" s="20"/>
+      <c r="I160" s="5"/>
+      <c r="L160" s="17"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="14"/>
       <c r="C161" s="17"/>
-      <c r="D161" s="20"/>
+      <c r="D161" s="17"/>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
-      <c r="H161" s="5"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G161" s="20"/>
+      <c r="I161" s="5"/>
+      <c r="L161" s="17"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="14"/>
       <c r="C162" s="17"/>
-      <c r="D162" s="20"/>
+      <c r="D162" s="17"/>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
-      <c r="H162" s="5"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G162" s="20"/>
+      <c r="I162" s="5"/>
+      <c r="L162" s="17"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
-      <c r="H163" s="5"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
-      <c r="H164" s="5"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
-      <c r="H165" s="5"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
-      <c r="H166" s="5"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
-      <c r="H167" s="5"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
-      <c r="H168" s="5"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
-      <c r="H169" s="5"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
-      <c r="H170" s="5"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
-      <c r="H171" s="5"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
-      <c r="H172" s="5"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
-      <c r="H173" s="5"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
-      <c r="H174" s="5"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
-      <c r="H175" s="5"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
-      <c r="H176" s="5"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
-      <c r="H177" s="5"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
-      <c r="H178" s="5"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
-      <c r="H179" s="5"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
-      <c r="H180" s="5"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
-      <c r="H181" s="5"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
-      <c r="H182" s="5"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
-      <c r="H183" s="5"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H184" s="5"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H185" s="5"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H186" s="5"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I186" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:F44">
@@ -5435,10 +5766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5446,12 +5777,13 @@
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5462,16 +5794,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>80</v>
       </c>
@@ -5482,10 +5817,11 @@
         <v>68</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="26"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>80</v>
       </c>
@@ -5496,10 +5832,11 @@
         <v>68</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="26"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>80</v>
       </c>
@@ -5510,10 +5847,11 @@
         <v>68</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="26"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>80</v>
       </c>
@@ -5524,10 +5862,11 @@
         <v>68</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="26"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>80</v>
       </c>
@@ -5538,10 +5877,11 @@
         <v>68</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="26"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>80</v>
       </c>
@@ -5552,10 +5892,11 @@
         <v>68</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="26"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>80</v>
       </c>
@@ -5566,10 +5907,11 @@
         <v>68</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="26"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>81</v>
       </c>
@@ -5580,10 +5922,11 @@
         <v>68</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="26"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>81</v>
       </c>
@@ -5594,10 +5937,11 @@
         <v>69</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="26"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>81</v>
       </c>
@@ -5608,10 +5952,11 @@
         <v>68</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="26"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>81</v>
       </c>
@@ -5622,10 +5967,11 @@
         <v>69</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="26"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>81</v>
       </c>
@@ -5636,10 +5982,11 @@
         <v>69</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="26"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>81</v>
       </c>
@@ -5650,10 +5997,11 @@
         <v>68</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="26"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>81</v>
       </c>
@@ -5664,10 +6012,11 @@
         <v>69</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="26"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>81</v>
       </c>
@@ -5678,10 +6027,11 @@
         <v>69</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="26"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>81</v>
       </c>
@@ -5692,10 +6042,11 @@
         <v>69</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="26"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>81</v>
       </c>
@@ -5706,10 +6057,11 @@
         <v>69</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="26"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>81</v>
       </c>
@@ -5720,10 +6072,11 @@
         <v>69</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="26"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>81</v>
       </c>
@@ -5734,10 +6087,11 @@
         <v>68</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="26"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>81</v>
       </c>
@@ -5748,10 +6102,11 @@
         <v>68</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="26"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>82</v>
       </c>
@@ -5762,10 +6117,11 @@
         <v>76</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="26"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>82</v>
       </c>
@@ -5776,10 +6132,11 @@
         <v>90</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="26"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>82</v>
       </c>
@@ -5790,10 +6147,11 @@
         <v>90</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="26"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>6</v>
       </c>
@@ -5804,10 +6162,11 @@
         <v>78</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="26"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>6</v>
       </c>
@@ -5818,10 +6177,11 @@
         <v>78</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="26"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>6</v>
       </c>
@@ -5832,10 +6192,11 @@
         <v>85</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="26"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
@@ -5846,10 +6207,11 @@
         <v>76</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="26"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>6</v>
       </c>
@@ -5860,10 +6222,11 @@
         <v>78</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="26"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>6</v>
       </c>
@@ -5874,501 +6237,590 @@
         <v>76</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="26"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="14"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="14"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="12"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="12"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="12"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="12"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="12"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="12"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="12"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3372F3-E94B-4612-B8EB-BDA546EE0888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220317</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未分类贪心算法</t>
   </si>
   <si>
@@ -436,33 +429,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220414</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSDN发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20220418</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220420</t>
+  </si>
+  <si>
+    <t>20220427</t>
+  </si>
+  <si>
+    <t>20220428</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -471,7 +469,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -480,7 +478,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -488,7 +486,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -644,7 +642,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,6 +717,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -754,6 +769,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -929,15 +961,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
@@ -957,7 +989,7 @@
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -968,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>93</v>
@@ -990,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>93</v>
@@ -1018,7 +1050,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1079,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1124,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="4" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1146,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="26"/>
@@ -1137,7 +1169,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1214,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1259,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1267,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="26"/>
@@ -1272,7 +1304,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1349,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1371,7 @@
         <v>35</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="26"/>
@@ -1362,7 +1394,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1439,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
@@ -1415,10 +1447,10 @@
         <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
@@ -1452,7 +1484,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1529,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="22" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1574,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="22" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1619,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="22" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1627,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="26"/>
@@ -1632,7 +1664,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
@@ -1677,15 +1709,15 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="25"/>
@@ -1699,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="26"/>
@@ -1722,7 +1754,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="22" t="s">
         <v>0</v>
       </c>
@@ -1767,15 +1799,15 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="25"/>
@@ -1812,7 +1844,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
@@ -1857,7 +1889,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
@@ -1876,10 +1908,10 @@
         <v>79</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="26"/>
@@ -1902,15 +1934,15 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A22" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="10"/>
@@ -1922,7 +1954,7 @@
         <v>97</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="14"/>
@@ -1945,15 +1977,15 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A23" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="10"/>
@@ -1966,10 +1998,10 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="14"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="10"/>
       <c r="O23" s="12"/>
       <c r="P23" s="1"/>
@@ -1989,7 +2021,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A24" s="22" t="s">
         <v>1</v>
       </c>
@@ -1997,7 +2029,7 @@
         <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="26"/>
@@ -2034,15 +2066,15 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="26"/>
@@ -2079,15 +2111,15 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -2118,15 +2150,15 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1"/>
       <c r="F27" s="10"/>
@@ -2155,7 +2187,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="H28" s="18"/>
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
@@ -2180,7 +2212,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
@@ -2205,7 +2237,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="15"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2238,7 +2270,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="H31" s="18"/>
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
@@ -2263,7 +2295,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="H32" s="18"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2282,7 +2314,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="H33" s="18"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2301,7 +2333,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="H34" s="18"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2320,7 +2352,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2353,7 +2385,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2386,7 +2418,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2419,7 +2451,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2452,7 +2484,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2485,7 +2517,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2518,7 +2550,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2551,7 +2583,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2584,7 +2616,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2617,7 +2649,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2650,7 +2682,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2683,7 +2715,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2716,7 +2748,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2749,7 +2781,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2782,7 +2814,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2815,7 +2847,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2848,7 +2880,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2881,7 +2913,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2914,7 +2946,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -2947,7 +2979,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2980,7 +3012,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -3013,7 +3045,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -3046,7 +3078,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -3079,7 +3111,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3112,7 +3144,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3145,7 +3177,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3178,7 +3210,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -3211,7 +3243,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -3244,7 +3276,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63" s="15"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3277,7 +3309,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -3310,7 +3342,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -3343,7 +3375,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31">
       <c r="A66" s="16"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3376,7 +3408,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31">
       <c r="A67" s="16"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3409,7 +3441,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31">
       <c r="A68" s="16"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3442,7 +3474,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31">
       <c r="A69" s="16"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3471,7 +3503,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31">
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3500,7 +3532,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31">
       <c r="A71" s="16"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3529,7 +3561,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31">
       <c r="A72" s="16"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3558,7 +3590,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31">
       <c r="A73" s="16"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3587,7 +3619,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31">
       <c r="A74" s="16"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3616,7 +3648,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31">
       <c r="A75" s="16"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3645,7 +3677,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31">
       <c r="A76" s="16"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3674,7 +3706,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31">
       <c r="A77" s="16"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3703,7 +3735,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31">
       <c r="A78" s="16"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3732,7 +3764,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31">
       <c r="A79" s="16"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3761,7 +3793,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31">
       <c r="A80" s="16"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3790,7 +3822,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31">
       <c r="A81" s="16"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3819,7 +3851,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31">
       <c r="A82" s="16"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3848,7 +3880,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31">
       <c r="A83" s="16"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3877,7 +3909,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31">
       <c r="A84" s="16"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -3906,7 +3938,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31">
       <c r="A85" s="16"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3935,7 +3967,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31">
       <c r="A86" s="16"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3964,7 +3996,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31">
       <c r="A87" s="16"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -3993,7 +4025,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31">
       <c r="A88" s="16"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -4022,7 +4054,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31">
       <c r="A89" s="16"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -4051,7 +4083,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31">
       <c r="A90" s="16"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -4080,7 +4112,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31">
       <c r="A91" s="16"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -4109,7 +4141,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31">
       <c r="A92" s="16"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4138,7 +4170,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31">
       <c r="A93" s="16"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4167,7 +4199,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31">
       <c r="A94" s="16"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -4196,7 +4228,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31">
       <c r="A95" s="16"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4225,7 +4257,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31">
       <c r="A96" s="16"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4254,7 +4286,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31">
       <c r="A97" s="16"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -4283,7 +4315,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31">
       <c r="A98" s="16"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4312,7 +4344,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31">
       <c r="A99" s="16"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4341,7 +4373,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31">
       <c r="A100" s="16"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4370,7 +4402,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31">
       <c r="A101" s="16"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4399,7 +4431,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31">
       <c r="A102" s="16"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4428,7 +4460,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31">
       <c r="A103" s="16"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4457,7 +4489,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31">
       <c r="A104" s="16"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4486,7 +4518,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31">
       <c r="A105" s="16"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4515,7 +4547,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31">
       <c r="A106" s="16"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4544,7 +4576,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31">
       <c r="A107" s="16"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4573,7 +4605,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31">
       <c r="A108" s="16"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4602,7 +4634,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31">
       <c r="A109" s="16"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4631,7 +4663,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4660,7 +4692,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4689,7 +4721,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -4718,7 +4750,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -4747,7 +4779,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31">
       <c r="A114" s="16"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -4776,7 +4808,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31">
       <c r="A115" s="16"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -4805,7 +4837,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31">
       <c r="A116" s="16"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -4834,7 +4866,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31">
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -4863,7 +4895,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31">
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -4892,7 +4924,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31">
       <c r="A119" s="16"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -4921,7 +4953,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31">
       <c r="A120" s="16"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -4950,7 +4982,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31">
       <c r="A121" s="16"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -4979,7 +5011,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31">
       <c r="A122" s="16"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -5008,7 +5040,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31">
       <c r="A123" s="16"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5037,7 +5069,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31">
       <c r="A124" s="16"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5066,7 +5098,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31">
       <c r="A125" s="16"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5095,7 +5127,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31">
       <c r="A126" s="16"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5124,7 +5156,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31">
       <c r="A127" s="16"/>
       <c r="B127" s="14"/>
       <c r="C127" s="17"/>
@@ -5153,7 +5185,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31">
       <c r="A128" s="16"/>
       <c r="B128" s="14"/>
       <c r="C128" s="17"/>
@@ -5182,7 +5214,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31">
       <c r="A129" s="16"/>
       <c r="B129" s="14"/>
       <c r="C129" s="17"/>
@@ -5210,7 +5242,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31">
       <c r="A130" s="16"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -5238,7 +5270,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31">
       <c r="A131" s="16"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
@@ -5266,7 +5298,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31">
       <c r="A132" s="16"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
@@ -5294,7 +5326,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31">
       <c r="A133" s="16"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
@@ -5322,7 +5354,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31">
       <c r="A134" s="16"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
@@ -5350,7 +5382,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31">
       <c r="A135" s="16"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
@@ -5361,7 +5393,7 @@
       <c r="I135" s="5"/>
       <c r="L135" s="17"/>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31">
       <c r="A136" s="16"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
@@ -5372,7 +5404,7 @@
       <c r="I136" s="5"/>
       <c r="L136" s="17"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31">
       <c r="A137" s="16"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -5383,7 +5415,7 @@
       <c r="I137" s="5"/>
       <c r="L137" s="17"/>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31">
       <c r="A138" s="16"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -5394,7 +5426,7 @@
       <c r="I138" s="5"/>
       <c r="L138" s="17"/>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31">
       <c r="A139" s="16"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -5405,7 +5437,7 @@
       <c r="I139" s="5"/>
       <c r="L139" s="17"/>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31">
       <c r="A140" s="16"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -5416,7 +5448,7 @@
       <c r="I140" s="5"/>
       <c r="L140" s="17"/>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31">
       <c r="A141" s="16"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -5427,7 +5459,7 @@
       <c r="I141" s="5"/>
       <c r="L141" s="17"/>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31">
       <c r="A142" s="16"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -5438,7 +5470,7 @@
       <c r="I142" s="5"/>
       <c r="L142" s="17"/>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31">
       <c r="A143" s="16"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -5449,7 +5481,7 @@
       <c r="I143" s="5"/>
       <c r="L143" s="17"/>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31">
       <c r="A144" s="16"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -5460,7 +5492,7 @@
       <c r="I144" s="5"/>
       <c r="L144" s="17"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
@@ -5471,7 +5503,7 @@
       <c r="I145" s="5"/>
       <c r="L145" s="17"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" s="16"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
@@ -5482,7 +5514,7 @@
       <c r="I146" s="5"/>
       <c r="L146" s="17"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" s="16"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -5493,7 +5525,7 @@
       <c r="I147" s="5"/>
       <c r="L147" s="17"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -5504,7 +5536,7 @@
       <c r="I148" s="5"/>
       <c r="L148" s="17"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -5515,7 +5547,7 @@
       <c r="I149" s="5"/>
       <c r="L149" s="17"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -5526,7 +5558,7 @@
       <c r="I150" s="5"/>
       <c r="L150" s="17"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="A151" s="16"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -5537,7 +5569,7 @@
       <c r="I151" s="5"/>
       <c r="L151" s="17"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" s="16"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -5548,7 +5580,7 @@
       <c r="I152" s="5"/>
       <c r="L152" s="17"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" s="16"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -5559,7 +5591,7 @@
       <c r="I153" s="5"/>
       <c r="L153" s="17"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" s="16"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
@@ -5570,7 +5602,7 @@
       <c r="I154" s="5"/>
       <c r="L154" s="17"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" s="16"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
@@ -5581,7 +5613,7 @@
       <c r="I155" s="5"/>
       <c r="L155" s="17"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" s="16"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
@@ -5592,7 +5624,7 @@
       <c r="I156" s="5"/>
       <c r="L156" s="17"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="A157" s="16"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
@@ -5603,7 +5635,7 @@
       <c r="I157" s="5"/>
       <c r="L157" s="17"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" s="16"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
@@ -5614,7 +5646,7 @@
       <c r="I158" s="5"/>
       <c r="L158" s="17"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" s="16"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
@@ -5625,7 +5657,7 @@
       <c r="I159" s="5"/>
       <c r="L159" s="17"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="16"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
@@ -5636,7 +5668,7 @@
       <c r="I160" s="5"/>
       <c r="L160" s="17"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" s="16"/>
       <c r="B161" s="14"/>
       <c r="C161" s="17"/>
@@ -5647,7 +5679,7 @@
       <c r="I161" s="5"/>
       <c r="L161" s="17"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" s="5"/>
       <c r="B162" s="14"/>
       <c r="C162" s="17"/>
@@ -5658,101 +5690,101 @@
       <c r="I162" s="5"/>
       <c r="L162" s="17"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="5"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="5"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" s="5"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="5"/>
       <c r="I178" s="5"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="5"/>
       <c r="I179" s="5"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="5"/>
       <c r="I180" s="5"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="5"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="5"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="5"/>
       <c r="I183" s="5"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="I184" s="5"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="I185" s="5"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="I186" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
     <sortCondition ref="A2:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5765,14 +5797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
@@ -5783,7 +5815,7 @@
     <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5794,7 +5826,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>93</v>
@@ -5806,7 +5838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
         <v>80</v>
       </c>
@@ -5821,7 +5853,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
         <v>80</v>
       </c>
@@ -5836,7 +5868,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="23" t="s">
         <v>80</v>
       </c>
@@ -5851,7 +5883,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="23" t="s">
         <v>80</v>
       </c>
@@ -5866,7 +5898,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="23" t="s">
         <v>80</v>
       </c>
@@ -5881,7 +5913,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="23" t="s">
         <v>80</v>
       </c>
@@ -5896,7 +5928,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="23" t="s">
         <v>80</v>
       </c>
@@ -5911,7 +5943,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="23" t="s">
         <v>81</v>
       </c>
@@ -5926,7 +5958,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="23" t="s">
         <v>81</v>
       </c>
@@ -5941,7 +5973,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="23" t="s">
         <v>81</v>
       </c>
@@ -5956,7 +5988,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="23" t="s">
         <v>81</v>
       </c>
@@ -5971,7 +6003,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="23" t="s">
         <v>81</v>
       </c>
@@ -5986,7 +6018,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="23" t="s">
         <v>81</v>
       </c>
@@ -6001,7 +6033,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="23" t="s">
         <v>81</v>
       </c>
@@ -6016,7 +6048,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="23" t="s">
         <v>81</v>
       </c>
@@ -6031,7 +6063,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="23" t="s">
         <v>81</v>
       </c>
@@ -6046,7 +6078,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="23" t="s">
         <v>81</v>
       </c>
@@ -6061,7 +6093,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="23" t="s">
         <v>81</v>
       </c>
@@ -6076,7 +6108,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="23" t="s">
         <v>81</v>
       </c>
@@ -6091,7 +6123,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="23" t="s">
         <v>81</v>
       </c>
@@ -6106,7 +6138,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="23" t="s">
         <v>82</v>
       </c>
@@ -6121,7 +6153,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="23" t="s">
         <v>82</v>
       </c>
@@ -6136,7 +6168,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="23" t="s">
         <v>82</v>
       </c>
@@ -6151,7 +6183,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="22" t="s">
         <v>6</v>
       </c>
@@ -6166,7 +6198,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="22" t="s">
         <v>6</v>
       </c>
@@ -6181,7 +6213,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="22" t="s">
         <v>6</v>
       </c>
@@ -6196,7 +6228,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
@@ -6211,7 +6243,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="22" t="s">
         <v>6</v>
       </c>
@@ -6226,7 +6258,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="22" t="s">
         <v>6</v>
       </c>
@@ -6241,7 +6273,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6250,7 +6282,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -6259,7 +6291,7 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6268,7 +6300,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6277,7 +6309,7 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6286,7 +6318,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6295,7 +6327,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6304,7 +6336,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6313,7 +6345,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -6322,7 +6354,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -6331,7 +6363,7 @@
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -6340,7 +6372,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6349,7 +6381,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6358,7 +6390,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6367,7 +6399,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6376,7 +6408,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6385,7 +6417,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6394,7 +6426,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6403,7 +6435,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6412,7 +6444,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6421,7 +6453,7 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6430,7 +6462,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6439,7 +6471,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6448,7 +6480,7 @@
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6457,7 +6489,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6466,7 +6498,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="15"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6475,7 +6507,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6484,7 +6516,7 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6493,478 +6525,478 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="5"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="5"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="5"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="5"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" s="5"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="5"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="5"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="5"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="5"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" s="5"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="5"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="5"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="5"/>
     </row>
   </sheetData>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3372F3-E94B-4612-B8EB-BDA546EE0888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C78FB-B4ED-44E5-A952-A63FADA2B40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ubuntu系统命令（持续更新）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,6 +440,12 @@
   </si>
   <si>
     <t>20220428</t>
+  </si>
+  <si>
+    <t>20220523</t>
+  </si>
+  <si>
+    <t>20220609</t>
   </si>
 </sst>
 </file>
@@ -966,7 +968,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1000,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>93</v>
@@ -1022,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>93</v>
@@ -1371,7 +1373,7 @@
         <v>35</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="26"/>
@@ -1447,7 +1449,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="26"/>
@@ -1627,7 +1629,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="26"/>
@@ -1807,7 +1809,7 @@
         <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="25"/>
@@ -1908,13 +1910,13 @@
         <v>79</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="26"/>
+      <c r="M21" s="12"/>
       <c r="N21" s="10"/>
       <c r="O21" s="11"/>
       <c r="P21" s="1"/>
@@ -1942,7 +1944,7 @@
         <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="10"/>
@@ -1954,7 +1956,7 @@
         <v>97</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="14"/>
@@ -1998,10 +2000,10 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="26"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="10"/>
       <c r="O23" s="12"/>
       <c r="P23" s="1"/>
@@ -2043,7 +2045,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="26"/>
@@ -5826,7 +5828,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>93</v>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C78FB-B4ED-44E5-A952-A63FADA2B40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2556" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220408</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220409</t>
   </si>
   <si>
@@ -433,36 +428,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220420</t>
-  </si>
-  <si>
     <t>20220427</t>
   </si>
   <si>
-    <t>20220428</t>
-  </si>
-  <si>
     <t>20220523</t>
   </si>
   <si>
     <t>20220609</t>
+  </si>
+  <si>
+    <t>20220704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBase数据库系统操作</t>
+  </si>
+  <si>
+    <t>20220704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C函数指针笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -471,7 +487,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -480,7 +496,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -488,7 +504,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -644,7 +660,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,23 +735,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -771,23 +770,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -963,15 +945,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
@@ -991,7 +973,7 @@
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>93</v>
@@ -1024,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>93</v>
@@ -1052,7 +1034,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1063,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1108,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" s="4" customFormat="1">
+    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1130,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="26"/>
@@ -1171,7 +1153,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1198,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1243,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1251,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="26"/>
@@ -1306,7 +1288,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1333,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1355,7 @@
         <v>35</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="26"/>
@@ -1396,7 +1378,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1423,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1431,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="26"/>
@@ -1486,7 +1468,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1513,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1558,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1603,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1611,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="26"/>
@@ -1666,7 +1648,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1693,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1701,7 @@
         <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="25"/>
@@ -1756,7 +1738,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>0</v>
       </c>
@@ -1801,15 +1783,15 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="25"/>
@@ -1846,7 +1828,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1873,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
@@ -1910,10 +1892,10 @@
         <v>79</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="12"/>
@@ -1936,15 +1918,15 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="10"/>
@@ -1956,7 +1938,7 @@
         <v>97</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="14"/>
@@ -1979,15 +1961,15 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="10"/>
@@ -2000,7 +1982,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="12"/>
@@ -2023,20 +2005,19 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="26"/>
+        <v>128</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="18"/>
       <c r="I24" s="22" t="s">
         <v>2</v>
@@ -2045,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="26"/>
@@ -2068,15 +2049,15 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>101</v>
+    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="26"/>
@@ -2090,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="26"/>
@@ -2113,24 +2094,30 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="I26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -2152,18 +2139,20 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="B27" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="18"/>
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
@@ -2189,7 +2178,18 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="F28" s="10"/>
       <c r="H28" s="18"/>
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
@@ -2214,7 +2214,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
@@ -2239,14 +2239,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
@@ -2272,7 +2265,14 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="18"/>
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
@@ -2297,7 +2297,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="18"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2316,7 +2316,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="18"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2335,7 +2335,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="18"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2354,14 +2354,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="18"/>
       <c r="I35" s="13"/>
       <c r="J35" s="14"/>
@@ -2387,7 +2380,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2420,7 +2413,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2453,7 +2446,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2486,7 +2479,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2519,7 +2512,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2552,7 +2545,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2585,7 +2578,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2618,7 +2611,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2651,7 +2644,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2684,7 +2677,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2717,7 +2710,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2750,7 +2743,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2783,7 +2776,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2816,7 +2809,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2849,13 +2842,13 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="18"/>
       <c r="I50" s="13"/>
@@ -2882,13 +2875,13 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="12"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="12"/>
       <c r="H51" s="18"/>
       <c r="I51" s="13"/>
@@ -2915,7 +2908,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2948,7 +2941,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -2981,7 +2974,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -3014,13 +3007,13 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="18"/>
       <c r="I55" s="13"/>
@@ -3047,13 +3040,13 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="12"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="12"/>
       <c r="H56" s="18"/>
       <c r="I56" s="13"/>
@@ -3080,7 +3073,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -3113,7 +3106,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3146,7 +3139,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3179,7 +3172,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3212,7 +3205,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -3245,7 +3238,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -3278,8 +3271,8 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31">
-      <c r="A63" s="15"/>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -3311,8 +3304,8 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31">
-      <c r="A64" s="13"/>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -3344,7 +3337,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -3377,8 +3370,8 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31">
-      <c r="A66" s="16"/>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -3410,14 +3403,14 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="18"/>
       <c r="I67" s="13"/>
       <c r="J67" s="14"/>
@@ -3443,7 +3436,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3476,7 +3469,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3505,7 +3498,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3534,7 +3527,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3563,7 +3556,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3592,7 +3585,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3621,7 +3614,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3650,7 +3643,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3679,7 +3672,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3708,7 +3701,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3737,7 +3730,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3766,7 +3759,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3795,7 +3788,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3824,7 +3817,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3853,7 +3846,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3882,7 +3875,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3911,7 +3904,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -3940,7 +3933,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3969,7 +3962,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3998,7 +3991,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -4027,7 +4020,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -4056,7 +4049,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -4085,7 +4078,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -4114,7 +4107,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -4143,7 +4136,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4172,7 +4165,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4201,7 +4194,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -4230,7 +4223,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4259,7 +4252,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4288,7 +4281,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -4317,7 +4310,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4346,7 +4339,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4375,7 +4368,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4404,7 +4397,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4433,7 +4426,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4462,7 +4455,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4491,7 +4484,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4520,7 +4513,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4549,7 +4542,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4578,7 +4571,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4607,7 +4600,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4636,7 +4629,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4665,7 +4658,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4694,7 +4687,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4723,7 +4716,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -4752,7 +4745,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -4781,7 +4774,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -4810,7 +4803,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -4839,7 +4832,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -4868,7 +4861,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -4897,7 +4890,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -4926,7 +4919,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -4955,7 +4948,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -4984,7 +4977,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5013,7 +5006,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -5042,7 +5035,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5071,7 +5064,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5100,7 +5093,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5129,7 +5122,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5158,11 +5151,11 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="14"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
@@ -5187,7 +5180,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="14"/>
       <c r="C128" s="17"/>
@@ -5216,7 +5209,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="14"/>
       <c r="C129" s="17"/>
@@ -5244,7 +5237,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -5272,7 +5265,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
@@ -5300,7 +5293,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
@@ -5328,7 +5321,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
@@ -5356,7 +5349,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
@@ -5384,7 +5377,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
@@ -5395,7 +5388,7 @@
       <c r="I135" s="5"/>
       <c r="L135" s="17"/>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
@@ -5406,7 +5399,7 @@
       <c r="I136" s="5"/>
       <c r="L136" s="17"/>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -5417,7 +5410,7 @@
       <c r="I137" s="5"/>
       <c r="L137" s="17"/>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -5428,7 +5421,7 @@
       <c r="I138" s="5"/>
       <c r="L138" s="17"/>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -5439,7 +5432,7 @@
       <c r="I139" s="5"/>
       <c r="L139" s="17"/>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -5450,7 +5443,7 @@
       <c r="I140" s="5"/>
       <c r="L140" s="17"/>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -5461,7 +5454,7 @@
       <c r="I141" s="5"/>
       <c r="L141" s="17"/>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -5472,7 +5465,7 @@
       <c r="I142" s="5"/>
       <c r="L142" s="17"/>
     </row>
-    <row r="143" spans="1:31">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -5483,7 +5476,7 @@
       <c r="I143" s="5"/>
       <c r="L143" s="17"/>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -5494,7 +5487,7 @@
       <c r="I144" s="5"/>
       <c r="L144" s="17"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
@@ -5505,7 +5498,7 @@
       <c r="I145" s="5"/>
       <c r="L145" s="17"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
@@ -5516,7 +5509,7 @@
       <c r="I146" s="5"/>
       <c r="L146" s="17"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -5527,7 +5520,7 @@
       <c r="I147" s="5"/>
       <c r="L147" s="17"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -5538,7 +5531,7 @@
       <c r="I148" s="5"/>
       <c r="L148" s="17"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -5549,7 +5542,7 @@
       <c r="I149" s="5"/>
       <c r="L149" s="17"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -5560,7 +5553,7 @@
       <c r="I150" s="5"/>
       <c r="L150" s="17"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -5571,7 +5564,7 @@
       <c r="I151" s="5"/>
       <c r="L151" s="17"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -5582,7 +5575,7 @@
       <c r="I152" s="5"/>
       <c r="L152" s="17"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -5593,7 +5586,7 @@
       <c r="I153" s="5"/>
       <c r="L153" s="17"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
@@ -5604,7 +5597,7 @@
       <c r="I154" s="5"/>
       <c r="L154" s="17"/>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
@@ -5615,7 +5608,7 @@
       <c r="I155" s="5"/>
       <c r="L155" s="17"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
@@ -5626,7 +5619,7 @@
       <c r="I156" s="5"/>
       <c r="L156" s="17"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
@@ -5637,7 +5630,7 @@
       <c r="I157" s="5"/>
       <c r="L157" s="17"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
@@ -5648,7 +5641,7 @@
       <c r="I158" s="5"/>
       <c r="L158" s="17"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
@@ -5659,7 +5652,7 @@
       <c r="I159" s="5"/>
       <c r="L159" s="17"/>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="16"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
@@ -5670,7 +5663,7 @@
       <c r="I160" s="5"/>
       <c r="L160" s="17"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="14"/>
       <c r="C161" s="17"/>
@@ -5681,8 +5674,8 @@
       <c r="I161" s="5"/>
       <c r="L161" s="17"/>
     </row>
-    <row r="162" spans="1:12">
-      <c r="A162" s="5"/>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
       <c r="B162" s="14"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
@@ -5692,121 +5685,128 @@
       <c r="I162" s="5"/>
       <c r="L162" s="17"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="I178" s="5"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="I179" s="5"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="I180" s="5"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="I183" s="5"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
       <c r="I184" s="5"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I185" s="5"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I186" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
+  <sortState ref="A2:F44">
     <sortCondition ref="A2:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C27" numberStoredAsText="1"/>
+    <ignoredError sqref="C28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
@@ -5817,7 +5817,7 @@
     <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>93</v>
@@ -5840,7 +5840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>80</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>80</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>80</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>80</v>
       </c>
@@ -5900,7 +5900,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>80</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>80</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>80</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>81</v>
       </c>
@@ -5960,7 +5960,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>81</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>81</v>
       </c>
@@ -5990,7 +5990,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>81</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>81</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>81</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>81</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>81</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>81</v>
       </c>
@@ -6080,7 +6080,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>81</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>81</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>81</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>81</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>82</v>
       </c>
@@ -6155,7 +6155,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>82</v>
       </c>
@@ -6170,7 +6170,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>82</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6200,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>6</v>
       </c>
@@ -6215,7 +6215,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>6</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>6</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>6</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6284,7 +6284,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -6293,7 +6293,7 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6302,7 +6302,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6311,7 +6311,7 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6320,7 +6320,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6329,7 +6329,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6338,7 +6338,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6347,7 +6347,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -6356,7 +6356,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -6365,7 +6365,7 @@
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -6374,7 +6374,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6383,7 +6383,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6392,7 +6392,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6401,7 +6401,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6410,7 +6410,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6419,7 +6419,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6428,7 +6428,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6437,7 +6437,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6446,7 +6446,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6455,7 +6455,7 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6464,7 +6464,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6473,7 +6473,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6482,7 +6482,7 @@
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6491,7 +6491,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6500,7 +6500,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6509,7 +6509,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6518,7 +6518,7 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6527,478 +6527,478 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
     </row>
   </sheetData>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="4332" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="131">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ubuntu系统命令（持续更新）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +457,18 @@
   </si>
   <si>
     <t>20220707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220713</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -984,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>93</v>
@@ -1006,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>93</v>
@@ -1355,7 +1363,7 @@
         <v>35</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="26"/>
@@ -1431,7 +1439,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="26"/>
@@ -1611,7 +1619,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="26"/>
@@ -1701,7 +1709,7 @@
         <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="25"/>
@@ -1791,12 +1799,12 @@
         <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="18"/>
       <c r="I19" s="23" t="s">
         <v>79</v>
@@ -1892,10 +1900,10 @@
         <v>79</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="12"/>
@@ -1926,7 +1934,7 @@
         <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="10"/>
@@ -1938,7 +1946,7 @@
         <v>97</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="14"/>
@@ -1969,7 +1977,7 @@
         <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="10"/>
@@ -1982,10 +1990,10 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="10"/>
       <c r="O23" s="12"/>
       <c r="P23" s="1"/>
@@ -2010,14 +2018,15 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="18"/>
       <c r="I24" s="22" t="s">
         <v>2</v>
@@ -2026,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="26"/>
@@ -2071,7 +2080,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="26"/>
@@ -2113,15 +2122,15 @@
         <v>2</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -5828,7 +5837,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>93</v>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="5220" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,6 @@
     <t>20220427</t>
   </si>
   <si>
-    <t>20220523</t>
-  </si>
-  <si>
     <t>20220609</t>
   </si>
   <si>
@@ -469,6 +466,10 @@
   </si>
   <si>
     <t>20220713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220729</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,8 +958,8 @@
   <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1620,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="26"/>
@@ -1709,7 +1710,7 @@
         <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="25"/>
@@ -1799,7 +1800,7 @@
         <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="26"/>
@@ -1903,7 +1904,7 @@
         <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="12"/>
@@ -1934,7 +1935,7 @@
         <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="10"/>
@@ -1977,7 +1978,7 @@
         <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="10"/>
@@ -1990,10 +1991,10 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="26"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="10"/>
       <c r="O23" s="12"/>
       <c r="P23" s="1"/>
@@ -2018,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="26"/>
@@ -2035,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="26"/>
@@ -2080,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="26"/>
@@ -2122,10 +2123,10 @@
         <v>2</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="26"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="7884" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,11 +465,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220713</t>
+    <t>20220801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220729</t>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode-1402题解</t>
+  </si>
+  <si>
+    <t>20220811</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,8 +965,8 @@
   <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1711,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>106</v>
@@ -1991,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="12"/>
@@ -2129,7 +2136,7 @@
         <v>129</v>
       </c>
       <c r="L26" s="9"/>
-      <c r="M26" s="26"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="10"/>
       <c r="O26" s="11"/>
       <c r="P26" s="1"/>
@@ -2225,6 +2232,19 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7884" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="8772" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,13 @@
   </si>
   <si>
     <t>20220811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C编译报错原因汇总</t>
+  </si>
+  <si>
+    <t>20220818</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +973,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1804,15 +1811,15 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="18"/>
       <c r="I19" s="23" t="s">
         <v>79</v>
@@ -1849,10 +1856,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="26"/>
@@ -1894,14 +1901,14 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="18"/>
       <c r="I21" s="23" t="s">
@@ -1939,13 +1946,15 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="F22" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="18"/>
       <c r="I22" s="23" t="s">
         <v>79</v>
@@ -1982,14 +1991,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="12"/>
       <c r="H23" s="18"/>
       <c r="I23" s="22" t="s">
         <v>2</v>
@@ -2026,15 +2034,14 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="26"/>
+        <v>128</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="18"/>
       <c r="I24" s="22" t="s">
         <v>2</v>
@@ -2071,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="26"/>
@@ -2112,14 +2119,14 @@
       <c r="AE25" s="1"/>
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>101</v>
+      <c r="A26" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="26"/>
@@ -2160,16 +2167,16 @@
       <c r="A27" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="18"/>
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
@@ -2199,14 +2206,16 @@
       <c r="A28" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="1"/>
+      <c r="B28" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="18"/>
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
@@ -2236,15 +2245,13 @@
         <v>101</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="26"/>
+        <v>109</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
@@ -2270,6 +2277,19 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
@@ -2296,13 +2316,6 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
       <c r="H31" s="18"/>
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
@@ -2328,6 +2341,13 @@
       <c r="AE31" s="1"/>
     </row>
     <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="18"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2411,13 +2431,6 @@
       <c r="AE35" s="1"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
       <c r="H36" s="18"/>
       <c r="I36" s="13"/>
       <c r="J36" s="14"/>
@@ -2911,7 +2924,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="18"/>
       <c r="I51" s="13"/>
@@ -2944,7 +2957,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="12"/>
       <c r="H52" s="18"/>
       <c r="I52" s="13"/>
@@ -3076,7 +3089,7 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="18"/>
       <c r="I56" s="13"/>
@@ -3109,7 +3122,7 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="12"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="12"/>
       <c r="H57" s="18"/>
       <c r="I57" s="13"/>
@@ -3335,7 +3348,7 @@
       <c r="AE63" s="1"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -3368,7 +3381,7 @@
       <c r="AE64" s="1"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -3434,7 +3447,7 @@
       <c r="AE66" s="1"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -3471,9 +3484,9 @@
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="18"/>
       <c r="I68" s="13"/>
       <c r="J68" s="14"/>
@@ -5213,8 +5226,8 @@
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
@@ -5716,7 +5729,7 @@
       <c r="L162" s="17"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
+      <c r="A163" s="16"/>
       <c r="B163" s="14"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
@@ -5727,6 +5740,12 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
       <c r="I164" s="5"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -5810,6 +5829,7 @@
       <c r="I184" s="5"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="5"/>
       <c r="I185" s="5"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -5823,7 +5843,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C28" numberStoredAsText="1"/>
+    <ignoredError sqref="C29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8772" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="9660" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="137">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,14 @@
   </si>
   <si>
     <t>20220818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索优化集锦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220819</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,8 +980,8 @@
   <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1766,15 +1774,15 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="18"/>
       <c r="I18" s="23" t="s">
         <v>79</v>
@@ -1808,18 +1816,18 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="18"/>
       <c r="I19" s="23" t="s">
         <v>79</v>
@@ -1856,15 +1864,15 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="18"/>
       <c r="I20" s="23" t="s">
         <v>79</v>
@@ -1901,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="26"/>
@@ -1946,14 +1954,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="18"/>
       <c r="I22" s="23" t="s">
@@ -1991,13 +1999,15 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="F23" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="18"/>
       <c r="I23" s="22" t="s">
         <v>2</v>
@@ -2034,14 +2044,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="12"/>
       <c r="H24" s="18"/>
       <c r="I24" s="22" t="s">
         <v>2</v>
@@ -2078,15 +2087,14 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="26"/>
+        <v>128</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="18"/>
       <c r="I25" s="22" t="s">
         <v>2</v>
@@ -2123,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="26"/>
@@ -2164,14 +2172,14 @@
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>101</v>
+      <c r="A27" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="26"/>
@@ -2206,16 +2214,16 @@
       <c r="A28" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="18"/>
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
@@ -2244,14 +2252,16 @@
       <c r="A29" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="1"/>
+      <c r="B29" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
@@ -2281,15 +2291,13 @@
         <v>101</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="26"/>
+        <v>109</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
@@ -2316,6 +2324,19 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="18"/>
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
@@ -2341,13 +2362,6 @@
       <c r="AE31" s="1"/>
     </row>
     <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
       <c r="H32" s="18"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2367,6 +2381,13 @@
       <c r="AE32" s="1"/>
     </row>
     <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="18"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2457,13 +2478,6 @@
       <c r="AE36" s="1"/>
     </row>
     <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
       <c r="H37" s="18"/>
       <c r="I37" s="15"/>
       <c r="J37" s="14"/>
@@ -2957,7 +2971,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="18"/>
       <c r="I52" s="13"/>
@@ -2990,7 +3004,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="12"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="12"/>
       <c r="H53" s="18"/>
       <c r="I53" s="13"/>
@@ -3122,7 +3136,7 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="18"/>
       <c r="I57" s="13"/>
@@ -3155,7 +3169,7 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="12"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="12"/>
       <c r="H58" s="18"/>
       <c r="I58" s="13"/>
@@ -3381,7 +3395,7 @@
       <c r="AE64" s="1"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -3414,7 +3428,7 @@
       <c r="AE65" s="1"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -3480,7 +3494,7 @@
       <c r="AE67" s="1"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -3517,9 +3531,9 @@
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="18"/>
       <c r="I69" s="5"/>
       <c r="K69" s="1"/>
@@ -5255,8 +5269,8 @@
     <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
@@ -5739,7 +5753,7 @@
       <c r="I163" s="5"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
+      <c r="A164" s="16"/>
       <c r="B164" s="14"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -5750,6 +5764,12 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
       <c r="I165" s="5"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -5833,6 +5853,7 @@
       <c r="I185" s="5"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="5"/>
       <c r="I186" s="5"/>
     </row>
   </sheetData>
@@ -5843,7 +5864,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C29" numberStoredAsText="1"/>
+    <ignoredError sqref="C30" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="10548" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="138">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220427</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220707</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,6 +488,14 @@
   </si>
   <si>
     <t>20220819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220828</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,12 +578,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -597,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -664,13 +662,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -980,8 +972,8 @@
   <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1073,10 +1065,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="26"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
       <c r="H2" s="18"/>
@@ -1090,7 +1082,7 @@
         <v>78</v>
       </c>
       <c r="L2" s="9"/>
-      <c r="M2" s="26"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="14"/>
       <c r="O2" s="11"/>
     </row>
@@ -1105,7 +1097,7 @@
         <v>90</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="26"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
       <c r="H3" s="18"/>
@@ -1119,7 +1111,7 @@
         <v>76</v>
       </c>
       <c r="L3" s="9"/>
-      <c r="M3" s="26"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="3"/>
       <c r="O3" s="11"/>
       <c r="P3" s="1"/>
@@ -1150,7 +1142,7 @@
         <v>76</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="26"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="18"/>
@@ -1164,7 +1156,7 @@
         <v>107</v>
       </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="26"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
       <c r="P4" s="1"/>
@@ -1209,7 +1201,7 @@
         <v>78</v>
       </c>
       <c r="L5" s="9"/>
-      <c r="M5" s="26"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="14"/>
       <c r="O5" s="11"/>
       <c r="P5" s="1"/>
@@ -1240,7 +1232,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="26"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="18"/>
@@ -1254,7 +1246,7 @@
         <v>78</v>
       </c>
       <c r="L6" s="9"/>
-      <c r="M6" s="26"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="14"/>
       <c r="O6" s="11"/>
       <c r="P6" s="1"/>
@@ -1285,7 +1277,7 @@
         <v>108</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="26"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="18"/>
@@ -1299,7 +1291,7 @@
         <v>78</v>
       </c>
       <c r="L7" s="9"/>
-      <c r="M7" s="26"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
       <c r="P7" s="1"/>
@@ -1330,7 +1322,7 @@
         <v>94</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="26"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="18"/>
@@ -1344,7 +1336,7 @@
         <v>76</v>
       </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="26"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="10"/>
       <c r="O8" s="11"/>
       <c r="P8" s="1"/>
@@ -1389,7 +1381,7 @@
         <v>114</v>
       </c>
       <c r="L9" s="9"/>
-      <c r="M9" s="26"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="10"/>
       <c r="O9" s="11"/>
       <c r="P9" s="1"/>
@@ -1434,7 +1426,7 @@
         <v>76</v>
       </c>
       <c r="L10" s="9"/>
-      <c r="M10" s="26"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
       <c r="P10" s="1"/>
@@ -1465,7 +1457,7 @@
         <v>118</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
@@ -1479,7 +1471,7 @@
         <v>76</v>
       </c>
       <c r="L11" s="9"/>
-      <c r="M11" s="26"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="3"/>
       <c r="O11" s="11"/>
       <c r="P11" s="1"/>
@@ -1524,7 +1516,7 @@
         <v>76</v>
       </c>
       <c r="L12" s="9"/>
-      <c r="M12" s="26"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="10"/>
       <c r="O12" s="11"/>
       <c r="P12" s="1"/>
@@ -1569,7 +1561,7 @@
         <v>89</v>
       </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="26"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="10"/>
       <c r="O13" s="11"/>
       <c r="P13" s="1"/>
@@ -1614,7 +1606,7 @@
         <v>76</v>
       </c>
       <c r="L14" s="9"/>
-      <c r="M14" s="26"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="3"/>
       <c r="O14" s="11"/>
       <c r="P14" s="1"/>
@@ -1642,10 +1634,10 @@
         <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="18"/>
@@ -1659,7 +1651,7 @@
         <v>76</v>
       </c>
       <c r="L15" s="9"/>
-      <c r="M15" s="26"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="3"/>
       <c r="O15" s="11"/>
       <c r="P15" s="1"/>
@@ -1690,7 +1682,7 @@
         <v>76</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="H16" s="18"/>
@@ -1704,7 +1696,7 @@
         <v>76</v>
       </c>
       <c r="L16" s="9"/>
-      <c r="M16" s="26"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="10"/>
       <c r="O16" s="11"/>
       <c r="P16" s="1"/>
@@ -1726,7 +1718,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>106</v>
@@ -1734,10 +1726,10 @@
       <c r="C17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="18"/>
       <c r="I17" s="23" t="s">
         <v>79</v>
@@ -1749,7 +1741,7 @@
         <v>103</v>
       </c>
       <c r="L17" s="9"/>
-      <c r="M17" s="26"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="10"/>
       <c r="O17" s="11"/>
       <c r="P17" s="1"/>
@@ -1771,18 +1763,18 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="24"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="18"/>
       <c r="I18" s="23" t="s">
         <v>79</v>
@@ -1794,7 +1786,7 @@
         <v>87</v>
       </c>
       <c r="L18" s="9"/>
-      <c r="M18" s="26"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="10"/>
       <c r="O18" s="11"/>
       <c r="P18" s="1"/>
@@ -1825,7 +1817,7 @@
         <v>92</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="18"/>
@@ -1839,7 +1831,7 @@
         <v>89</v>
       </c>
       <c r="L19" s="9"/>
-      <c r="M19" s="26"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="3"/>
       <c r="O19" s="11"/>
       <c r="P19" s="1"/>
@@ -1864,15 +1856,15 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="18"/>
       <c r="I20" s="23" t="s">
         <v>79</v>
@@ -1884,7 +1876,7 @@
         <v>87</v>
       </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="26"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="10"/>
       <c r="O20" s="11"/>
       <c r="P20" s="1"/>
@@ -1912,10 +1904,10 @@
         <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="18"/>
@@ -1926,7 +1918,7 @@
         <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="12"/>
@@ -1960,7 +1952,7 @@
         <v>76</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="26"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="18"/>
@@ -2005,7 +1997,7 @@
         <v>76</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="26"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="3"/>
       <c r="G23" s="11"/>
       <c r="H23" s="18"/>
@@ -2016,7 +2008,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="12"/>
@@ -2062,7 +2054,7 @@
         <v>119</v>
       </c>
       <c r="L24" s="9"/>
-      <c r="M24" s="26"/>
+      <c r="M24" s="24"/>
       <c r="N24" s="10"/>
       <c r="O24" s="11"/>
       <c r="P24" s="1"/>
@@ -2090,7 +2082,7 @@
         <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="1"/>
       <c r="F25" s="10"/>
@@ -2106,7 +2098,7 @@
         <v>120</v>
       </c>
       <c r="L25" s="9"/>
-      <c r="M25" s="26"/>
+      <c r="M25" s="24"/>
       <c r="N25" s="10"/>
       <c r="O25" s="11"/>
       <c r="P25" s="1"/>
@@ -2134,10 +2126,10 @@
         <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="26"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="18"/>
@@ -2148,7 +2140,7 @@
         <v>121</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="12"/>
@@ -2182,7 +2174,7 @@
         <v>99</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="18"/>
@@ -2221,7 +2213,7 @@
         <v>102</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="26"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="18"/>
@@ -2328,13 +2320,13 @@
         <v>101</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="26"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="18"/>
@@ -5922,7 +5914,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="26"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="3"/>
       <c r="G2" s="11"/>
     </row>
@@ -5937,7 +5929,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="26"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="3"/>
       <c r="G3" s="11"/>
     </row>
@@ -5952,7 +5944,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="26"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="3"/>
       <c r="G4" s="11"/>
     </row>
@@ -5967,7 +5959,7 @@
         <v>68</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="26"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="3"/>
       <c r="G5" s="11"/>
     </row>
@@ -5982,7 +5974,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="26"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="3"/>
       <c r="G6" s="11"/>
     </row>
@@ -5997,7 +5989,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="26"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="3"/>
       <c r="G7" s="11"/>
     </row>
@@ -6012,7 +6004,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="26"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="3"/>
       <c r="G8" s="11"/>
     </row>
@@ -6027,7 +6019,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="26"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="3"/>
       <c r="G9" s="11"/>
     </row>
@@ -6042,7 +6034,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="3"/>
       <c r="G10" s="11"/>
     </row>
@@ -6057,7 +6049,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
     </row>
@@ -6072,7 +6064,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="26"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
     </row>
@@ -6087,7 +6079,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="3"/>
       <c r="G13" s="11"/>
     </row>
@@ -6102,7 +6094,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
     </row>
@@ -6117,7 +6109,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="3"/>
       <c r="G15" s="11"/>
     </row>
@@ -6132,7 +6124,7 @@
         <v>69</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="3"/>
       <c r="G16" s="11"/>
     </row>
@@ -6147,7 +6139,7 @@
         <v>69</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
     </row>
@@ -6162,7 +6154,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
     </row>
@@ -6177,7 +6169,7 @@
         <v>69</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
     </row>
@@ -6192,7 +6184,7 @@
         <v>68</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="3"/>
       <c r="G20" s="11"/>
     </row>
@@ -6207,7 +6199,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="3"/>
       <c r="G21" s="11"/>
     </row>
@@ -6222,7 +6214,7 @@
         <v>76</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="26"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="3"/>
       <c r="G22" s="11"/>
     </row>
@@ -6237,7 +6229,7 @@
         <v>90</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="26"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="3"/>
       <c r="G23" s="11"/>
     </row>
@@ -6252,7 +6244,7 @@
         <v>90</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="3"/>
       <c r="G24" s="11"/>
     </row>
@@ -6267,7 +6259,7 @@
         <v>78</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="26"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
@@ -6282,7 +6274,7 @@
         <v>78</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="26"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
@@ -6297,7 +6289,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
@@ -6312,7 +6304,7 @@
         <v>76</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="26"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="3"/>
       <c r="G28" s="11"/>
     </row>
@@ -6327,7 +6319,7 @@
         <v>78</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="26"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
     </row>
@@ -6342,7 +6334,7 @@
         <v>76</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10548" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="11436" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>数据库并发控制</t>
   </si>
   <si>
-    <t>数据库系统存储结构</t>
-  </si>
-  <si>
     <t>拓扑排序（Topological Sort）</t>
   </si>
   <si>
@@ -371,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未分类贪心算法</t>
   </si>
   <si>
@@ -445,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220707</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +485,18 @@
   </si>
   <si>
     <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库系统存储结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,7 +974,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1007,16 +1008,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="5" t="s">
@@ -1029,16 +1030,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1062,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1076,10 +1077,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1091,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1105,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="24"/>
@@ -1136,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -1150,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1181,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="14"/>
@@ -1195,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="24"/>
@@ -1226,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1240,10 +1241,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1271,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -1285,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1316,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -1330,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="24"/>
@@ -1361,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -1375,10 +1376,10 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="24"/>
@@ -1406,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
@@ -1420,10 +1421,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="24"/>
@@ -1451,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1465,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1496,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
@@ -1507,13 +1508,13 @@
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
       <c r="I12" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1541,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
@@ -1552,13 +1553,13 @@
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
       <c r="I13" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1586,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
@@ -1597,13 +1598,13 @@
       <c r="G14" s="12"/>
       <c r="H14" s="18"/>
       <c r="I14" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1631,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1642,13 +1643,13 @@
       <c r="G15" s="11"/>
       <c r="H15" s="18"/>
       <c r="I15" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1676,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1687,13 +1688,13 @@
       <c r="G16" s="11"/>
       <c r="H16" s="18"/>
       <c r="I16" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1718,13 +1719,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1732,13 +1733,13 @@
       <c r="G17" s="12"/>
       <c r="H17" s="18"/>
       <c r="I17" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="24"/>
@@ -1763,13 +1764,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
@@ -1777,13 +1778,13 @@
       <c r="G18" s="12"/>
       <c r="H18" s="18"/>
       <c r="I18" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1811,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1822,13 +1823,13 @@
       <c r="G19" s="11"/>
       <c r="H19" s="18"/>
       <c r="I19" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="24"/>
@@ -1856,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
@@ -1867,13 +1868,13 @@
       <c r="G20" s="12"/>
       <c r="H20" s="18"/>
       <c r="I20" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="24"/>
@@ -1901,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -1912,13 +1913,13 @@
       <c r="G21" s="11"/>
       <c r="H21" s="18"/>
       <c r="I21" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="12"/>
@@ -1949,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -1957,13 +1958,13 @@
       <c r="G22" s="11"/>
       <c r="H22" s="18"/>
       <c r="I22" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="14"/>
@@ -1994,7 +1995,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -2008,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="12"/>
@@ -2036,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="10"/>
@@ -2051,7 +2052,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2079,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1"/>
       <c r="F25" s="10"/>
@@ -2092,10 +2093,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="24"/>
@@ -2123,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -2137,13 +2138,13 @@
         <v>2</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L26" s="9"/>
-      <c r="M26" s="12"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="10"/>
       <c r="O26" s="11"/>
       <c r="P26" s="1"/>
@@ -2168,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -2204,13 +2205,13 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
@@ -2242,13 +2243,13 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2280,13 +2281,13 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1"/>
       <c r="F30" s="10"/>
@@ -2317,13 +2318,13 @@
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="24"/>
@@ -5891,27 +5892,27 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -5920,13 +5921,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -5935,13 +5936,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -5950,13 +5951,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="24"/>
@@ -5965,13 +5966,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -5980,13 +5981,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -5995,13 +5996,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -6010,13 +6011,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="24"/>
@@ -6025,13 +6026,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="24"/>
@@ -6040,13 +6041,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -6055,13 +6056,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
@@ -6070,13 +6071,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="24"/>
@@ -6085,13 +6086,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
@@ -6100,13 +6101,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -6115,13 +6116,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -6130,13 +6131,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="24"/>
@@ -6145,13 +6146,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -6160,13 +6161,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -6175,13 +6176,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="24"/>
@@ -6190,13 +6191,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -6205,13 +6206,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -6220,13 +6221,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -6235,13 +6236,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -6253,10 +6254,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -6268,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -6283,10 +6284,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -6298,10 +6299,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
@@ -6313,10 +6314,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="24"/>
@@ -6328,10 +6329,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="24"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11436" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="12324" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="139">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,10 @@
   </si>
   <si>
     <t>数据库系统存储结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220902</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +978,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1518,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1922,7 +1926,7 @@
         <v>123</v>
       </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="12"/>
+      <c r="M21" s="24"/>
       <c r="N21" s="10"/>
       <c r="O21" s="11"/>
       <c r="P21" s="1"/>
@@ -2040,10 +2044,12 @@
         <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="18"/>
       <c r="I24" s="22" t="s">
         <v>2</v>
@@ -5867,7 +5873,7 @@
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12324" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="15876" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220317</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LeetCode-1题解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,10 +367,6 @@
     <t>未分类贪心算法</t>
   </si>
   <si>
-    <t>20220406</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NP问题与算法思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,15 +480,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库系统存储结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20220902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些神奇的链表操作</t>
+  </si>
+  <si>
+    <t>20220908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220909</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>92</v>
@@ -1034,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>92</v>
@@ -1070,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1158,7 +1161,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1279,7 +1282,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -1383,7 +1386,7 @@
         <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="24"/>
@@ -1459,7 +1462,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1518,7 +1521,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1639,7 +1642,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1723,13 +1726,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1743,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="24"/>
@@ -1768,13 +1771,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
@@ -1861,10 +1864,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
@@ -1906,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -1920,10 +1923,10 @@
         <v>78</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -1968,7 +1971,7 @@
         <v>96</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="14"/>
@@ -2013,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="12"/>
@@ -2041,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -2058,7 +2061,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2086,10 +2089,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1"/>
       <c r="F25" s="10"/>
@@ -2099,10 +2102,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="24"/>
@@ -2130,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -2144,10 +2147,10 @@
         <v>2</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="24"/>
@@ -2178,7 +2181,7 @@
         <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -2211,13 +2214,13 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
@@ -2249,13 +2252,13 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2287,13 +2290,13 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1"/>
       <c r="F30" s="10"/>
@@ -2324,13 +2327,13 @@
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="24"/>
@@ -2361,6 +2364,15 @@
       <c r="AE31" s="1"/>
     </row>
     <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="H32" s="18"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -5898,7 +5910,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>92</v>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A681967D-EA9F-4B43-8FDE-9CA3D5F97501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15876" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="139">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,14 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索优化集锦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220828</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,25 +496,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>利用数学方法进行算法优化</t>
+  </si>
+  <si>
+    <t>20220912</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -530,7 +525,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -539,7 +534,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -547,7 +542,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -691,7 +686,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -766,6 +761,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -801,6 +813,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -976,15 +1005,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
@@ -1004,7 +1033,7 @@
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1094,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1094,7 +1123,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1168,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="4" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1213,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1258,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1303,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1348,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1393,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1438,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +1483,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1528,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1550,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1544,7 +1573,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="22" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1618,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="22" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1663,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="22" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1671,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1679,7 +1708,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1753,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="22" t="s">
         <v>123</v>
       </c>
@@ -1746,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="24"/>
@@ -1769,20 +1798,20 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="18"/>
       <c r="I18" s="23" t="s">
         <v>78</v>
@@ -1814,7 +1843,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="22" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1888,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
@@ -1904,7 +1933,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
@@ -1949,7 +1978,7 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A22" s="22" t="s">
         <v>1</v>
       </c>
@@ -1994,7 +2023,7 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A23" s="22" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2045,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="12"/>
@@ -2039,7 +2068,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A24" s="22" t="s">
         <v>1</v>
       </c>
@@ -2047,7 +2076,7 @@
         <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -2084,7 +2113,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A25" s="22" t="s">
         <v>1</v>
       </c>
@@ -2102,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>116</v>
@@ -2128,7 +2157,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A26" s="22" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +2179,7 @@
         <v>117</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="24"/>
@@ -2173,7 +2202,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A27" s="22" t="s">
         <v>1</v>
       </c>
@@ -2181,7 +2210,7 @@
         <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -2212,7 +2241,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="15" t="s">
         <v>99</v>
       </c>
@@ -2250,7 +2279,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="15" t="s">
         <v>99</v>
       </c>
@@ -2258,7 +2287,7 @@
         <v>101</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2288,7 +2317,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="15" t="s">
         <v>99</v>
       </c>
@@ -2325,7 +2354,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>99</v>
       </c>
@@ -2363,15 +2392,15 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A32" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H32" s="18"/>
       <c r="P32" s="1"/>
@@ -2391,7 +2420,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2417,7 +2446,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="H34" s="18"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2436,7 +2465,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="H35" s="18"/>
       <c r="I35" s="13"/>
       <c r="J35" s="14"/>
@@ -2462,7 +2491,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="H36" s="18"/>
       <c r="I36" s="13"/>
       <c r="J36" s="14"/>
@@ -2488,7 +2517,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="H37" s="18"/>
       <c r="I37" s="15"/>
       <c r="J37" s="14"/>
@@ -2514,7 +2543,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2547,7 +2576,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2580,7 +2609,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2613,7 +2642,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2646,7 +2675,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2679,7 +2708,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2712,7 +2741,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2745,7 +2774,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2778,7 +2807,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2811,7 +2840,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2844,7 +2873,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2877,7 +2906,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2910,7 +2939,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2943,7 +2972,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2976,7 +3005,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -3009,7 +3038,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -3042,7 +3071,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -3075,7 +3104,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -3108,7 +3137,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -3141,7 +3170,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -3174,7 +3203,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3207,7 +3236,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3240,7 +3269,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3273,7 +3302,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -3306,7 +3335,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -3339,7 +3368,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3372,7 +3401,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -3405,7 +3434,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -3438,7 +3467,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31">
       <c r="A66" s="15"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3471,7 +3500,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3504,7 +3533,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3537,7 +3566,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31">
       <c r="A69" s="16"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3566,7 +3595,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31">
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3595,7 +3624,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31">
       <c r="A71" s="16"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3624,7 +3653,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31">
       <c r="A72" s="16"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3653,7 +3682,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31">
       <c r="A73" s="16"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3682,7 +3711,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31">
       <c r="A74" s="16"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3711,7 +3740,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31">
       <c r="A75" s="16"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3740,7 +3769,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31">
       <c r="A76" s="16"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3769,7 +3798,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31">
       <c r="A77" s="16"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3798,7 +3827,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31">
       <c r="A78" s="16"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3827,7 +3856,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31">
       <c r="A79" s="16"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3856,7 +3885,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31">
       <c r="A80" s="16"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3885,7 +3914,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31">
       <c r="A81" s="16"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3914,7 +3943,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31">
       <c r="A82" s="16"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3943,7 +3972,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31">
       <c r="A83" s="16"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3972,7 +4001,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31">
       <c r="A84" s="16"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -4001,7 +4030,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31">
       <c r="A85" s="16"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -4030,7 +4059,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31">
       <c r="A86" s="16"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -4059,7 +4088,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31">
       <c r="A87" s="16"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -4088,7 +4117,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31">
       <c r="A88" s="16"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -4117,7 +4146,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31">
       <c r="A89" s="16"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -4146,7 +4175,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31">
       <c r="A90" s="16"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -4175,7 +4204,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31">
       <c r="A91" s="16"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -4204,7 +4233,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31">
       <c r="A92" s="16"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4233,7 +4262,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31">
       <c r="A93" s="16"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4262,7 +4291,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31">
       <c r="A94" s="16"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -4291,7 +4320,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31">
       <c r="A95" s="16"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4320,7 +4349,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31">
       <c r="A96" s="16"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4349,7 +4378,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31">
       <c r="A97" s="16"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -4378,7 +4407,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31">
       <c r="A98" s="16"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4407,7 +4436,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31">
       <c r="A99" s="16"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4436,7 +4465,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31">
       <c r="A100" s="16"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4465,7 +4494,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31">
       <c r="A101" s="16"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4494,7 +4523,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31">
       <c r="A102" s="16"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4523,7 +4552,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31">
       <c r="A103" s="16"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4552,7 +4581,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31">
       <c r="A104" s="16"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4581,7 +4610,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31">
       <c r="A105" s="16"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4610,7 +4639,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31">
       <c r="A106" s="16"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4639,7 +4668,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31">
       <c r="A107" s="16"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4668,7 +4697,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31">
       <c r="A108" s="16"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4697,7 +4726,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31">
       <c r="A109" s="16"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4726,7 +4755,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4755,7 +4784,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4784,7 +4813,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -4813,7 +4842,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -4842,7 +4871,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31">
       <c r="A114" s="16"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -4871,7 +4900,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31">
       <c r="A115" s="16"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -4900,7 +4929,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31">
       <c r="A116" s="16"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -4929,7 +4958,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31">
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -4958,7 +4987,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31">
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -4987,7 +5016,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31">
       <c r="A119" s="16"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -5016,7 +5045,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31">
       <c r="A120" s="16"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -5045,7 +5074,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31">
       <c r="A121" s="16"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5074,7 +5103,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31">
       <c r="A122" s="16"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -5103,7 +5132,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31">
       <c r="A123" s="16"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5132,7 +5161,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31">
       <c r="A124" s="16"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5161,7 +5190,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31">
       <c r="A125" s="16"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5190,7 +5219,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31">
       <c r="A126" s="16"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5219,7 +5248,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31">
       <c r="A127" s="16"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -5248,7 +5277,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31">
       <c r="A128" s="16"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -5277,7 +5306,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31">
       <c r="A129" s="16"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -5305,7 +5334,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31">
       <c r="A130" s="16"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -5333,7 +5362,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31">
       <c r="A131" s="16"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
@@ -5361,7 +5390,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31">
       <c r="A132" s="16"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
@@ -5389,7 +5418,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31">
       <c r="A133" s="16"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
@@ -5417,7 +5446,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31">
       <c r="A134" s="16"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
@@ -5445,7 +5474,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31">
       <c r="A135" s="16"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
@@ -5456,7 +5485,7 @@
       <c r="I135" s="5"/>
       <c r="L135" s="17"/>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31">
       <c r="A136" s="16"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
@@ -5467,7 +5496,7 @@
       <c r="I136" s="5"/>
       <c r="L136" s="17"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31">
       <c r="A137" s="16"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -5478,7 +5507,7 @@
       <c r="I137" s="5"/>
       <c r="L137" s="17"/>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31">
       <c r="A138" s="16"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -5489,7 +5518,7 @@
       <c r="I138" s="5"/>
       <c r="L138" s="17"/>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31">
       <c r="A139" s="16"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -5500,7 +5529,7 @@
       <c r="I139" s="5"/>
       <c r="L139" s="17"/>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31">
       <c r="A140" s="16"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -5511,7 +5540,7 @@
       <c r="I140" s="5"/>
       <c r="L140" s="17"/>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31">
       <c r="A141" s="16"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -5522,7 +5551,7 @@
       <c r="I141" s="5"/>
       <c r="L141" s="17"/>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31">
       <c r="A142" s="16"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -5533,7 +5562,7 @@
       <c r="I142" s="5"/>
       <c r="L142" s="17"/>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31">
       <c r="A143" s="16"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -5544,7 +5573,7 @@
       <c r="I143" s="5"/>
       <c r="L143" s="17"/>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31">
       <c r="A144" s="16"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -5555,7 +5584,7 @@
       <c r="I144" s="5"/>
       <c r="L144" s="17"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
@@ -5566,7 +5595,7 @@
       <c r="I145" s="5"/>
       <c r="L145" s="17"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" s="16"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
@@ -5577,7 +5606,7 @@
       <c r="I146" s="5"/>
       <c r="L146" s="17"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" s="16"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -5588,7 +5617,7 @@
       <c r="I147" s="5"/>
       <c r="L147" s="17"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -5599,7 +5628,7 @@
       <c r="I148" s="5"/>
       <c r="L148" s="17"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -5610,7 +5639,7 @@
       <c r="I149" s="5"/>
       <c r="L149" s="17"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -5621,7 +5650,7 @@
       <c r="I150" s="5"/>
       <c r="L150" s="17"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="A151" s="16"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -5632,7 +5661,7 @@
       <c r="I151" s="5"/>
       <c r="L151" s="17"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" s="16"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -5643,7 +5672,7 @@
       <c r="I152" s="5"/>
       <c r="L152" s="17"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" s="16"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -5654,7 +5683,7 @@
       <c r="I153" s="5"/>
       <c r="L153" s="17"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" s="16"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
@@ -5665,7 +5694,7 @@
       <c r="I154" s="5"/>
       <c r="L154" s="17"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" s="16"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
@@ -5676,7 +5705,7 @@
       <c r="I155" s="5"/>
       <c r="L155" s="17"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" s="16"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
@@ -5687,7 +5716,7 @@
       <c r="I156" s="5"/>
       <c r="L156" s="17"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="A157" s="16"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
@@ -5698,7 +5727,7 @@
       <c r="I157" s="5"/>
       <c r="L157" s="17"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" s="16"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
@@ -5709,7 +5738,7 @@
       <c r="I158" s="5"/>
       <c r="L158" s="17"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" s="16"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
@@ -5720,7 +5749,7 @@
       <c r="I159" s="5"/>
       <c r="L159" s="17"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="16"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
@@ -5731,7 +5760,7 @@
       <c r="I160" s="5"/>
       <c r="L160" s="17"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" s="16"/>
       <c r="B161" s="14"/>
       <c r="C161" s="17"/>
@@ -5742,7 +5771,7 @@
       <c r="I161" s="5"/>
       <c r="L161" s="17"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" s="16"/>
       <c r="B162" s="14"/>
       <c r="C162" s="17"/>
@@ -5753,7 +5782,7 @@
       <c r="I162" s="5"/>
       <c r="L162" s="17"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="16"/>
       <c r="B163" s="14"/>
       <c r="C163" s="17"/>
@@ -5763,7 +5792,7 @@
       <c r="G163" s="20"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="16"/>
       <c r="B164" s="14"/>
       <c r="C164" s="17"/>
@@ -5773,7 +5802,7 @@
       <c r="G164" s="20"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" s="5"/>
       <c r="B165" s="14"/>
       <c r="C165" s="17"/>
@@ -5783,92 +5812,92 @@
       <c r="G165" s="20"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="5"/>
       <c r="I178" s="5"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="5"/>
       <c r="I179" s="5"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="5"/>
       <c r="I180" s="5"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="5"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="5"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="5"/>
       <c r="I183" s="5"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="5"/>
       <c r="I184" s="5"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="5"/>
       <c r="I185" s="5"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="5"/>
       <c r="I186" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
     <sortCondition ref="A2:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5881,14 +5910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
@@ -5899,7 +5928,7 @@
     <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5922,7 +5951,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
         <v>79</v>
       </c>
@@ -5937,7 +5966,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
         <v>79</v>
       </c>
@@ -5952,7 +5981,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="23" t="s">
         <v>79</v>
       </c>
@@ -5967,7 +5996,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="23" t="s">
         <v>79</v>
       </c>
@@ -5982,7 +6011,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="23" t="s">
         <v>79</v>
       </c>
@@ -5997,7 +6026,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="23" t="s">
         <v>79</v>
       </c>
@@ -6012,7 +6041,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="23" t="s">
         <v>79</v>
       </c>
@@ -6027,7 +6056,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="23" t="s">
         <v>80</v>
       </c>
@@ -6042,7 +6071,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="23" t="s">
         <v>80</v>
       </c>
@@ -6057,7 +6086,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="23" t="s">
         <v>80</v>
       </c>
@@ -6072,7 +6101,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="23" t="s">
         <v>80</v>
       </c>
@@ -6087,7 +6116,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="23" t="s">
         <v>80</v>
       </c>
@@ -6102,7 +6131,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="23" t="s">
         <v>80</v>
       </c>
@@ -6117,7 +6146,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="23" t="s">
         <v>80</v>
       </c>
@@ -6132,7 +6161,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="23" t="s">
         <v>80</v>
       </c>
@@ -6147,7 +6176,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="23" t="s">
         <v>80</v>
       </c>
@@ -6162,7 +6191,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="23" t="s">
         <v>80</v>
       </c>
@@ -6177,7 +6206,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="23" t="s">
         <v>80</v>
       </c>
@@ -6192,7 +6221,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="23" t="s">
         <v>80</v>
       </c>
@@ -6207,7 +6236,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="23" t="s">
         <v>80</v>
       </c>
@@ -6222,7 +6251,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="23" t="s">
         <v>81</v>
       </c>
@@ -6237,7 +6266,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="23" t="s">
         <v>81</v>
       </c>
@@ -6252,7 +6281,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="23" t="s">
         <v>81</v>
       </c>
@@ -6267,7 +6296,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="22" t="s">
         <v>6</v>
       </c>
@@ -6282,7 +6311,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="22" t="s">
         <v>6</v>
       </c>
@@ -6297,7 +6326,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="22" t="s">
         <v>6</v>
       </c>
@@ -6312,7 +6341,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
@@ -6327,7 +6356,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="22" t="s">
         <v>6</v>
       </c>
@@ -6342,7 +6371,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="22" t="s">
         <v>6</v>
       </c>
@@ -6357,7 +6386,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6366,7 +6395,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -6375,7 +6404,7 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6384,7 +6413,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6393,7 +6422,7 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6402,7 +6431,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6411,7 +6440,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6420,7 +6449,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6429,7 +6458,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -6438,7 +6467,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -6447,7 +6476,7 @@
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -6456,7 +6485,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6465,7 +6494,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6474,7 +6503,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6483,7 +6512,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6492,7 +6521,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6501,7 +6530,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6510,7 +6539,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6519,7 +6548,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6528,7 +6557,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6537,7 +6566,7 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6546,7 +6575,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6555,7 +6584,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6564,7 +6593,7 @@
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6573,7 +6602,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6582,7 +6611,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="15"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6591,7 +6620,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6600,7 +6629,7 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6609,478 +6638,478 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="5"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="5"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="5"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="5"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" s="5"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="5"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="5"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="5"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="5"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" s="5"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="5"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="5"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="5"/>
     </row>
   </sheetData>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A681967D-EA9F-4B43-8FDE-9CA3D5F97501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1668" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="142">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,9 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一些神奇的链表操作</t>
-  </si>
-  <si>
     <t>20220908</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,23 +496,38 @@
   </si>
   <si>
     <t>20220912</t>
+  </si>
+  <si>
+    <t>20220912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode中神奇的链表操作</t>
+  </si>
+  <si>
+    <t>20220913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -525,7 +536,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -534,7 +545,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -542,7 +553,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -686,7 +697,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -761,23 +772,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -813,23 +807,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1005,35 +982,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="21" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="21" customWidth="1"/>
     <col min="8" max="8" width="3" style="19" customWidth="1"/>
     <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
     <col min="10" max="10" width="49.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" style="21" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="1.77734375" style="21" customWidth="1"/>
     <col min="15" max="15" width="13.21875" style="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1071,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1100,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1145,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" s="4" customFormat="1">
+    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1190,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1235,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
@@ -1280,11 +1257,11 @@
         <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
-      <c r="N6" s="14"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="11"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1303,7 +1280,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1325,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1370,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1415,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1460,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1505,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1550,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1595,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1640,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1685,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1730,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>123</v>
       </c>
@@ -1798,15 +1775,15 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>129</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1843,7 +1820,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1865,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
@@ -1933,7 +1910,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
@@ -1978,7 +1955,7 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>1</v>
       </c>
@@ -2023,7 +2000,7 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>1</v>
       </c>
@@ -2045,7 +2022,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="12"/>
@@ -2068,7 +2045,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2090,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>1</v>
       </c>
@@ -2157,7 +2134,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>1</v>
       </c>
@@ -2202,7 +2179,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>1</v>
       </c>
@@ -2241,7 +2218,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>99</v>
       </c>
@@ -2279,7 +2256,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>99</v>
       </c>
@@ -2287,7 +2264,7 @@
         <v>101</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2317,7 +2294,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>99</v>
       </c>
@@ -2354,7 +2331,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>99</v>
       </c>
@@ -2392,16 +2369,20 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="18"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2420,7 +2401,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2446,7 +2427,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="18"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2465,7 +2446,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="18"/>
       <c r="I35" s="13"/>
       <c r="J35" s="14"/>
@@ -2491,7 +2472,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H36" s="18"/>
       <c r="I36" s="13"/>
       <c r="J36" s="14"/>
@@ -2517,7 +2498,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="18"/>
       <c r="I37" s="15"/>
       <c r="J37" s="14"/>
@@ -2543,7 +2524,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2576,7 +2557,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2609,7 +2590,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2642,7 +2623,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2675,7 +2656,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2708,7 +2689,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2741,7 +2722,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2774,7 +2755,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2807,7 +2788,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2840,7 +2821,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2873,7 +2854,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2906,7 +2887,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2939,7 +2920,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2972,7 +2953,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -3005,7 +2986,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -3038,7 +3019,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -3071,7 +3052,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -3104,7 +3085,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -3137,7 +3118,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -3170,7 +3151,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -3203,7 +3184,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3236,7 +3217,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3269,7 +3250,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3302,7 +3283,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -3335,7 +3316,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -3368,7 +3349,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3401,7 +3382,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -3434,7 +3415,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -3467,7 +3448,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3500,7 +3481,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3533,7 +3514,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3566,7 +3547,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3595,7 +3576,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3624,7 +3605,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3653,7 +3634,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3682,7 +3663,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3711,7 +3692,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3740,7 +3721,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3769,7 +3750,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3798,7 +3779,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3827,7 +3808,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3856,7 +3837,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3885,7 +3866,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3914,7 +3895,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3943,7 +3924,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3972,7 +3953,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -4001,7 +3982,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -4030,7 +4011,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -4059,7 +4040,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -4088,7 +4069,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -4117,7 +4098,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -4146,7 +4127,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -4175,7 +4156,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -4204,7 +4185,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -4233,7 +4214,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4262,7 +4243,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4291,7 +4272,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -4320,7 +4301,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4349,7 +4330,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4378,7 +4359,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -4407,7 +4388,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4436,7 +4417,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4465,7 +4446,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4494,7 +4475,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4523,7 +4504,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4552,7 +4533,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4581,7 +4562,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4610,7 +4591,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4639,7 +4620,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4668,7 +4649,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4697,7 +4678,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4726,7 +4707,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4755,7 +4736,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4784,7 +4765,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4813,7 +4794,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -4842,7 +4823,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -4871,7 +4852,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -4900,7 +4881,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -4929,7 +4910,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -4958,7 +4939,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -4987,7 +4968,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -5016,7 +4997,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -5045,7 +5026,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -5074,7 +5055,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5103,7 +5084,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -5132,7 +5113,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5161,7 +5142,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5190,7 +5171,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5219,7 +5200,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5248,7 +5229,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -5277,7 +5258,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -5306,7 +5287,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -5334,7 +5315,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -5362,7 +5343,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
@@ -5390,7 +5371,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
@@ -5418,7 +5399,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
@@ -5446,7 +5427,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
@@ -5474,7 +5455,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
@@ -5485,7 +5466,7 @@
       <c r="I135" s="5"/>
       <c r="L135" s="17"/>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
@@ -5496,7 +5477,7 @@
       <c r="I136" s="5"/>
       <c r="L136" s="17"/>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -5507,7 +5488,7 @@
       <c r="I137" s="5"/>
       <c r="L137" s="17"/>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -5518,7 +5499,7 @@
       <c r="I138" s="5"/>
       <c r="L138" s="17"/>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -5529,7 +5510,7 @@
       <c r="I139" s="5"/>
       <c r="L139" s="17"/>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -5540,7 +5521,7 @@
       <c r="I140" s="5"/>
       <c r="L140" s="17"/>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -5551,7 +5532,7 @@
       <c r="I141" s="5"/>
       <c r="L141" s="17"/>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -5562,7 +5543,7 @@
       <c r="I142" s="5"/>
       <c r="L142" s="17"/>
     </row>
-    <row r="143" spans="1:31">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -5573,7 +5554,7 @@
       <c r="I143" s="5"/>
       <c r="L143" s="17"/>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -5584,7 +5565,7 @@
       <c r="I144" s="5"/>
       <c r="L144" s="17"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
@@ -5595,7 +5576,7 @@
       <c r="I145" s="5"/>
       <c r="L145" s="17"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
@@ -5606,7 +5587,7 @@
       <c r="I146" s="5"/>
       <c r="L146" s="17"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -5617,7 +5598,7 @@
       <c r="I147" s="5"/>
       <c r="L147" s="17"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -5628,7 +5609,7 @@
       <c r="I148" s="5"/>
       <c r="L148" s="17"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -5639,7 +5620,7 @@
       <c r="I149" s="5"/>
       <c r="L149" s="17"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -5650,7 +5631,7 @@
       <c r="I150" s="5"/>
       <c r="L150" s="17"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -5661,7 +5642,7 @@
       <c r="I151" s="5"/>
       <c r="L151" s="17"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -5672,7 +5653,7 @@
       <c r="I152" s="5"/>
       <c r="L152" s="17"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -5683,7 +5664,7 @@
       <c r="I153" s="5"/>
       <c r="L153" s="17"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
@@ -5694,7 +5675,7 @@
       <c r="I154" s="5"/>
       <c r="L154" s="17"/>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
@@ -5705,7 +5686,7 @@
       <c r="I155" s="5"/>
       <c r="L155" s="17"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
@@ -5716,7 +5697,7 @@
       <c r="I156" s="5"/>
       <c r="L156" s="17"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
@@ -5727,7 +5708,7 @@
       <c r="I157" s="5"/>
       <c r="L157" s="17"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
@@ -5738,7 +5719,7 @@
       <c r="I158" s="5"/>
       <c r="L158" s="17"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
@@ -5749,7 +5730,7 @@
       <c r="I159" s="5"/>
       <c r="L159" s="17"/>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="16"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
@@ -5760,7 +5741,7 @@
       <c r="I160" s="5"/>
       <c r="L160" s="17"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="14"/>
       <c r="C161" s="17"/>
@@ -5771,7 +5752,7 @@
       <c r="I161" s="5"/>
       <c r="L161" s="17"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="16"/>
       <c r="B162" s="14"/>
       <c r="C162" s="17"/>
@@ -5782,7 +5763,7 @@
       <c r="I162" s="5"/>
       <c r="L162" s="17"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
       <c r="B163" s="14"/>
       <c r="C163" s="17"/>
@@ -5792,7 +5773,7 @@
       <c r="G163" s="20"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="16"/>
       <c r="B164" s="14"/>
       <c r="C164" s="17"/>
@@ -5802,7 +5783,7 @@
       <c r="G164" s="20"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="14"/>
       <c r="C165" s="17"/>
@@ -5812,92 +5793,92 @@
       <c r="G165" s="20"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="I178" s="5"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="I179" s="5"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="I180" s="5"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="I183" s="5"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="I184" s="5"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="I185" s="5"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="I186" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
+  <sortState ref="A2:F44">
     <sortCondition ref="A2:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5910,14 +5891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
@@ -5928,7 +5909,7 @@
     <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5951,7 +5932,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>79</v>
       </c>
@@ -5966,7 +5947,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>79</v>
       </c>
@@ -5981,7 +5962,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>79</v>
       </c>
@@ -5996,7 +5977,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>79</v>
       </c>
@@ -6011,7 +5992,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>79</v>
       </c>
@@ -6026,7 +6007,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>79</v>
       </c>
@@ -6041,7 +6022,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>79</v>
       </c>
@@ -6056,7 +6037,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>80</v>
       </c>
@@ -6071,7 +6052,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>80</v>
       </c>
@@ -6086,7 +6067,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>80</v>
       </c>
@@ -6101,7 +6082,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>80</v>
       </c>
@@ -6116,7 +6097,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>80</v>
       </c>
@@ -6131,7 +6112,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>80</v>
       </c>
@@ -6146,7 +6127,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>80</v>
       </c>
@@ -6161,7 +6142,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>80</v>
       </c>
@@ -6176,7 +6157,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>80</v>
       </c>
@@ -6191,7 +6172,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>80</v>
       </c>
@@ -6206,7 +6187,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>80</v>
       </c>
@@ -6221,7 +6202,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>80</v>
       </c>
@@ -6236,7 +6217,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>80</v>
       </c>
@@ -6251,7 +6232,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>81</v>
       </c>
@@ -6266,7 +6247,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>81</v>
       </c>
@@ -6281,7 +6262,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>81</v>
       </c>
@@ -6296,7 +6277,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>6</v>
       </c>
@@ -6311,7 +6292,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>6</v>
       </c>
@@ -6326,7 +6307,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>6</v>
       </c>
@@ -6341,7 +6322,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
@@ -6356,7 +6337,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>6</v>
       </c>
@@ -6371,7 +6352,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>6</v>
       </c>
@@ -6386,7 +6367,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6395,7 +6376,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -6404,7 +6385,7 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6413,7 +6394,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6422,7 +6403,7 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6431,7 +6412,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6440,7 +6421,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6449,7 +6430,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6458,7 +6439,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -6467,7 +6448,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -6476,7 +6457,7 @@
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -6485,7 +6466,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6494,7 +6475,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6503,7 +6484,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6512,7 +6493,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6521,7 +6502,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6530,7 +6511,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6539,7 +6520,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6548,7 +6529,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6557,7 +6538,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6566,7 +6547,7 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6575,7 +6556,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6584,7 +6565,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6593,7 +6574,7 @@
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6602,7 +6583,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6611,7 +6592,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6620,7 +6601,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6629,7 +6610,7 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6638,478 +6619,478 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
     </row>
   </sheetData>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="3444" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="144">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,9 +77,6 @@
     <t>二叉搜索树及AVL</t>
   </si>
   <si>
-    <t>三个较为高效的排序算法</t>
-  </si>
-  <si>
     <t>快速傅里叶变换（Fast Fourier Transformation）</t>
   </si>
   <si>
@@ -325,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSDN同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,10 +491,6 @@
     <t>20220912</t>
   </si>
   <si>
-    <t>20220912</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220913</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,7 +498,25 @@
     <t>LeetCode中神奇的链表操作</t>
   </si>
   <si>
-    <t>20220913</t>
+    <t>20220916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆排序与优先队列</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速排序及其变体</t>
+  </si>
+  <si>
+    <t>归并排序及其变体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,21 +990,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE186"/>
+  <dimension ref="A1:AE180"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="1.5546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" style="21" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="21" customWidth="1"/>
     <col min="8" max="8" width="3" style="19" customWidth="1"/>
     <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
@@ -1021,16 +1028,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="5" t="s">
@@ -1043,16 +1050,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1079,25 +1086,25 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="22" t="s">
-        <v>3</v>
+      <c r="I2" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
-      <c r="N2" s="14"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1108,25 +1115,25 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="22" t="s">
-        <v>3</v>
+      <c r="I3" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="24"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="11"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1150,28 +1157,28 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="22" t="s">
-        <v>3</v>
+      <c r="I4" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="11"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1195,28 +1202,28 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="14"/>
       <c r="F5" s="10"/>
       <c r="G5" s="12"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="22" t="s">
-        <v>3</v>
+      <c r="I5" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="14"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="11"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1240,24 +1247,24 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
+      <c r="I6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1285,24 +1292,24 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="22" t="s">
-        <v>3</v>
+      <c r="I7" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1330,24 +1337,24 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="22" t="s">
-        <v>3</v>
+      <c r="I8" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="24"/>
@@ -1375,28 +1382,28 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="22" t="s">
-        <v>3</v>
+      <c r="I9" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="11"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1420,24 +1427,24 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="22" t="s">
-        <v>3</v>
+      <c r="I10" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="24"/>
@@ -1465,28 +1472,28 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="22" t="s">
-        <v>3</v>
+      <c r="I11" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="3"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="11"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1510,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
@@ -1521,18 +1528,18 @@
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
       <c r="I12" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1555,29 +1562,29 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="23" t="s">
-        <v>78</v>
+      <c r="I13" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1600,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="10"/>
       <c r="G14" s="12"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="23" t="s">
-        <v>78</v>
+      <c r="I14" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
-      <c r="N14" s="3"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="11"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1645,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="23" t="s">
-        <v>78</v>
+      <c r="I15" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="11"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1690,24 +1697,24 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>61</v>
+      <c r="I16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1732,32 +1739,32 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="23" t="s">
-        <v>78</v>
+      <c r="I17" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="24"/>
+        <v>125</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1777,27 +1784,27 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="23" t="s">
-        <v>78</v>
+      <c r="I18" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1825,28 +1832,28 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="23" t="s">
-        <v>78</v>
+      <c r="I19" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="11"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1867,31 +1874,31 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="23" t="s">
-        <v>78</v>
+      <c r="I20" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="11"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1912,27 +1919,27 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="23" t="s">
-        <v>78</v>
+      <c r="I21" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -1956,31 +1963,30 @@
       <c r="AE21" s="1"/>
     </row>
     <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>1</v>
+      <c r="A22" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>113</v>
+      <c r="I22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="14"/>
       <c r="N22" s="10"/>
       <c r="O22" s="12"/>
       <c r="P22" s="1"/>
@@ -2001,33 +2007,33 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="18"/>
       <c r="I23" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2046,28 +2052,26 @@
       <c r="AE23" s="1"/>
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>1</v>
+      <c r="A24" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="24"/>
+        <v>103</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
       <c r="H24" s="18"/>
       <c r="I24" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2091,32 +2095,27 @@
       <c r="AE24" s="1"/>
     </row>
     <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>1</v>
+      <c r="A25" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2135,33 +2134,27 @@
       <c r="AE25" s="1"/>
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>1</v>
+      <c r="A26" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2180,26 +2173,20 @@
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2219,25 +2206,13 @@
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
       <c r="H28" s="18"/>
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2257,23 +2232,11 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="12"/>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -2295,24 +2258,13 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="F30" s="10"/>
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2332,25 +2284,13 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
       <c r="H31" s="18"/>
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
       <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2370,20 +2310,21 @@
       <c r="AE31" s="1"/>
     </row>
     <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="18"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2402,7 +2343,7 @@
       <c r="AE32" s="1"/>
     </row>
     <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2410,6 +2351,13 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="18"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2428,7 +2376,21 @@
       <c r="AE33" s="1"/>
     </row>
     <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="18"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2447,6 +2409,13 @@
       <c r="AE34" s="1"/>
     </row>
     <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="18"/>
       <c r="I35" s="13"/>
       <c r="J35" s="14"/>
@@ -2473,6 +2442,13 @@
       <c r="AE35" s="1"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="18"/>
       <c r="I36" s="13"/>
       <c r="J36" s="14"/>
@@ -2499,8 +2475,15 @@
       <c r="AE36" s="1"/>
     </row>
     <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="15"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -2670,7 +2653,7 @@
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
-      <c r="N42" s="12"/>
+      <c r="N42" s="14"/>
       <c r="O42" s="12"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2827,7 +2810,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="12"/>
       <c r="H47" s="18"/>
       <c r="I47" s="13"/>
@@ -2835,7 +2818,7 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
-      <c r="N47" s="12"/>
+      <c r="N47" s="14"/>
       <c r="O47" s="12"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -2992,7 +2975,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="12"/>
       <c r="H52" s="18"/>
       <c r="I52" s="13"/>
@@ -3000,7 +2983,7 @@
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
+      <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -3025,7 +3008,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="18"/>
       <c r="I53" s="13"/>
@@ -3127,7 +3110,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="13"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
@@ -3165,7 +3148,7 @@
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
+      <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -3190,7 +3173,7 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="18"/>
       <c r="I58" s="13"/>
@@ -3226,13 +3209,9 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
+      <c r="I59" s="5"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3251,7 +3230,7 @@
       <c r="AE59" s="1"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -3259,13 +3238,9 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="I60" s="5"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -3292,13 +3267,9 @@
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="18"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="I61" s="5"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -3325,13 +3296,9 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="18"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="I62" s="5"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -3350,7 +3317,7 @@
       <c r="AE62" s="1"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -3358,13 +3325,9 @@
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="I63" s="5"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -3383,21 +3346,17 @@
       <c r="AE63" s="1"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="18"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
+      <c r="I64" s="5"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -3416,21 +3375,17 @@
       <c r="AE64" s="1"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
+      <c r="I65" s="5"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -3449,21 +3404,17 @@
       <c r="AE65" s="1"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
+      <c r="I66" s="5"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -3482,21 +3433,17 @@
       <c r="AE66" s="1"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
+      <c r="I67" s="5"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -3515,21 +3462,17 @@
       <c r="AE67" s="1"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
       <c r="H68" s="18"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
+      <c r="I68" s="5"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -3552,9 +3495,9 @@
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
       <c r="H69" s="18"/>
       <c r="I69" s="5"/>
       <c r="K69" s="1"/>
@@ -4950,7 +4893,7 @@
       <c r="H117" s="18"/>
       <c r="I117" s="5"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="14"/>
+      <c r="L117" s="17"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -4979,7 +4922,7 @@
       <c r="H118" s="18"/>
       <c r="I118" s="5"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="14"/>
+      <c r="L118" s="17"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
@@ -5007,8 +4950,7 @@
       <c r="G119" s="20"/>
       <c r="H119" s="18"/>
       <c r="I119" s="5"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="14"/>
+      <c r="L119" s="17"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -5036,8 +4978,7 @@
       <c r="G120" s="20"/>
       <c r="H120" s="18"/>
       <c r="I120" s="5"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="14"/>
+      <c r="L120" s="17"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -5065,8 +5006,7 @@
       <c r="G121" s="20"/>
       <c r="H121" s="18"/>
       <c r="I121" s="5"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="14"/>
+      <c r="L121" s="17"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -5094,8 +5034,7 @@
       <c r="G122" s="20"/>
       <c r="H122" s="18"/>
       <c r="I122" s="5"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="14"/>
+      <c r="L122" s="17"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -5123,8 +5062,7 @@
       <c r="G123" s="20"/>
       <c r="H123" s="18"/>
       <c r="I123" s="5"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="14"/>
+      <c r="L123" s="17"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -5145,15 +5083,14 @@
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="18"/>
       <c r="I124" s="5"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="14"/>
+      <c r="L124" s="17"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -5174,15 +5111,14 @@
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="18"/>
       <c r="I125" s="5"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="14"/>
+      <c r="L125" s="17"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -5203,15 +5139,14 @@
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="18"/>
       <c r="I126" s="5"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="14"/>
+      <c r="L126" s="17"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -5232,14 +5167,13 @@
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="18"/>
       <c r="I127" s="5"/>
-      <c r="K127" s="1"/>
       <c r="L127" s="17"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
@@ -5261,14 +5195,13 @@
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
       <c r="H128" s="18"/>
       <c r="I128" s="5"/>
-      <c r="K128" s="1"/>
       <c r="L128" s="17"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
@@ -5290,8 +5223,8 @@
     <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
@@ -5662,7 +5595,6 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="I153" s="5"/>
-      <c r="L153" s="17"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
@@ -5673,7 +5605,6 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="I154" s="5"/>
-      <c r="L154" s="17"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
@@ -5684,7 +5615,6 @@
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="I155" s="5"/>
-      <c r="L155" s="17"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
@@ -5695,7 +5625,6 @@
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="I156" s="5"/>
-      <c r="L156" s="17"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
@@ -5706,7 +5635,6 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="I157" s="5"/>
-      <c r="L157" s="17"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
@@ -5717,10 +5645,9 @@
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
       <c r="I158" s="5"/>
-      <c r="L158" s="17"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
+      <c r="A159" s="5"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -5728,154 +5655,86 @@
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
       <c r="I159" s="5"/>
-      <c r="L159" s="17"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="16"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
+      <c r="A160" s="5"/>
       <c r="I160" s="5"/>
-      <c r="L160" s="17"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
       <c r="I161" s="5"/>
-      <c r="L161" s="17"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="16"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
       <c r="I162" s="5"/>
-      <c r="L162" s="17"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
-      <c r="I177" s="5"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
-      <c r="I178" s="5"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
-      <c r="I179" s="5"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
-      <c r="I180" s="5"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="I181" s="5"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
-      <c r="I182" s="5"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
-      <c r="I183" s="5"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
-      <c r="I184" s="5"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
-      <c r="I185" s="5"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
-      <c r="I186" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:F44">
@@ -5885,7 +5744,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C30" numberStoredAsText="1"/>
+    <ignoredError sqref="C24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5894,8 +5753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5920,27 +5779,27 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -5949,13 +5808,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -5964,13 +5823,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -5979,13 +5838,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="24"/>
@@ -5994,13 +5853,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -6009,13 +5868,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -6024,13 +5883,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -6039,13 +5898,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="24"/>
@@ -6054,13 +5913,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="24"/>
@@ -6069,13 +5928,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -6084,13 +5943,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
@@ -6099,13 +5958,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="24"/>
@@ -6114,13 +5973,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
@@ -6129,13 +5988,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -6144,13 +6003,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -6159,13 +6018,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="24"/>
@@ -6174,13 +6033,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -6189,13 +6048,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -6204,13 +6063,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="24"/>
@@ -6219,13 +6078,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -6234,13 +6093,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -6249,13 +6108,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -6264,13 +6123,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -6282,10 +6141,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -6297,10 +6156,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -6312,10 +6171,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -6327,10 +6186,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
@@ -6342,10 +6201,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="24"/>
@@ -6357,10 +6216,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="24"/>
@@ -6368,94 +6227,154 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="A39" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="4332" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="145">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,9 +80,6 @@
     <t>快速傅里叶变换（Fast Fourier Transformation）</t>
   </si>
   <si>
-    <t>利用栈实现简易计算器</t>
-  </si>
-  <si>
     <t>Python下OS操作（路径、读写、引用、字符串操作）</t>
   </si>
   <si>
@@ -209,314 +206,323 @@
     <t>gdb调试笔记</t>
   </si>
   <si>
+    <t>最短路径（Optimal Path）</t>
+  </si>
+  <si>
+    <t>RMQ与树状数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机杂学笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文笔记：Fast AutoAugment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包问题及优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匈牙利算法与二部图匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaTeX语法入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Basics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Programing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算（以C语言为例）</t>
+  </si>
+  <si>
+    <t>Matplotlib绘图操作极简笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu软件管理（持续更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win7下安装Ubuntu（双硬盘）的简要步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质数相关算法及优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSDN同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++常用数据结构及函数</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode-1题解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220329</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未分类贪心算法</t>
+  </si>
+  <si>
+    <t>NP问题与算法思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220409</t>
+  </si>
+  <si>
+    <t>20220410</t>
+  </si>
+  <si>
+    <t>LeetCode-347题解</t>
+  </si>
+  <si>
+    <t>C指针使用笔记</t>
+  </si>
+  <si>
+    <t>C文件读写笔记</t>
+  </si>
+  <si>
+    <t>C字符串操作笔记</t>
+  </si>
+  <si>
+    <t>20220412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu系统命令（持续更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSDN发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220427</t>
+  </si>
+  <si>
+    <t>20220609</t>
+  </si>
+  <si>
+    <t>20220704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBase数据库系统操作</t>
+  </si>
+  <si>
+    <t>20220704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C函数指针笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode-1402题解</t>
+  </si>
+  <si>
+    <t>20220811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C编译报错原因汇总</t>
+  </si>
+  <si>
+    <t>20220818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220828</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库系统存储结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用数学方法进行算法优化</t>
+  </si>
+  <si>
+    <t>20220912</t>
+  </si>
+  <si>
+    <t>20220913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode中神奇的链表操作</t>
+  </si>
+  <si>
+    <t>20220916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆排序与优先队列</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速排序及其变体</t>
+  </si>
+  <si>
+    <t>归并排序及其变体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈及其变体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>最小生成树</t>
-  </si>
-  <si>
-    <t>最短路径（Optimal Path）</t>
-  </si>
-  <si>
-    <t>RMQ与树状数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机杂学笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论文笔记：Fast AutoAugment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包问题及优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匈牙利算法与二部图匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaTeX语法入门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并查集算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀和算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Computer Basics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Programing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位运算（以C语言为例）</t>
-  </si>
-  <si>
-    <t>Matplotlib绘图操作极简笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubuntu软件管理（持续更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win7下安装Ubuntu（双硬盘）的简要步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220227</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质数相关算法及优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDN同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++常用数据结构及函数</t>
-  </si>
-  <si>
-    <t>正则表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeetCode-1题解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220329</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未分类贪心算法</t>
-  </si>
-  <si>
-    <t>NP问题与算法思路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220408</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220409</t>
-  </si>
-  <si>
-    <t>20220410</t>
-  </si>
-  <si>
-    <t>LeetCode-347题解</t>
-  </si>
-  <si>
-    <t>C指针使用笔记</t>
-  </si>
-  <si>
-    <t>C文件读写笔记</t>
-  </si>
-  <si>
-    <t>C字符串操作笔记</t>
-  </si>
-  <si>
-    <t>20220412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubuntu系统命令（持续更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSDN发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220418</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220427</t>
-  </si>
-  <si>
-    <t>20220609</t>
-  </si>
-  <si>
-    <t>20220704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBase数据库系统操作</t>
-  </si>
-  <si>
-    <t>20220704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C函数指针笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220711</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220712</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeetCode-1402题解</t>
-  </si>
-  <si>
-    <t>20220811</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C编译报错原因汇总</t>
-  </si>
-  <si>
-    <t>20220818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220828</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库系统存储结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220902</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220908</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用数学方法进行算法优化</t>
-  </si>
-  <si>
-    <t>20220912</t>
-  </si>
-  <si>
-    <t>20220913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeetCode中神奇的链表操作</t>
-  </si>
-  <si>
-    <t>20220916</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220916</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆排序与优先队列</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速排序及其变体</t>
-  </si>
-  <si>
-    <t>归并排序及其变体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +1000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1028,16 +1034,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="5" t="s">
@@ -1050,16 +1056,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1086,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1094,13 +1100,13 @@
       <c r="G2" s="11"/>
       <c r="H2" s="18"/>
       <c r="I2" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1115,7 +1121,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1123,13 +1129,13 @@
       <c r="G3" s="11"/>
       <c r="H3" s="18"/>
       <c r="I3" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="24"/>
@@ -1157,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -1168,13 +1174,13 @@
       <c r="G4" s="11"/>
       <c r="H4" s="18"/>
       <c r="I4" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1205,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="14"/>
@@ -1213,13 +1219,13 @@
       <c r="G5" s="12"/>
       <c r="H5" s="18"/>
       <c r="I5" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="24"/>
@@ -1247,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1258,13 +1264,13 @@
       <c r="G6" s="11"/>
       <c r="H6" s="18"/>
       <c r="I6" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1292,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -1303,13 +1309,13 @@
       <c r="G7" s="11"/>
       <c r="H7" s="18"/>
       <c r="I7" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1337,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -1348,13 +1354,13 @@
       <c r="G8" s="11"/>
       <c r="H8" s="18"/>
       <c r="I8" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="24"/>
@@ -1382,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -1393,13 +1399,13 @@
       <c r="G9" s="12"/>
       <c r="H9" s="18"/>
       <c r="I9" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="24"/>
@@ -1427,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
@@ -1438,13 +1444,13 @@
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
       <c r="I10" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="24"/>
@@ -1472,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1483,13 +1489,13 @@
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
       <c r="I11" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1517,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
@@ -1528,13 +1534,13 @@
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
       <c r="I12" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="14"/>
@@ -1562,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
@@ -1579,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="12"/>
@@ -1607,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
@@ -1624,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1652,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1666,10 +1672,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1697,24 +1703,24 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="18"/>
       <c r="I16" s="22" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1739,13 +1745,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1756,10 +1762,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
@@ -1784,13 +1790,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1801,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1832,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1849,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="24"/>
@@ -1874,13 +1880,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1894,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="24"/>
@@ -1922,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -1936,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -1964,13 +1970,13 @@
     </row>
     <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -1981,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="10"/>
@@ -2008,13 +2014,13 @@
     </row>
     <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="C23" s="14" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2025,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2053,13 +2059,13 @@
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="10"/>
@@ -2068,10 +2074,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2096,13 +2102,13 @@
     </row>
     <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -2135,13 +2141,13 @@
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -5754,7 +5760,7 @@
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5779,27 +5785,27 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -5808,13 +5814,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -5823,13 +5829,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -5838,13 +5844,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="24"/>
@@ -5853,13 +5859,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -5868,13 +5874,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -5883,13 +5889,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -5898,13 +5904,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="24"/>
@@ -5913,13 +5919,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="24"/>
@@ -5928,13 +5934,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -5943,13 +5949,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
@@ -5958,13 +5964,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="24"/>
@@ -5973,13 +5979,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
@@ -5988,13 +5994,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -6003,13 +6009,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -6018,13 +6024,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="24"/>
@@ -6033,13 +6039,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -6048,13 +6054,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -6063,13 +6069,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="24"/>
@@ -6078,13 +6084,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -6093,13 +6099,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -6108,13 +6114,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -6123,13 +6129,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -6141,10 +6147,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -6156,10 +6162,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -6171,10 +6177,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -6186,10 +6192,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
@@ -6201,10 +6207,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="24"/>
@@ -6216,10 +6222,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="24"/>
@@ -6231,10 +6237,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="24"/>
@@ -6246,10 +6252,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="24"/>
@@ -6261,10 +6267,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6276,10 +6282,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="24"/>
@@ -6291,10 +6297,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6306,10 +6312,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="24"/>
@@ -6321,10 +6327,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="24"/>
@@ -6336,10 +6342,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="24"/>
@@ -6351,10 +6357,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6366,10 +6372,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="24"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="5220" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>利用数学方法进行算法优化</t>
   </si>
   <si>
@@ -523,6 +519,10 @@
   </si>
   <si>
     <t>最小生成树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220922</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +1000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>110</v>
@@ -1585,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="12"/>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1793,10 +1793,10 @@
         <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1838,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1880,13 +1880,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1931,7 +1931,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -2020,7 +2020,7 @@
         <v>97</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2077,7 +2077,7 @@
         <v>91</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2144,10 +2144,10 @@
         <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -5760,7 +5760,7 @@
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -6300,7 +6300,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="6108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="149">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,22 @@
   </si>
   <si>
     <t>20220922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本转md：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到原文的编号，然后在浏览器输入“https://editor.csdn.net/md/?articleId=”，填入编号即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -691,6 +707,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,7 +1019,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1607,7 @@
         <v>144</v>
       </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="10"/>
       <c r="O13" s="12"/>
       <c r="P13" s="1"/>
@@ -1661,7 +1680,7 @@
         <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1711,7 +1730,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="18"/>
       <c r="I16" s="22" t="s">
         <v>2</v>
@@ -2238,6 +2257,9 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
@@ -5759,8 +5781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -6400,9 +6422,13 @@
       <c r="F42" s="14"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
+    <row r="43" spans="1:7" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>147</v>
+      </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -6419,8 +6445,6 @@
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="9660" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="152">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,9 +95,6 @@
     <t>Windows下cmd使用技巧（持续更新）</t>
   </si>
   <si>
-    <t>编译原理极简笔记（附C/C++编译过程及GNU使用笔记）</t>
-  </si>
-  <si>
     <t>ACM环境下对拍程序的写法</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Git自学笔记（本地操作）</t>
   </si>
   <si>
-    <t>VS Code 使用技巧及Python/C++（ACM竞赛）环境配置</t>
-  </si>
-  <si>
     <t>Docker入门</t>
   </si>
   <si>
@@ -510,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,6 +530,29 @@
   <si>
     <t>TODO：</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理及GNU使用笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填其他工时表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS Code使用技巧及开发环境配置</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1031,8 @@
   <dimension ref="A1:AE180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1053,16 +1066,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="5" t="s">
@@ -1075,16 +1088,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1111,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1119,13 +1132,13 @@
       <c r="G2" s="11"/>
       <c r="H2" s="18"/>
       <c r="I2" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1140,7 +1153,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1148,13 +1161,13 @@
       <c r="G3" s="11"/>
       <c r="H3" s="18"/>
       <c r="I3" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="24"/>
@@ -1182,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -1193,17 +1206,17 @@
       <c r="G4" s="11"/>
       <c r="H4" s="18"/>
       <c r="I4" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="3"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="11"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1230,7 +1243,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="14"/>
@@ -1238,13 +1251,13 @@
       <c r="G5" s="12"/>
       <c r="H5" s="18"/>
       <c r="I5" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="24"/>
@@ -1272,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1283,13 +1296,13 @@
       <c r="G6" s="11"/>
       <c r="H6" s="18"/>
       <c r="I6" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1317,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -1328,13 +1341,13 @@
       <c r="G7" s="11"/>
       <c r="H7" s="18"/>
       <c r="I7" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1362,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -1373,13 +1386,13 @@
       <c r="G8" s="11"/>
       <c r="H8" s="18"/>
       <c r="I8" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="24"/>
@@ -1407,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -1418,13 +1431,13 @@
       <c r="G9" s="12"/>
       <c r="H9" s="18"/>
       <c r="I9" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="24"/>
@@ -1452,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
@@ -1463,13 +1476,13 @@
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
       <c r="I10" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="24"/>
@@ -1497,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1508,13 +1521,13 @@
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
       <c r="I11" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1542,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
@@ -1553,13 +1566,13 @@
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
       <c r="I12" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="14"/>
@@ -1587,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
@@ -1604,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1632,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
@@ -1649,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1677,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1691,10 +1704,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1722,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1736,10 +1749,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1764,13 +1777,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1781,10 +1794,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
@@ -1809,13 +1822,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1826,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1857,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1874,7 +1887,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="24"/>
@@ -1899,13 +1912,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1919,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="24"/>
@@ -1947,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -1961,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -1989,13 +2002,13 @@
     </row>
     <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -2006,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="10"/>
@@ -2033,13 +2046,13 @@
     </row>
     <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="C23" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2050,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2078,13 +2091,13 @@
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="10"/>
@@ -2093,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2121,13 +2134,13 @@
     </row>
     <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -2160,13 +2173,13 @@
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -2258,7 +2271,10 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
@@ -2286,6 +2302,9 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
@@ -5781,8 +5800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5807,27 +5826,27 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -5836,13 +5855,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -5851,13 +5870,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -5866,13 +5885,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="24"/>
@@ -5881,13 +5900,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -5896,13 +5915,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -5911,13 +5930,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -5926,13 +5945,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="24"/>
@@ -5941,13 +5960,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="24"/>
@@ -5956,13 +5975,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -5971,13 +5990,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
@@ -5986,13 +6005,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="24"/>
@@ -6001,13 +6020,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
@@ -6016,13 +6035,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -6031,13 +6050,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -6046,13 +6065,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="24"/>
@@ -6061,13 +6080,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -6076,13 +6095,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -6091,13 +6110,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="24"/>
@@ -6106,13 +6125,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -6121,13 +6140,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -6136,13 +6155,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -6151,13 +6170,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -6169,10 +6188,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -6184,10 +6203,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -6202,7 +6221,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -6217,7 +6236,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
@@ -6232,7 +6251,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="24"/>
@@ -6247,7 +6266,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="24"/>
@@ -6259,10 +6278,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="24"/>
@@ -6274,10 +6293,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="24"/>
@@ -6289,10 +6308,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6304,10 +6323,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="24"/>
@@ -6319,10 +6338,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6334,10 +6353,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="24"/>
@@ -6349,10 +6368,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="24"/>
@@ -6364,10 +6383,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="24"/>
@@ -6379,10 +6398,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6394,10 +6413,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="24"/>
@@ -6424,10 +6443,10 @@
     </row>
     <row r="43" spans="1:7" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE93902-1F98-4CE4-AB31-611A0159D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="152">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220828</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,10 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220922</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220926</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,10 +525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SQL约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编译原理及GNU使用笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,12 +542,42 @@
   </si>
   <si>
     <t>VS Code使用技巧及开发环境配置</t>
+  </si>
+  <si>
+    <t>20221013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("aside.blog_container_aside").remove();
+$("div.left-toolbox").remove();
+$("div#csdn-toolbar").remove();
+$("div.recommend-box.insert-baidu-box").remove();
+$("div.comment-box.comment-box-old").remove();
+$("div.comment-box.comment-box-new").remove();
+$("div.first-recommend-box.recommend-box").remove();
+$("div.second-recommend-box.recommend-box").remove();
+$("div.blog-footer-bottom").remove();
+$("div#treeSkill").remove();
+$("div.template-box").remove();
+$("div.csdn-side-toolbar").remove();
+$("div.recommend-right.align-items-stretch.clearfix").remove();
+$("div#dmp_ad_58").remove();
+$("main").unwrap();
+$("main").unwrap();
+$("main").css("width","1068");
+$("main").css('float','left'); 
+window.print();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客网页转pdf保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -742,7 +761,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -817,6 +836,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -852,6 +888,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1027,12 +1080,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1138,7 +1191,7 @@
         <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1209,10 +1262,10 @@
         <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1285,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1302,7 +1355,7 @@
         <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1347,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1510,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>108</v>
@@ -1617,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1693,7 +1746,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1704,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>110</v>
@@ -1735,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1752,7 +1805,7 @@
         <v>111</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1822,13 +1875,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1870,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1912,13 +1965,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1963,7 +2016,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -1977,7 +2030,7 @@
         <v>103</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -2052,7 +2105,7 @@
         <v>95</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2109,7 +2162,7 @@
         <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2176,10 +2229,10 @@
         <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -2271,10 +2324,10 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
@@ -2302,9 +2355,6 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
@@ -5784,7 +5834,7 @@
       <c r="A180" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
     <sortCondition ref="A2:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5797,11 +5847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -6341,7 +6391,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6398,10 +6448,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6443,10 +6493,10 @@
     </row>
     <row r="43" spans="1:7" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -6454,9 +6504,13 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
+    <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE93902-1F98-4CE4-AB31-611A0159D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE29BF12-53DA-4102-A13F-E6A7E1DAD3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="152">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,10 +526,6 @@
   </si>
   <si>
     <t>编译原理及GNU使用笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填其他工时表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,6 +567,10 @@
   </si>
   <si>
     <t>博客网页转pdf保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1085,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1265,7 +1265,7 @@
         <v>144</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1355,7 +1355,7 @@
         <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1670,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1791,7 +1791,7 @@
         <v>137</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -2030,7 +2030,7 @@
         <v>103</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -2162,7 +2162,7 @@
         <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2325,9 +2325,6 @@
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
@@ -6448,10 +6445,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6506,10 +6503,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE29BF12-53DA-4102-A13F-E6A7E1DAD3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932B678-1A7A-45BE-BD87-9B184600F799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t>20220427</t>
-  </si>
-  <si>
-    <t>20220609</t>
   </si>
   <si>
     <t>20220704</t>
@@ -571,6 +568,10 @@
   </si>
   <si>
     <t>20221014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1086,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1191,7 +1192,7 @@
         <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1262,10 +1263,10 @@
         <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1338,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1355,7 +1356,7 @@
         <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1400,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1563,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>108</v>
@@ -1580,7 +1581,7 @@
         <v>105</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1670,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1715,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1746,7 +1747,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1757,10 +1758,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1788,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1802,10 +1803,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1830,13 +1831,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1847,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
@@ -1875,13 +1876,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1895,7 +1896,7 @@
         <v>101</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1923,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1965,13 +1966,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2016,7 +2017,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -2030,7 +2031,7 @@
         <v>103</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -2075,7 +2076,7 @@
         <v>102</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="10"/>
@@ -2105,7 +2106,7 @@
         <v>95</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2116,10 +2117,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2162,7 +2163,7 @@
         <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2190,10 +2191,10 @@
         <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -2229,10 +2230,10 @@
         <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -2324,7 +2325,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
@@ -5847,8 +5848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -6388,7 +6389,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6445,10 +6446,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6490,10 +6491,10 @@
     </row>
     <row r="43" spans="1:7" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -6503,10 +6504,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932B678-1A7A-45BE-BD87-9B184600F799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCEE76F-25BF-47D4-A0D8-59B2E6C419B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="152">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,12 +360,6 @@
     <t>20220409</t>
   </si>
   <si>
-    <t>20220410</t>
-  </si>
-  <si>
-    <t>LeetCode-347题解</t>
-  </si>
-  <si>
     <t>C指针使用笔记</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220427</t>
-  </si>
-  <si>
     <t>20220704</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,9 +453,6 @@
     <t>利用数学方法进行算法优化</t>
   </si>
   <si>
-    <t>20220912</t>
-  </si>
-  <si>
     <t>20220913</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,10 +499,6 @@
   </si>
   <si>
     <t>富文本转md：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到原文的编号，然后在浏览器输入“https://editor.csdn.net/md/?articleId=”，填入编号即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -572,6 +556,25 @@
   </si>
   <si>
     <t>20221018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://editor.csdn.net/md/?articleId=</t>
+  </si>
+  <si>
+    <t>找到原文的编号，然后在浏览器输入左侧链接，填入编号即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221028</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1082,11 +1085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE180"/>
+  <dimension ref="A1:AE179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1099,7 @@
     <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="21" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="21" customWidth="1"/>
     <col min="8" max="8" width="3" style="19" customWidth="1"/>
     <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
@@ -1120,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>86</v>
@@ -1142,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>86</v>
@@ -1178,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1192,7 +1195,7 @@
         <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1207,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1263,10 +1266,10 @@
         <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1339,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1356,7 +1359,7 @@
         <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1401,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1564,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1578,10 +1581,10 @@
         <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1626,7 +1629,7 @@
         <v>90</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="14"/>
@@ -1671,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1716,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1747,7 +1750,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1758,10 +1761,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1789,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1803,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1831,13 +1834,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1848,10 +1851,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
@@ -1876,13 +1879,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1893,10 +1896,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1924,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1966,13 +1969,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2017,7 +2020,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -2028,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -2073,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="10"/>
@@ -2106,7 +2109,7 @@
         <v>95</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2117,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2148,13 +2151,15 @@
         <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="18"/>
       <c r="I24" s="22" t="s">
         <v>1</v>
@@ -2163,7 +2168,7 @@
         <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2191,10 +2196,10 @@
         <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -2226,19 +2231,13 @@
       <c r="AE25" s="1"/>
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="18"/>
       <c r="I26" s="13"/>
       <c r="J26" s="14"/>
@@ -2265,13 +2264,6 @@
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
       <c r="H27" s="18"/>
       <c r="I27" s="15"/>
       <c r="J27" s="14"/>
@@ -2298,6 +2290,9 @@
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="H28" s="18"/>
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
@@ -2324,9 +2319,6 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>142</v>
-      </c>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
@@ -2379,6 +2371,13 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="18"/>
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
@@ -2872,7 +2871,7 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="12"/>
       <c r="H46" s="18"/>
       <c r="I46" s="13"/>
@@ -2905,7 +2904,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="18"/>
       <c r="I47" s="13"/>
@@ -3037,7 +3036,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="12"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="12"/>
       <c r="H51" s="18"/>
       <c r="I51" s="13"/>
@@ -3070,7 +3069,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="18"/>
       <c r="I52" s="13"/>
@@ -3296,7 +3295,7 @@
       <c r="AE58" s="1"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -3325,7 +3324,7 @@
       <c r="AE59" s="1"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -3383,7 +3382,7 @@
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -3416,9 +3415,9 @@
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
       <c r="H63" s="18"/>
       <c r="I63" s="5"/>
       <c r="K63" s="1"/>
@@ -5150,8 +5149,8 @@
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
@@ -5732,7 +5731,7 @@
       <c r="I157" s="5"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="16"/>
+      <c r="A158" s="5"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -5743,12 +5742,6 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
       <c r="I159" s="5"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -5828,19 +5821,13 @@
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
-    <sortCondition ref="A2:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
+    <sortCondition ref="A2:A43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C24" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5848,8 +5835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5874,7 +5861,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>86</v>
@@ -6389,7 +6376,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6434,7 +6421,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="24"/>
@@ -6446,10 +6433,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6489,14 +6476,16 @@
       <c r="F42" s="14"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="14"/>
+        <v>149</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="12"/>
@@ -6504,10 +6493,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCEE76F-25BF-47D4-A0D8-59B2E6C419B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679324BA-8622-46BB-841F-4731D32C4E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="153">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +575,10 @@
   </si>
   <si>
     <t>20221028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2038,7 @@
         <v>101</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -2168,7 +2172,7 @@
         <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679324BA-8622-46BB-841F-4731D32C4E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C4A91A-018D-44D6-9C2E-7A1311DB34B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,10 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220408</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220409</t>
   </si>
   <si>
@@ -378,10 +374,6 @@
   </si>
   <si>
     <t>CSDN发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220418</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,6 +571,14 @@
   </si>
   <si>
     <t>20221101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>86</v>
@@ -1149,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>86</v>
@@ -1185,7 +1185,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1199,7 +1199,7 @@
         <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1270,10 +1270,10 @@
         <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1363,7 +1363,7 @@
         <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1394,7 +1394,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -1408,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1571,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1585,10 +1585,10 @@
         <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1633,12 +1633,12 @@
         <v>90</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1678,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1723,7 +1723,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1754,7 +1754,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1765,10 +1765,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1796,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1810,10 +1810,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1838,13 +1838,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1855,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1900,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1931,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2024,7 +2024,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -2035,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -2080,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="10"/>
@@ -2113,7 +2113,7 @@
         <v>95</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2124,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2155,10 +2155,10 @@
         <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -2172,7 +2172,7 @@
         <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2200,10 +2200,10 @@
         <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="13"/>
@@ -5840,7 +5840,7 @@
   <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5865,7 +5865,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>86</v>
@@ -6350,7 +6350,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6380,7 +6380,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6425,7 +6425,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="24"/>
@@ -6437,10 +6437,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6482,13 +6482,13 @@
     </row>
     <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -6497,10 +6497,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -7109,5 +7109,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C4A91A-018D-44D6-9C2E-7A1311DB34B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C16B9-2F04-46D1-8983-86332378E3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="151">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ubuntu系统命令（持续更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSDN发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220711</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220712</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,10 +415,6 @@
   </si>
   <si>
     <t>Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220830</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -578,7 +566,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20221105</t>
+    <t>20221108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux系统命令（持续更新）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1085,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>86</v>
@@ -1149,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>86</v>
@@ -1185,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1199,7 +1191,7 @@
         <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1214,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1270,10 +1262,10 @@
         <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1346,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1363,7 +1355,7 @@
         <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1408,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1571,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1585,10 +1577,10 @@
         <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1633,7 +1625,7 @@
         <v>90</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1678,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1723,7 +1715,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1754,7 +1746,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1765,10 +1757,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1796,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1810,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1838,13 +1830,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1855,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
@@ -1883,13 +1875,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1903,7 +1895,7 @@
         <v>98</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1931,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1973,13 +1965,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2024,7 +2016,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -2038,7 +2030,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -2083,7 +2075,7 @@
         <v>99</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="10"/>
@@ -2113,7 +2105,7 @@
         <v>95</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2124,10 +2116,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2155,10 +2147,10 @@
         <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -2172,7 +2164,7 @@
         <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2200,10 +2192,10 @@
         <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -2295,7 +2287,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="13"/>
@@ -5865,7 +5857,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>86</v>
@@ -6350,7 +6342,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6380,7 +6372,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6437,10 +6429,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6482,13 +6474,13 @@
     </row>
     <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -6497,10 +6489,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C16B9-2F04-46D1-8983-86332378E3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A75F2F9-A139-494B-A95C-0B5EE9A9FC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,10 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20221014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20221018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,6 +567,10 @@
   </si>
   <si>
     <t>Linux系统命令（持续更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1085,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1341,7 +1341,7 @@
         <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1400,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1566,7 +1566,7 @@
         <v>129</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1577,10 +1577,10 @@
         <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1625,7 +1625,7 @@
         <v>90</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1670,10 +1670,10 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="10"/>
       <c r="O13" s="12"/>
       <c r="P13" s="1"/>
@@ -1715,7 +1715,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1791,7 +1791,7 @@
         <v>127</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1881,7 +1881,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -2016,7 +2016,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -2030,7 +2030,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -2164,7 +2164,7 @@
         <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -6342,7 +6342,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6432,7 +6432,7 @@
         <v>136</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6477,10 +6477,10 @@
         <v>131</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A75F2F9-A139-494B-A95C-0B5EE9A9FC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87993B2E-8B64-45DD-B2F1-E0481B345E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="152">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,10 @@
   </si>
   <si>
     <t>20221109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1089,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1670,10 +1674,10 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="8"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="10"/>
       <c r="O13" s="12"/>
       <c r="P13" s="1"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87993B2E-8B64-45DD-B2F1-E0481B345E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF13C1-5E42-4A66-B055-7C0AC6508F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Ubuntu捉虫记</t>
-  </si>
-  <si>
-    <t>SQL笔记</t>
   </si>
   <si>
     <t>数据库并发控制</t>
@@ -574,7 +571,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20221111</t>
+    <t>20221114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL笔记（DQL语句）</t>
+  </si>
+  <si>
+    <t>SQL笔记（非DQL语句）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典动态规划算法合集</t>
+  </si>
+  <si>
+    <t>20221114</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,11 +1096,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE179"/>
+  <dimension ref="A1:AE180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1123,16 +1134,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="5" t="s">
@@ -1145,16 +1156,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1178,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1189,13 +1200,13 @@
       <c r="G2" s="11"/>
       <c r="H2" s="18"/>
       <c r="I2" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1207,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1218,13 +1229,13 @@
       <c r="G3" s="11"/>
       <c r="H3" s="18"/>
       <c r="I3" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="24"/>
@@ -1252,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -1263,13 +1274,13 @@
       <c r="G4" s="11"/>
       <c r="H4" s="18"/>
       <c r="I4" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1297,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="14"/>
@@ -1308,13 +1319,13 @@
       <c r="G5" s="12"/>
       <c r="H5" s="18"/>
       <c r="I5" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="24"/>
@@ -1342,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1353,13 +1364,13 @@
       <c r="G6" s="11"/>
       <c r="H6" s="18"/>
       <c r="I6" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1387,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -1398,13 +1409,13 @@
       <c r="G7" s="11"/>
       <c r="H7" s="18"/>
       <c r="I7" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1432,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -1443,13 +1454,13 @@
       <c r="G8" s="11"/>
       <c r="H8" s="18"/>
       <c r="I8" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="24"/>
@@ -1477,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -1488,13 +1499,13 @@
       <c r="G9" s="12"/>
       <c r="H9" s="18"/>
       <c r="I9" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="24"/>
@@ -1522,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
@@ -1533,13 +1544,13 @@
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
       <c r="I10" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="24"/>
@@ -1567,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1578,13 +1589,13 @@
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
       <c r="I11" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1612,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
@@ -1623,13 +1634,13 @@
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
       <c r="I12" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1657,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
@@ -1671,10 +1682,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1702,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
@@ -1716,10 +1727,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1747,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1761,10 +1772,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1792,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1805,11 +1816,11 @@
       <c r="I16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>104</v>
+      <c r="J16" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1834,13 +1845,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1848,18 +1859,18 @@
       <c r="G17" s="12"/>
       <c r="H17" s="18"/>
       <c r="I17" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1879,13 +1890,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1896,15 +1907,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="24"/>
+        <v>112</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1927,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1941,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="24"/>
@@ -1969,13 +1980,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1986,14 +1997,14 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="11"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2017,28 +2028,28 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+        <v>154</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="18"/>
       <c r="I21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="10"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="11"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2058,14 +2069,14 @@
       <c r="AE21" s="1"/>
     </row>
     <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>93</v>
+      <c r="A22" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -2079,11 +2090,12 @@
         <v>99</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="12"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2103,32 +2115,31 @@
     </row>
     <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="18"/>
       <c r="I23" s="22" t="s">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="24"/>
+      <c r="L23" s="1"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2148,27 +2159,27 @@
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="18"/>
       <c r="I24" s="22" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="24"/>
@@ -2193,26 +2204,32 @@
     </row>
     <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+      <c r="I25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2231,13 +2248,19 @@
       <c r="AE25" s="1"/>
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="18"/>
       <c r="I26" s="13"/>
       <c r="J26" s="14"/>
@@ -2264,8 +2287,15 @@
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -2290,11 +2320,8 @@
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>132</v>
-      </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -2319,6 +2346,9 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
@@ -2371,13 +2401,6 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
       <c r="H31" s="18"/>
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
@@ -2747,7 +2770,7 @@
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2780,7 +2803,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
-      <c r="N43" s="12"/>
+      <c r="N43" s="14"/>
       <c r="O43" s="12"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -2871,7 +2894,7 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="18"/>
       <c r="I46" s="13"/>
@@ -2904,7 +2927,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="12"/>
       <c r="H47" s="18"/>
       <c r="I47" s="13"/>
@@ -2912,7 +2935,7 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
+      <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -2945,7 +2968,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
-      <c r="N48" s="12"/>
+      <c r="N48" s="14"/>
       <c r="O48" s="12"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -3036,7 +3059,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="18"/>
       <c r="I51" s="13"/>
@@ -3069,7 +3092,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="12"/>
       <c r="H52" s="18"/>
       <c r="I52" s="13"/>
@@ -3204,7 +3227,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="15"/>
+      <c r="I56" s="13"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
@@ -3237,7 +3260,7 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="13"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -3295,7 +3318,7 @@
       <c r="AE58" s="1"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -3303,9 +3326,13 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="5"/>
-      <c r="K59" s="1"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
       <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3324,7 +3351,7 @@
       <c r="AE59" s="1"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -3382,7 +3409,7 @@
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -3415,9 +3442,9 @@
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
       <c r="H63" s="18"/>
       <c r="I63" s="5"/>
       <c r="K63" s="1"/>
@@ -4987,7 +5014,7 @@
       <c r="H117" s="18"/>
       <c r="I117" s="5"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="17"/>
+      <c r="L117" s="14"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -5044,6 +5071,7 @@
       <c r="G119" s="20"/>
       <c r="H119" s="18"/>
       <c r="I119" s="5"/>
+      <c r="K119" s="1"/>
       <c r="L119" s="17"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -5149,8 +5177,8 @@
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
@@ -5689,6 +5717,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="I153" s="5"/>
+      <c r="L153" s="17"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
@@ -5731,7 +5760,7 @@
       <c r="I157" s="5"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
+      <c r="A158" s="16"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -5742,6 +5771,12 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
       <c r="I159" s="5"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -5812,18 +5847,22 @@
       <c r="A176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
     </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
-    <sortCondition ref="A2:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
+    <sortCondition ref="A2:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5835,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5861,27 +5900,27 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -5890,13 +5929,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -5905,13 +5944,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -5920,13 +5959,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="24"/>
@@ -5935,13 +5974,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -5950,13 +5989,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -5965,13 +6004,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -5980,13 +6019,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="24"/>
@@ -5995,13 +6034,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="24"/>
@@ -6010,13 +6049,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -6025,13 +6064,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
@@ -6040,13 +6079,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="24"/>
@@ -6055,13 +6094,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
@@ -6070,13 +6109,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -6085,13 +6124,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -6100,13 +6139,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="24"/>
@@ -6115,13 +6154,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -6130,13 +6169,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -6145,13 +6184,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="24"/>
@@ -6160,13 +6199,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -6175,13 +6214,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -6190,13 +6229,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -6205,13 +6244,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -6223,10 +6262,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -6238,10 +6277,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -6253,10 +6292,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -6268,10 +6307,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
@@ -6283,10 +6322,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="24"/>
@@ -6298,10 +6337,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="24"/>
@@ -6313,10 +6352,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="24"/>
@@ -6328,10 +6367,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="24"/>
@@ -6343,10 +6382,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6358,10 +6397,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="24"/>
@@ -6373,10 +6412,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6388,10 +6427,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="24"/>
@@ -6403,10 +6442,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="24"/>
@@ -6418,10 +6457,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="24"/>
@@ -6433,10 +6472,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6448,10 +6487,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="24"/>
@@ -6478,13 +6517,13 @@
     </row>
     <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -6493,10 +6532,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF13C1-5E42-4A66-B055-7C0AC6508F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B441BEDE-6071-4BCE-81E9-59CD5BF89570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="157">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -587,6 +587,13 @@
   <si>
     <t>20221114</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库去重算法概述</t>
   </si>
 </sst>
 </file>
@@ -1096,11 +1103,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE180"/>
+  <dimension ref="A1:AE181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1117,7 @@
     <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="2.44140625" style="21" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="21" customWidth="1"/>
     <col min="8" max="8" width="3" style="19" customWidth="1"/>
     <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
@@ -2073,15 +2080,15 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+        <v>155</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="18"/>
       <c r="I22" s="22" t="s">
         <v>1</v>
@@ -2114,14 +2121,14 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>92</v>
+      <c r="A23" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -2161,16 +2168,16 @@
       <c r="A24" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="18"/>
       <c r="I24" s="22" t="s">
         <v>1</v>
@@ -2206,16 +2213,16 @@
       <c r="A25" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="18"/>
       <c r="I25" s="22" t="s">
         <v>1</v>
@@ -2252,10 +2259,10 @@
         <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -2287,13 +2294,19 @@
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="18"/>
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
@@ -2320,6 +2333,13 @@
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="18"/>
       <c r="I28" s="15"/>
       <c r="J28" s="14"/>
@@ -2346,9 +2366,6 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="H29" s="18"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
@@ -2375,6 +2392,9 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
@@ -2427,13 +2447,6 @@
       <c r="AE31" s="1"/>
     </row>
     <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
       <c r="H32" s="18"/>
       <c r="I32" s="13"/>
       <c r="J32" s="14"/>
@@ -2927,7 +2940,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="18"/>
       <c r="I47" s="13"/>
@@ -2960,7 +2973,7 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="12"/>
       <c r="H48" s="18"/>
       <c r="I48" s="13"/>
@@ -3092,7 +3105,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="18"/>
       <c r="I52" s="13"/>
@@ -3125,7 +3138,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="12"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="12"/>
       <c r="H53" s="18"/>
       <c r="I53" s="13"/>
@@ -3351,7 +3364,7 @@
       <c r="AE59" s="1"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -3380,7 +3393,7 @@
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -3438,7 +3451,7 @@
       <c r="AE62" s="1"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -3471,9 +3484,9 @@
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="18"/>
       <c r="I64" s="5"/>
       <c r="K64" s="1"/>
@@ -5205,8 +5218,8 @@
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
@@ -5770,7 +5783,7 @@
       <c r="I158" s="5"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
+      <c r="A159" s="16"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -5781,6 +5794,12 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
       <c r="I160" s="5"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5860,9 +5879,12 @@
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
     </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
-    <sortCondition ref="A2:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
+    <sortCondition ref="A2:A45"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5874,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B441BEDE-6071-4BCE-81E9-59CD5BF89570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6840BE72-AB7A-49A8-83DE-A94F2B536C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,6 +594,13 @@
   </si>
   <si>
     <t>数据库去重算法概述</t>
+  </si>
+  <si>
+    <t>20221121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows下PostgreSQL编译调试笔记</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1113,8 @@
   <dimension ref="A1:AE181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1868,16 +1875,16 @@
       <c r="I17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>103</v>
+      <c r="J17" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="24"/>
+        <v>157</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1911,18 +1918,18 @@
       <c r="G18" s="11"/>
       <c r="H18" s="18"/>
       <c r="I18" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>111</v>
+        <v>2</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="12"/>
+      <c r="O18" s="11"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1959,15 +1966,15 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="24"/>
+        <v>112</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2004,10 +2011,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="24"/>
@@ -2049,14 +2056,14 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="11"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2094,14 +2101,14 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="10"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="11"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2139,14 +2146,15 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2183,15 +2191,14 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="L24" s="1"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
+      <c r="O24" s="12"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2228,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="24"/>
@@ -2269,13 +2276,19 @@
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
+      <c r="I26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2341,7 +2354,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -2367,7 +2380,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H29" s="18"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
@@ -2816,7 +2829,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
+      <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -2849,7 +2862,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
-      <c r="N44" s="12"/>
+      <c r="N44" s="14"/>
       <c r="O44" s="12"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -2981,7 +2994,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
+      <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -3014,7 +3027,7 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
-      <c r="N49" s="12"/>
+      <c r="N49" s="14"/>
       <c r="O49" s="12"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -3273,7 +3286,7 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="15"/>
+      <c r="I57" s="13"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -3306,7 +3319,7 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="13"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
@@ -3372,9 +3385,13 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="5"/>
-      <c r="K60" s="1"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
       <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -5056,7 +5073,7 @@
       <c r="H118" s="18"/>
       <c r="I118" s="5"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="17"/>
+      <c r="L118" s="14"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
@@ -5113,6 +5130,7 @@
       <c r="G120" s="20"/>
       <c r="H120" s="18"/>
       <c r="I120" s="5"/>
+      <c r="K120" s="1"/>
       <c r="L120" s="17"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -5741,6 +5759,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="I154" s="5"/>
+      <c r="L154" s="17"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
@@ -5872,6 +5891,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
+      <c r="I178" s="5"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6840BE72-AB7A-49A8-83DE-A94F2B536C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DC77D-17A0-4E09-A798-577CA453C787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="157">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,10 +484,6 @@
   </si>
   <si>
     <t>编译原理及GNU使用笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20221011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -585,10 +581,6 @@
     <t>经典动态规划算法合集</t>
   </si>
   <si>
-    <t>20221114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20221115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,11 +588,11 @@
     <t>数据库去重算法概述</t>
   </si>
   <si>
-    <t>20221121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Windows下PostgreSQL编译调试笔记</t>
+  </si>
+  <si>
+    <t>20221122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1113,7 +1105,7 @@
   <dimension ref="A1:AE181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1206,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1235,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1294,7 +1286,7 @@
         <v>132</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1370,7 +1362,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1384,7 +1376,7 @@
         <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1429,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1595,7 +1587,7 @@
         <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1606,10 +1598,10 @@
         <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1654,7 +1646,7 @@
         <v>89</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1696,10 +1688,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1741,10 +1733,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1789,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1820,7 +1812,7 @@
         <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1876,10 +1868,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
@@ -1910,7 +1902,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -2042,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2087,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2135,7 +2127,7 @@
         <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -2149,7 +2141,7 @@
         <v>99</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2283,7 +2275,7 @@
         <v>88</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="24"/>
@@ -6427,7 +6419,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6514,10 +6506,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6562,10 +6554,10 @@
         <v>130</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -6574,10 +6566,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DC77D-17A0-4E09-A798-577CA453C787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23303DBB-268F-436C-B47C-364A7C5C7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="158">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,6 +592,10 @@
   </si>
   <si>
     <t>20221122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221124</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1110,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1871,12 +1875,12 @@
         <v>155</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23303DBB-268F-436C-B47C-364A7C5C7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB69065-32FB-4C19-AC31-F7FE61C71F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="158">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,10 +468,6 @@
   </si>
   <si>
     <t>最小生成树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220926</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -596,6 +592,10 @@
   </si>
   <si>
     <t>20221124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1110,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1231,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1287,10 +1287,10 @@
         <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1366,7 +1366,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1380,7 +1380,7 @@
         <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1425,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1591,7 +1591,7 @@
         <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1602,10 +1602,10 @@
         <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1650,7 +1650,7 @@
         <v>89</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1692,10 +1692,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1737,10 +1737,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1771,7 +1771,7 @@
         <v>68</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1816,7 +1816,7 @@
         <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1872,10 +1872,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="24"/>
@@ -1906,7 +1906,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -2038,10 +2038,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2131,7 +2131,7 @@
         <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -2145,7 +2145,7 @@
         <v>99</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2279,7 +2279,7 @@
         <v>88</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="24"/>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
@@ -6423,7 +6423,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6510,10 +6510,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6555,13 +6555,13 @@
     </row>
     <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB69065-32FB-4C19-AC31-F7FE61C71F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C79B8B-2175-4DAD-90E5-8A319D35A003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,10 @@
   </si>
   <si>
     <t>20221128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221129</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1996,7 +2000,7 @@
         <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C79B8B-2175-4DAD-90E5-8A319D35A003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7E4170-8287-4C05-A8AE-4B760ED796E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="160">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,6 +600,10 @@
   </si>
   <si>
     <t>20221129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221205</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1118,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20:C20"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2049,7 @@
         <v>151</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7E4170-8287-4C05-A8AE-4B760ED796E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95959606-4EBD-44FA-A466-343181908EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,9 +189,6 @@
     <t>HTML自学笔记#2</t>
   </si>
   <si>
-    <t>一笔画问题</t>
-  </si>
-  <si>
     <t>B树与B+树</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
   <si>
     <t>NP问题与算法思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220409</t>
   </si>
   <si>
     <t>C指针使用笔记</t>
@@ -599,12 +593,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20221129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20221205</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一笔画问题（欧拉回路）</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1115,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1152,16 +1149,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="5" t="s">
@@ -1174,16 +1171,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1210,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1218,13 +1215,13 @@
       <c r="G2" s="11"/>
       <c r="H2" s="18"/>
       <c r="I2" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="24"/>
@@ -1239,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1247,13 +1244,13 @@
       <c r="G3" s="11"/>
       <c r="H3" s="18"/>
       <c r="I3" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="24"/>
@@ -1281,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -1292,13 +1289,13 @@
       <c r="G4" s="11"/>
       <c r="H4" s="18"/>
       <c r="I4" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1329,7 +1326,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="14"/>
@@ -1337,13 +1334,13 @@
       <c r="G5" s="12"/>
       <c r="H5" s="18"/>
       <c r="I5" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="24"/>
@@ -1371,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1382,13 +1379,13 @@
       <c r="G6" s="11"/>
       <c r="H6" s="18"/>
       <c r="I6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1416,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -1427,13 +1424,13 @@
       <c r="G7" s="11"/>
       <c r="H7" s="18"/>
       <c r="I7" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1461,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -1472,13 +1469,13 @@
       <c r="G8" s="11"/>
       <c r="H8" s="18"/>
       <c r="I8" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="24"/>
@@ -1506,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -1517,13 +1514,13 @@
       <c r="G9" s="12"/>
       <c r="H9" s="18"/>
       <c r="I9" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="24"/>
@@ -1551,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
@@ -1562,13 +1559,13 @@
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
       <c r="I10" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="24"/>
@@ -1596,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1607,13 +1604,13 @@
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
       <c r="I11" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1641,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
@@ -1652,13 +1649,13 @@
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
       <c r="I12" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1686,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
@@ -1700,10 +1697,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1731,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
@@ -1745,10 +1742,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1776,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1793,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1821,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1835,10 +1832,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="24"/>
@@ -1863,13 +1860,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -1880,10 +1877,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="24"/>
@@ -1908,13 +1905,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1925,10 +1922,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1956,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1970,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
@@ -1998,27 +1995,27 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="18"/>
       <c r="I20" s="22" t="s">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="24"/>
@@ -2046,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2063,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="24"/>
@@ -2091,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2108,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="24"/>
@@ -2136,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -2150,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2178,13 +2175,13 @@
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -2195,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L24" s="1"/>
       <c r="N24" s="10"/>
@@ -2222,13 +2219,13 @@
     </row>
     <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -2239,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="24"/>
@@ -2267,13 +2264,13 @@
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -2284,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="24"/>
@@ -2312,13 +2309,13 @@
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -2410,7 +2407,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
@@ -5946,27 +5943,27 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -5975,13 +5972,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -5990,13 +5987,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="24"/>
@@ -6005,13 +6002,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="24"/>
@@ -6020,13 +6017,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -6035,13 +6032,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -6050,13 +6047,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="24"/>
@@ -6065,13 +6062,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="24"/>
@@ -6080,13 +6077,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="24"/>
@@ -6095,13 +6092,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -6110,13 +6107,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
@@ -6125,13 +6122,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="24"/>
@@ -6140,13 +6137,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
@@ -6155,13 +6152,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -6170,13 +6167,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -6185,13 +6182,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="24"/>
@@ -6200,13 +6197,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -6215,13 +6212,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -6230,13 +6227,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="24"/>
@@ -6245,13 +6242,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
@@ -6260,13 +6257,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
@@ -6275,13 +6272,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -6290,13 +6287,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
@@ -6311,7 +6308,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
@@ -6323,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
@@ -6341,7 +6338,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -6356,7 +6353,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
@@ -6371,7 +6368,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="24"/>
@@ -6386,7 +6383,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="24"/>
@@ -6401,7 +6398,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="24"/>
@@ -6416,7 +6413,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="24"/>
@@ -6431,7 +6428,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6443,10 +6440,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="24"/>
@@ -6461,7 +6458,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6476,7 +6473,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="24"/>
@@ -6491,7 +6488,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="24"/>
@@ -6506,7 +6503,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="24"/>
@@ -6518,10 +6515,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6536,7 +6533,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="24"/>
@@ -6563,13 +6560,13 @@
     </row>
     <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -6578,10 +6575,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95959606-4EBD-44FA-A466-343181908EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A295C6A-B01A-458B-8FC9-179C582BEEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,10 +414,6 @@
   </si>
   <si>
     <t>20220902</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220907</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,6 +598,10 @@
   </si>
   <si>
     <t>一笔画问题（欧拉回路）</t>
+  </si>
+  <si>
+    <t>20221207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1115,7 +1115,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="24"/>
@@ -1236,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="24"/>
@@ -1292,10 +1292,10 @@
         <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="24"/>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
@@ -1385,7 +1385,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="24"/>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
@@ -1430,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="24"/>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
@@ -1607,10 +1607,10 @@
         <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="24"/>
@@ -1655,7 +1655,7 @@
         <v>88</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="24"/>
@@ -1697,10 +1697,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="24"/>
@@ -1742,10 +1742,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="24"/>
@@ -1776,7 +1776,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
@@ -1790,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="24"/>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="24"/>
@@ -1877,10 +1877,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="24"/>
@@ -1908,10 +1908,10 @@
         <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="24"/>
@@ -1925,7 +1925,7 @@
         <v>101</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="24"/>
@@ -1953,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="24"/>
@@ -1995,13 +1995,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="24"/>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2136,7 +2136,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
@@ -2150,7 +2150,7 @@
         <v>97</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="24"/>
@@ -2225,7 +2225,7 @@
         <v>93</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -2284,7 +2284,7 @@
         <v>87</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="24"/>
@@ -2312,10 +2312,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="13"/>
@@ -6428,7 +6428,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
@@ -6458,7 +6458,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
@@ -6515,10 +6515,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
@@ -6560,13 +6560,13 @@
     </row>
     <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -6575,10 +6575,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A295C6A-B01A-458B-8FC9-179C582BEEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88485990-5635-4121-813D-1E6073C40739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="160">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +601,10 @@
   </si>
   <si>
     <t>20221207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221209</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -720,12 +724,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -735,23 +733,11 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -759,18 +745,11 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1094,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1124,17 +1103,17 @@
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="2.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="3" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="2.44140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="3" style="13" customWidth="1"/>
     <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
     <col min="10" max="10" width="49.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="1.77734375" style="21" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="1.77734375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -1160,7 +1139,7 @@
       <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1179,7 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1209,12 +1188,12 @@
       <c r="C2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="23" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1223,13 +1202,13 @@
       <c r="K2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1238,12 +1217,12 @@
       <c r="C3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="23" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1252,10 +1231,10 @@
       <c r="K3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1274,7 +1253,7 @@
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1283,12 +1262,12 @@
       <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="23" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1297,10 +1276,10 @@
       <c r="K4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1319,7 +1298,7 @@
       <c r="AE4" s="1"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1328,12 +1307,12 @@
       <c r="C5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="23" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1342,10 +1321,10 @@
       <c r="K5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1364,7 +1343,7 @@
       <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1373,24 +1352,24 @@
       <c r="C6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="23" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1409,21 +1388,21 @@
       <c r="AE6" s="1"/>
     </row>
     <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="23" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1432,10 +1411,10 @@
       <c r="K7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1454,7 +1433,7 @@
       <c r="AE7" s="1"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1463,12 +1442,12 @@
       <c r="C8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="23" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1477,10 +1456,10 @@
       <c r="K8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1499,21 +1478,21 @@
       <c r="AE8" s="1"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="23" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1522,10 +1501,10 @@
       <c r="K9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1544,21 +1523,21 @@
       <c r="AE9" s="1"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="23" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1567,10 +1546,10 @@
       <c r="K10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1589,33 +1568,33 @@
       <c r="AE10" s="1"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="23" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>143</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1634,33 +1613,33 @@
       <c r="AE11" s="1"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="23" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1679,21 +1658,21 @@
       <c r="AE12" s="1"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="22" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1702,10 +1681,10 @@
       <c r="K13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="12"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1724,33 +1703,33 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="22" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1769,21 +1748,21 @@
       <c r="AE14" s="1"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="22" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1792,10 +1771,10 @@
       <c r="K15" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1814,7 +1793,7 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1823,12 +1802,12 @@
       <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="22" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1837,10 +1816,10 @@
       <c r="K16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1859,7 +1838,7 @@
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1868,12 +1847,12 @@
       <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="22" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1882,10 +1861,10 @@
       <c r="K17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1904,7 +1883,7 @@
       <c r="AE17" s="1"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1913,24 +1892,24 @@
       <c r="C18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="22" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="1" t="s">
         <v>101</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1949,7 +1928,7 @@
       <c r="AE18" s="1"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1958,12 +1937,12 @@
       <c r="C19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="22" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1972,10 +1951,10 @@
       <c r="K19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="12"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1994,7 +1973,7 @@
       <c r="AE19" s="1"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2003,12 +1982,12 @@
       <c r="C20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="22" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -2017,10 +1996,10 @@
       <c r="K20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2039,7 +2018,7 @@
       <c r="AE20" s="1"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2048,12 +2027,12 @@
       <c r="C21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="22" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -2062,10 +2041,10 @@
       <c r="K21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2084,7 +2063,7 @@
       <c r="AE21" s="1"/>
     </row>
     <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2093,12 +2072,12 @@
       <c r="C22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="22" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -2107,10 +2086,10 @@
       <c r="K22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="24"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="11"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2129,7 +2108,7 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2138,12 +2117,12 @@
       <c r="C23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="22" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -2152,10 +2131,10 @@
       <c r="K23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2174,7 +2153,7 @@
       <c r="AE23" s="1"/>
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2183,12 +2162,12 @@
       <c r="C24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="22" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -2198,8 +2177,8 @@
         <v>105</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="12"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2218,21 +2197,21 @@
       <c r="AE24" s="1"/>
     </row>
     <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="22" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -2241,10 +2220,10 @@
       <c r="K25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2263,7 +2242,7 @@
       <c r="AE25" s="1"/>
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2272,12 +2251,12 @@
       <c r="C26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="22" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -2286,10 +2265,10 @@
       <c r="K26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2308,7 +2287,7 @@
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2317,18 +2296,17 @@
       <c r="C27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="10"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2347,21 +2325,19 @@
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="10"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2380,14 +2356,13 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="H29" s="18"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="11"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2406,17 +2381,16 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="10"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2435,14 +2409,13 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="18"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="10"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -2461,14 +2434,13 @@
       <c r="AE31" s="1"/>
     </row>
     <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="18"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="10"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2487,21 +2459,19 @@
       <c r="AE32" s="1"/>
     </row>
     <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
+      <c r="A33" s="10"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="10"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2520,21 +2490,19 @@
       <c r="AE33" s="1"/>
     </row>
     <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="10"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2553,21 +2521,19 @@
       <c r="AE34" s="1"/>
     </row>
     <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="10"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2586,21 +2552,19 @@
       <c r="AE35" s="1"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="10"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -2619,21 +2583,19 @@
       <c r="AE36" s="1"/>
     </row>
     <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="10"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -2652,21 +2614,19 @@
       <c r="AE37" s="1"/>
     </row>
     <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="A38" s="10"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="10"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2685,21 +2645,19 @@
       <c r="AE38" s="1"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="10"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2718,21 +2676,19 @@
       <c r="AE39" s="1"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="10"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2751,21 +2707,19 @@
       <c r="AE40" s="1"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="10"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2784,21 +2738,19 @@
       <c r="AE41" s="1"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="10"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2817,21 +2769,19 @@
       <c r="AE42" s="1"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="10"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2850,21 +2800,19 @@
       <c r="AE43" s="1"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="10"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="3"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -2883,21 +2831,19 @@
       <c r="AE44" s="1"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
+      <c r="A45" s="10"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="10"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -2916,21 +2862,19 @@
       <c r="AE45" s="1"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="10"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -2949,21 +2893,19 @@
       <c r="AE46" s="1"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="10"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2982,21 +2924,19 @@
       <c r="AE47" s="1"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="10"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -3015,21 +2955,19 @@
       <c r="AE48" s="1"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="12"/>
+      <c r="A49" s="10"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="10"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="3"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -3048,21 +2986,19 @@
       <c r="AE49" s="1"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="10"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -3081,21 +3017,19 @@
       <c r="AE50" s="1"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
+      <c r="A51" s="10"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="10"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -3114,21 +3048,19 @@
       <c r="AE51" s="1"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="10"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -3147,21 +3079,19 @@
       <c r="AE52" s="1"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
+      <c r="A53" s="10"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="10"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -3180,21 +3110,19 @@
       <c r="AE53" s="1"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
+      <c r="A54" s="10"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="10"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -3213,21 +3141,19 @@
       <c r="AE54" s="1"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
+      <c r="A55" s="10"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="10"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -3246,21 +3172,19 @@
       <c r="AE55" s="1"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
+      <c r="A56" s="10"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="10"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -3279,21 +3203,19 @@
       <c r="AE56" s="1"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
+      <c r="A57" s="10"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="10"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -3312,21 +3234,19 @@
       <c r="AE57" s="1"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+      <c r="A58" s="10"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="11"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -3345,21 +3265,19 @@
       <c r="AE58" s="1"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
+      <c r="A59" s="10"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="10"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3378,21 +3296,19 @@
       <c r="AE59" s="1"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
+      <c r="A60" s="10"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="10"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -3411,17 +3327,16 @@
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="18"/>
+      <c r="A61" s="11"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="12"/>
       <c r="I61" s="5"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="14"/>
+      <c r="L61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -3440,17 +3355,16 @@
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="18"/>
+      <c r="A62" s="10"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="12"/>
       <c r="I62" s="5"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="14"/>
+      <c r="L62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -3469,17 +3383,16 @@
       <c r="AE62" s="1"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="18"/>
+      <c r="A63" s="10"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="12"/>
       <c r="I63" s="5"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="14"/>
+      <c r="L63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -3498,17 +3411,16 @@
       <c r="AE63" s="1"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="18"/>
+      <c r="A64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="12"/>
       <c r="I64" s="5"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="14"/>
+      <c r="L64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -3527,17 +3439,13 @@
       <c r="AE64" s="1"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="18"/>
+      <c r="A65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="H65" s="12"/>
       <c r="I65" s="5"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="14"/>
+      <c r="L65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -3556,17 +3464,13 @@
       <c r="AE65" s="1"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="18"/>
+      <c r="A66" s="5"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="H66" s="12"/>
       <c r="I66" s="5"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="14"/>
+      <c r="L66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -3585,17 +3489,13 @@
       <c r="AE66" s="1"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="18"/>
+      <c r="A67" s="5"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="H67" s="12"/>
       <c r="I67" s="5"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="14"/>
+      <c r="L67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -3614,17 +3514,13 @@
       <c r="AE67" s="1"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="18"/>
+      <c r="A68" s="5"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="H68" s="12"/>
       <c r="I68" s="5"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="14"/>
+      <c r="L68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -3643,17 +3539,13 @@
       <c r="AE68" s="1"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="18"/>
+      <c r="A69" s="5"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="H69" s="12"/>
       <c r="I69" s="5"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="14"/>
+      <c r="L69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -3672,17 +3564,13 @@
       <c r="AE69" s="1"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="18"/>
+      <c r="A70" s="5"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="H70" s="12"/>
       <c r="I70" s="5"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="14"/>
+      <c r="L70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -3701,17 +3589,13 @@
       <c r="AE70" s="1"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="18"/>
+      <c r="A71" s="5"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="H71" s="12"/>
       <c r="I71" s="5"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="14"/>
+      <c r="L71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -3730,17 +3614,13 @@
       <c r="AE71" s="1"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="18"/>
+      <c r="A72" s="5"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="H72" s="12"/>
       <c r="I72" s="5"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="14"/>
+      <c r="L72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -3759,17 +3639,13 @@
       <c r="AE72" s="1"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="18"/>
+      <c r="A73" s="5"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="H73" s="12"/>
       <c r="I73" s="5"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="14"/>
+      <c r="L73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -3788,17 +3664,13 @@
       <c r="AE73" s="1"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="18"/>
+      <c r="A74" s="5"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="H74" s="12"/>
       <c r="I74" s="5"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="14"/>
+      <c r="L74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -3817,17 +3689,13 @@
       <c r="AE74" s="1"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="18"/>
+      <c r="A75" s="5"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="H75" s="12"/>
       <c r="I75" s="5"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="14"/>
+      <c r="L75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -3846,17 +3714,13 @@
       <c r="AE75" s="1"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="18"/>
+      <c r="A76" s="5"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="H76" s="12"/>
       <c r="I76" s="5"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="14"/>
+      <c r="L76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -3875,17 +3739,13 @@
       <c r="AE76" s="1"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="18"/>
+      <c r="A77" s="5"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="H77" s="12"/>
       <c r="I77" s="5"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="14"/>
+      <c r="L77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -3904,17 +3764,13 @@
       <c r="AE77" s="1"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="18"/>
+      <c r="A78" s="5"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="5"/>
       <c r="K78" s="1"/>
-      <c r="L78" s="14"/>
+      <c r="L78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -3933,17 +3789,13 @@
       <c r="AE78" s="1"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="18"/>
+      <c r="A79" s="5"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="H79" s="12"/>
       <c r="I79" s="5"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
@@ -3962,17 +3814,13 @@
       <c r="AE79" s="1"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="18"/>
+      <c r="A80" s="5"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="H80" s="12"/>
       <c r="I80" s="5"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
@@ -3991,17 +3839,13 @@
       <c r="AE80" s="1"/>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="18"/>
+      <c r="A81" s="5"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="H81" s="12"/>
       <c r="I81" s="5"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="14"/>
+      <c r="L81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
@@ -4020,17 +3864,13 @@
       <c r="AE81" s="1"/>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="18"/>
+      <c r="A82" s="5"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="H82" s="12"/>
       <c r="I82" s="5"/>
       <c r="K82" s="1"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -4049,17 +3889,13 @@
       <c r="AE82" s="1"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="18"/>
+      <c r="A83" s="5"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="H83" s="12"/>
       <c r="I83" s="5"/>
       <c r="K83" s="1"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -4078,17 +3914,13 @@
       <c r="AE83" s="1"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="18"/>
+      <c r="A84" s="5"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="H84" s="12"/>
       <c r="I84" s="5"/>
       <c r="K84" s="1"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -4107,17 +3939,13 @@
       <c r="AE84" s="1"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="18"/>
+      <c r="A85" s="5"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="H85" s="12"/>
       <c r="I85" s="5"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -4136,17 +3964,13 @@
       <c r="AE85" s="1"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="18"/>
+      <c r="A86" s="5"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="H86" s="12"/>
       <c r="I86" s="5"/>
       <c r="K86" s="1"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -4165,17 +3989,13 @@
       <c r="AE86" s="1"/>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="18"/>
+      <c r="A87" s="5"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="H87" s="12"/>
       <c r="I87" s="5"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="14"/>
+      <c r="L87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -4194,17 +4014,13 @@
       <c r="AE87" s="1"/>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="18"/>
+      <c r="A88" s="5"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="H88" s="12"/>
       <c r="I88" s="5"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="14"/>
+      <c r="L88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -4223,17 +4039,13 @@
       <c r="AE88" s="1"/>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="18"/>
+      <c r="A89" s="5"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="H89" s="12"/>
       <c r="I89" s="5"/>
       <c r="K89" s="1"/>
-      <c r="L89" s="14"/>
+      <c r="L89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -4252,17 +4064,13 @@
       <c r="AE89" s="1"/>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="18"/>
+      <c r="A90" s="5"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="H90" s="12"/>
       <c r="I90" s="5"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="14"/>
+      <c r="L90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -4281,17 +4089,13 @@
       <c r="AE90" s="1"/>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="18"/>
+      <c r="A91" s="5"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="H91" s="12"/>
       <c r="I91" s="5"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="14"/>
+      <c r="L91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -4310,17 +4114,13 @@
       <c r="AE91" s="1"/>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="18"/>
+      <c r="A92" s="5"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="H92" s="12"/>
       <c r="I92" s="5"/>
       <c r="K92" s="1"/>
-      <c r="L92" s="14"/>
+      <c r="L92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
@@ -4339,17 +4139,13 @@
       <c r="AE92" s="1"/>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="18"/>
+      <c r="A93" s="5"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="H93" s="12"/>
       <c r="I93" s="5"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="14"/>
+      <c r="L93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
@@ -4368,17 +4164,13 @@
       <c r="AE93" s="1"/>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="18"/>
+      <c r="A94" s="5"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="H94" s="12"/>
       <c r="I94" s="5"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="14"/>
+      <c r="L94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -4397,17 +4189,13 @@
       <c r="AE94" s="1"/>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="18"/>
+      <c r="A95" s="5"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="H95" s="12"/>
       <c r="I95" s="5"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="14"/>
+      <c r="L95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -4426,17 +4214,13 @@
       <c r="AE95" s="1"/>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="18"/>
+      <c r="A96" s="5"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="H96" s="12"/>
       <c r="I96" s="5"/>
       <c r="K96" s="1"/>
-      <c r="L96" s="14"/>
+      <c r="L96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -4455,17 +4239,13 @@
       <c r="AE96" s="1"/>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="18"/>
+      <c r="A97" s="5"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="H97" s="12"/>
       <c r="I97" s="5"/>
       <c r="K97" s="1"/>
-      <c r="L97" s="14"/>
+      <c r="L97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -4484,17 +4264,13 @@
       <c r="AE97" s="1"/>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="18"/>
+      <c r="A98" s="5"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="H98" s="12"/>
       <c r="I98" s="5"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="14"/>
+      <c r="L98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -4513,17 +4289,13 @@
       <c r="AE98" s="1"/>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="18"/>
+      <c r="A99" s="5"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="H99" s="12"/>
       <c r="I99" s="5"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="14"/>
+      <c r="L99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -4542,17 +4314,13 @@
       <c r="AE99" s="1"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="18"/>
+      <c r="A100" s="5"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="H100" s="12"/>
       <c r="I100" s="5"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="14"/>
+      <c r="L100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -4571,17 +4339,13 @@
       <c r="AE100" s="1"/>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="18"/>
+      <c r="A101" s="5"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="H101" s="12"/>
       <c r="I101" s="5"/>
       <c r="K101" s="1"/>
-      <c r="L101" s="14"/>
+      <c r="L101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -4600,17 +4364,13 @@
       <c r="AE101" s="1"/>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="18"/>
+      <c r="A102" s="5"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="H102" s="12"/>
       <c r="I102" s="5"/>
       <c r="K102" s="1"/>
-      <c r="L102" s="14"/>
+      <c r="L102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -4629,17 +4389,13 @@
       <c r="AE102" s="1"/>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="18"/>
+      <c r="A103" s="5"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="H103" s="12"/>
       <c r="I103" s="5"/>
       <c r="K103" s="1"/>
-      <c r="L103" s="14"/>
+      <c r="L103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -4658,17 +4414,13 @@
       <c r="AE103" s="1"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="18"/>
+      <c r="A104" s="5"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="H104" s="12"/>
       <c r="I104" s="5"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="14"/>
+      <c r="L104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -4687,17 +4439,13 @@
       <c r="AE104" s="1"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="18"/>
+      <c r="A105" s="5"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="H105" s="12"/>
       <c r="I105" s="5"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="14"/>
+      <c r="L105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
@@ -4716,17 +4464,13 @@
       <c r="AE105" s="1"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="18"/>
+      <c r="A106" s="5"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="H106" s="12"/>
       <c r="I106" s="5"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="14"/>
+      <c r="L106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
@@ -4745,17 +4489,13 @@
       <c r="AE106" s="1"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="18"/>
+      <c r="A107" s="5"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="H107" s="12"/>
       <c r="I107" s="5"/>
       <c r="K107" s="1"/>
-      <c r="L107" s="14"/>
+      <c r="L107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
@@ -4774,17 +4514,13 @@
       <c r="AE107" s="1"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="18"/>
+      <c r="A108" s="5"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="H108" s="12"/>
       <c r="I108" s="5"/>
       <c r="K108" s="1"/>
-      <c r="L108" s="14"/>
+      <c r="L108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -4803,17 +4539,13 @@
       <c r="AE108" s="1"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="18"/>
+      <c r="A109" s="5"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="H109" s="12"/>
       <c r="I109" s="5"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="14"/>
+      <c r="L109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -4832,17 +4564,13 @@
       <c r="AE109" s="1"/>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="18"/>
+      <c r="A110" s="5"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="H110" s="12"/>
       <c r="I110" s="5"/>
       <c r="K110" s="1"/>
-      <c r="L110" s="14"/>
+      <c r="L110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -4861,17 +4589,13 @@
       <c r="AE110" s="1"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="18"/>
+      <c r="A111" s="5"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="H111" s="12"/>
       <c r="I111" s="5"/>
       <c r="K111" s="1"/>
-      <c r="L111" s="14"/>
+      <c r="L111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -4890,17 +4614,13 @@
       <c r="AE111" s="1"/>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="18"/>
+      <c r="A112" s="5"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="H112" s="12"/>
       <c r="I112" s="5"/>
       <c r="K112" s="1"/>
-      <c r="L112" s="14"/>
+      <c r="L112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -4919,17 +4639,13 @@
       <c r="AE112" s="1"/>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="18"/>
+      <c r="A113" s="5"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="H113" s="12"/>
       <c r="I113" s="5"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="14"/>
+      <c r="L113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -4948,17 +4664,13 @@
       <c r="AE113" s="1"/>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="18"/>
+      <c r="A114" s="5"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="H114" s="12"/>
       <c r="I114" s="5"/>
       <c r="K114" s="1"/>
-      <c r="L114" s="14"/>
+      <c r="L114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -4977,17 +4689,13 @@
       <c r="AE114" s="1"/>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="18"/>
+      <c r="A115" s="5"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="H115" s="12"/>
       <c r="I115" s="5"/>
       <c r="K115" s="1"/>
-      <c r="L115" s="14"/>
+      <c r="L115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -5006,17 +4714,13 @@
       <c r="AE115" s="1"/>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="18"/>
+      <c r="A116" s="5"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="H116" s="12"/>
       <c r="I116" s="5"/>
       <c r="K116" s="1"/>
-      <c r="L116" s="14"/>
+      <c r="L116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -5035,17 +4739,13 @@
       <c r="AE116" s="1"/>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="18"/>
+      <c r="A117" s="5"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="H117" s="12"/>
       <c r="I117" s="5"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="14"/>
+      <c r="L117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -5064,17 +4764,13 @@
       <c r="AE117" s="1"/>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="18"/>
+      <c r="A118" s="5"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="H118" s="12"/>
       <c r="I118" s="5"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="14"/>
+      <c r="L118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
@@ -5093,17 +4789,12 @@
       <c r="AE118" s="1"/>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A119" s="16"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="18"/>
+      <c r="A119" s="5"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="H119" s="12"/>
       <c r="I119" s="5"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="17"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -5122,17 +4813,12 @@
       <c r="AE119" s="1"/>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="18"/>
+      <c r="A120" s="5"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="H120" s="12"/>
       <c r="I120" s="5"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="17"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -5151,16 +4837,11 @@
       <c r="AE120" s="1"/>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="18"/>
+      <c r="A121" s="5"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="H121" s="12"/>
       <c r="I121" s="5"/>
-      <c r="L121" s="17"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -5179,16 +4860,11 @@
       <c r="AE121" s="1"/>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="18"/>
+      <c r="A122" s="5"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="H122" s="12"/>
       <c r="I122" s="5"/>
-      <c r="L122" s="17"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -5207,16 +4883,11 @@
       <c r="AE122" s="1"/>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A123" s="16"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="18"/>
+      <c r="A123" s="5"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="H123" s="12"/>
       <c r="I123" s="5"/>
-      <c r="L123" s="17"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -5235,16 +4906,11 @@
       <c r="AE123" s="1"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="18"/>
+      <c r="A124" s="5"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="H124" s="12"/>
       <c r="I124" s="5"/>
-      <c r="L124" s="17"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -5263,16 +4929,9 @@
       <c r="AE124" s="1"/>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="18"/>
+      <c r="A125" s="5"/>
+      <c r="H125" s="12"/>
       <c r="I125" s="5"/>
-      <c r="L125" s="17"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -5291,16 +4950,9 @@
       <c r="AE125" s="1"/>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="18"/>
+      <c r="A126" s="5"/>
+      <c r="H126" s="12"/>
       <c r="I126" s="5"/>
-      <c r="L126" s="17"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -5319,16 +4971,9 @@
       <c r="AE126" s="1"/>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="18"/>
+      <c r="A127" s="5"/>
+      <c r="H127" s="12"/>
       <c r="I127" s="5"/>
-      <c r="L127" s="17"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
@@ -5347,16 +4992,9 @@
       <c r="AE127" s="1"/>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="18"/>
+      <c r="A128" s="5"/>
+      <c r="H128" s="12"/>
       <c r="I128" s="5"/>
-      <c r="L128" s="17"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -5375,16 +5013,9 @@
       <c r="AE128" s="1"/>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="18"/>
+      <c r="A129" s="5"/>
+      <c r="H129" s="12"/>
       <c r="I129" s="5"/>
-      <c r="L129" s="17"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -5403,16 +5034,9 @@
       <c r="AE129" s="1"/>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="18"/>
+      <c r="A130" s="5"/>
+      <c r="H130" s="12"/>
       <c r="I130" s="5"/>
-      <c r="L130" s="17"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -5431,16 +5055,9 @@
       <c r="AE130" s="1"/>
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="18"/>
+      <c r="A131" s="5"/>
+      <c r="H131" s="12"/>
       <c r="I131" s="5"/>
-      <c r="L131" s="17"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
@@ -5459,16 +5076,9 @@
       <c r="AE131" s="1"/>
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A132" s="16"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="18"/>
+      <c r="A132" s="5"/>
+      <c r="H132" s="12"/>
       <c r="I132" s="5"/>
-      <c r="L132" s="17"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
@@ -5487,16 +5097,9 @@
       <c r="AE132" s="1"/>
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A133" s="16"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="18"/>
+      <c r="A133" s="5"/>
+      <c r="H133" s="12"/>
       <c r="I133" s="5"/>
-      <c r="L133" s="17"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
@@ -5515,16 +5118,9 @@
       <c r="AE133" s="1"/>
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="18"/>
+      <c r="A134" s="5"/>
+      <c r="H134" s="12"/>
       <c r="I134" s="5"/>
-      <c r="L134" s="17"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -5543,283 +5139,107 @@
       <c r="AE134" s="1"/>
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
+      <c r="A135" s="5"/>
       <c r="I135" s="5"/>
-      <c r="L135" s="17"/>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
+      <c r="A136" s="5"/>
       <c r="I136" s="5"/>
-      <c r="L136" s="17"/>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
+      <c r="A137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="L137" s="17"/>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
+      <c r="A138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="L138" s="17"/>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
+      <c r="A139" s="5"/>
       <c r="I139" s="5"/>
-      <c r="L139" s="17"/>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
+      <c r="A140" s="5"/>
       <c r="I140" s="5"/>
-      <c r="L140" s="17"/>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
+      <c r="A141" s="5"/>
       <c r="I141" s="5"/>
-      <c r="L141" s="17"/>
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
+      <c r="A142" s="5"/>
       <c r="I142" s="5"/>
-      <c r="L142" s="17"/>
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
+      <c r="A143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="L143" s="17"/>
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
+      <c r="A144" s="5"/>
       <c r="I144" s="5"/>
-      <c r="L144" s="17"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
       <c r="I145" s="5"/>
-      <c r="L145" s="17"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
       <c r="I146" s="5"/>
-      <c r="L146" s="17"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
       <c r="I147" s="5"/>
-      <c r="L147" s="17"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="16"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="20"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
       <c r="I148" s="5"/>
-      <c r="L148" s="17"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="16"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
       <c r="I149" s="5"/>
-      <c r="L149" s="17"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
       <c r="I150" s="5"/>
-      <c r="L150" s="17"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="16"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
       <c r="I151" s="5"/>
-      <c r="L151" s="17"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="16"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
       <c r="I152" s="5"/>
-      <c r="L152" s="17"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="16"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
       <c r="I153" s="5"/>
-      <c r="L153" s="17"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
       <c r="I154" s="5"/>
-      <c r="L154" s="17"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="16"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="16"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
       <c r="I156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="16"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
       <c r="I157" s="5"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="16"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
       <c r="I158" s="5"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
       <c r="I159" s="5"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
       <c r="I160" s="5"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5927,9 +5347,9 @@
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5956,127 +5376,127 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="11"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6085,28 +5505,28 @@
       <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6115,13 +5535,13 @@
       <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6130,28 +5550,28 @@
       <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -6160,13 +5580,13 @@
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -6175,13 +5595,13 @@
       <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -6190,13 +5610,13 @@
       <c r="C17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -6205,13 +5625,13 @@
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -6220,43 +5640,43 @@
       <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -6265,13 +5685,13 @@
       <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -6280,13 +5700,13 @@
       <c r="C23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -6295,13 +5715,13 @@
       <c r="C24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -6310,13 +5730,13 @@
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -6325,13 +5745,13 @@
       <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -6340,13 +5760,13 @@
       <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -6355,13 +5775,13 @@
       <c r="C28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -6370,13 +5790,13 @@
       <c r="C29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -6385,13 +5805,13 @@
       <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -6400,13 +5820,13 @@
       <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="11"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -6415,13 +5835,13 @@
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -6430,13 +5850,13 @@
       <c r="C33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -6445,13 +5865,13 @@
       <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="11"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -6460,13 +5880,13 @@
       <c r="C35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -6475,13 +5895,13 @@
       <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -6490,13 +5910,13 @@
       <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -6505,13 +5925,13 @@
       <c r="C38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -6520,13 +5940,13 @@
       <c r="C39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -6535,180 +5955,165 @@
       <c r="C40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="24"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="A49" s="10"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="A51" s="10"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="A53" s="10"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="A54" s="10"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="A55" s="10"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="A56" s="11"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="A57" s="10"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="A58" s="10"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88485990-5635-4121-813D-1E6073C40739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964C505-9CF0-47D3-9088-DBCBAAA54600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,11 +600,11 @@
     <t>一笔画问题（欧拉回路）</t>
   </si>
   <si>
-    <t>20221207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20221209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221213</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1094,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1589,7 @@
         <v>143</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="15"/>
@@ -1904,7 +1904,7 @@
         <v>101</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964C505-9CF0-47D3-9088-DBCBAAA54600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB6EC3-303C-49F3-AAF3-E2F57BED5639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="161">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,6 +605,10 @@
   </si>
   <si>
     <t>20221213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221229</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1098,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2119,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB6EC3-303C-49F3-AAF3-E2F57BED5639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B8049A-DD26-4ED3-9F67-AFFE9AB29523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,6 @@
   </si>
   <si>
     <t>LeetCode中神奇的链表操作</t>
-  </si>
-  <si>
-    <t>20220916</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20220916</t>
@@ -609,6 +605,10 @@
   </si>
   <si>
     <t>20221229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1098,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="15"/>
@@ -1219,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="15"/>
@@ -1275,10 +1275,10 @@
         <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="15"/>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15"/>
@@ -1368,7 +1368,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="15"/>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -1413,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="15"/>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="15"/>
@@ -1590,10 +1590,10 @@
         <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="15"/>
@@ -1638,7 +1638,7 @@
         <v>88</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
@@ -1680,10 +1680,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="15"/>
@@ -1725,10 +1725,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="15"/>
@@ -1759,7 +1759,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="15"/>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="15"/>
@@ -1860,10 +1860,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="15"/>
@@ -1894,7 +1894,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -1908,7 +1908,7 @@
         <v>101</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1978,13 +1978,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="15"/>
@@ -2026,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2119,7 +2119,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
@@ -2133,7 +2133,7 @@
         <v>97</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="15"/>
@@ -2208,7 +2208,7 @@
         <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2267,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="15"/>
@@ -2298,7 +2298,7 @@
         <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="10"/>
@@ -5852,7 +5852,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="15"/>
@@ -5939,10 +5939,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="15"/>
@@ -5982,13 +5982,13 @@
     </row>
     <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5997,10 +5997,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B8049A-DD26-4ED3-9F67-AFFE9AB29523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CA8910-2C3D-4DFC-9BF6-0C2E222175F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="162">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,10 @@
   </si>
   <si>
     <t>20230103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,8 +1101,8 @@
   <dimension ref="A1:AE181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2267,7 +2271,7 @@
         <v>87</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="15"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CA8910-2C3D-4DFC-9BF6-0C2E222175F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C0234-00E7-473D-8C62-9B33C6C3F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="162">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,10 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20221128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20221205</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,6 +609,10 @@
   </si>
   <si>
     <t>20230105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1102,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1400,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -1597,7 +1597,7 @@
         <v>142</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="15"/>
@@ -1732,7 +1732,7 @@
         <v>146</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="15"/>
@@ -1763,7 +1763,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1912,7 +1912,7 @@
         <v>101</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
@@ -1943,7 +1943,7 @@
         <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1988,7 +1988,7 @@
         <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="15"/>
@@ -2033,7 +2033,7 @@
         <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2123,7 +2123,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
@@ -2271,7 +2271,7 @@
         <v>87</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="15"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C0234-00E7-473D-8C62-9B33C6C3F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDBA76C-5E6B-4750-B453-6ED84189B2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,6 +613,14 @@
   </si>
   <si>
     <t>20230110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树算法详解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230113</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,11 +1106,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE181"/>
+  <dimension ref="A1:AE182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2120,15 +2128,15 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="15"/>
+        <v>163</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="12"/>
       <c r="I23" s="10" t="s">
         <v>1</v>
@@ -2161,14 +2169,14 @@
       <c r="AE23" s="1"/>
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>91</v>
+      <c r="A24" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="15"/>
@@ -2209,15 +2217,15 @@
         <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="12"/>
       <c r="I25" s="10" t="s">
         <v>1</v>
@@ -2254,15 +2262,15 @@
         <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="12"/>
       <c r="I26" s="10" t="s">
         <v>1</v>
@@ -2299,10 +2307,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
@@ -2333,12 +2341,19 @@
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="12"/>
       <c r="I28" s="10"/>
       <c r="K28" s="1"/>
@@ -2364,6 +2379,12 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="12"/>
       <c r="I29" s="11"/>
       <c r="K29" s="1"/>
@@ -2389,9 +2410,6 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="10"/>
       <c r="K30" s="1"/>
@@ -2417,6 +2435,9 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="H31" s="12"/>
       <c r="I31" s="10"/>
       <c r="K31" s="1"/>
@@ -2467,12 +2488,6 @@
       <c r="AE32" s="1"/>
     </row>
     <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
       <c r="H33" s="12"/>
       <c r="I33" s="10"/>
       <c r="K33" s="1"/>
@@ -2936,7 +2951,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="12"/>
       <c r="I48" s="10"/>
@@ -2967,7 +2982,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="3"/>
       <c r="H49" s="12"/>
       <c r="I49" s="10"/>
@@ -3091,7 +3106,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="12"/>
       <c r="I53" s="10"/>
@@ -3122,7 +3137,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="3"/>
       <c r="H54" s="12"/>
       <c r="I54" s="10"/>
@@ -3335,7 +3350,7 @@
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="10"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3363,7 +3378,7 @@
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="11"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3419,7 +3434,7 @@
       <c r="AE63" s="1"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="10"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3450,6 +3465,9 @@
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
       <c r="H65" s="12"/>
       <c r="I65" s="5"/>
       <c r="K65" s="1"/>
@@ -4938,6 +4956,8 @@
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
       <c r="H125" s="12"/>
       <c r="I125" s="5"/>
       <c r="P125" s="1"/>
@@ -5331,9 +5351,12 @@
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
     </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
-    <sortCondition ref="A2:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
+    <sortCondition ref="A2:A46"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDBA76C-5E6B-4750-B453-6ED84189B2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769783D-98DB-4834-98B0-E483C5942FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20220307</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,18 +324,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LeetCode-1题解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Solution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20220329</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未分类贪心算法</t>
   </si>
   <si>
@@ -399,14 +387,6 @@
   </si>
   <si>
     <t>C编译报错原因汇总</t>
-  </si>
-  <si>
-    <t>20220818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据库系统存储结构</t>
@@ -525,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20221028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20221101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,10 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20221229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20230103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,6 +594,13 @@
   <si>
     <t>20230113</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM算法与字符串匹配</t>
   </si>
 </sst>
 </file>
@@ -1106,11 +1085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE182"/>
+  <dimension ref="A1:AE180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
@@ -1153,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="5" t="s">
@@ -1166,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>84</v>
@@ -1175,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1202,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="15"/>
@@ -1216,7 +1195,7 @@
         <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="15"/>
@@ -1231,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="15"/>
@@ -1287,10 +1266,10 @@
         <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="15"/>
@@ -1321,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
@@ -1363,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15"/>
@@ -1380,7 +1359,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="15"/>
@@ -1408,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -1425,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="15"/>
@@ -1456,7 +1435,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
@@ -1588,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="15"/>
@@ -1602,10 +1581,10 @@
         <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="15"/>
@@ -1647,10 +1626,10 @@
         <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
@@ -1688,19 +1667,19 @@
       <c r="F13" s="8"/>
       <c r="G13" s="3"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="10" t="s">
-        <v>2</v>
+      <c r="I13" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="15"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1737,15 +1716,15 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="15"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1771,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1782,10 +1761,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="15"/>
@@ -1813,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="15"/>
@@ -1827,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="15"/>
@@ -1855,13 +1834,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
@@ -1872,10 +1851,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="15"/>
@@ -1900,13 +1879,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -1917,15 +1896,15 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="3"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1945,13 +1924,13 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1959,16 +1938,16 @@
       <c r="G19" s="9"/>
       <c r="H19" s="12"/>
       <c r="I19" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
       <c r="P19" s="1"/>
@@ -1990,32 +1969,32 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="15"/>
+        <v>142</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="12"/>
       <c r="I20" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2038,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2052,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="15"/>
@@ -2083,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2097,14 +2076,14 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="9"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2124,14 +2103,14 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>0</v>
+      <c r="A23" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2142,14 +2121,14 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="8"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="9"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2169,32 +2148,33 @@
       <c r="AE23" s="1"/>
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>0</v>
+      <c r="A24" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="15"/>
+        <v>118</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="12"/>
       <c r="I24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="3"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2214,13 +2194,13 @@
     </row>
     <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="15"/>
@@ -2231,15 +2211,14 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="L25" s="1"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2259,27 +2238,27 @@
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="12"/>
       <c r="I26" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="15"/>
@@ -2304,25 +2283,32 @@
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="10"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="I27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2341,19 +2327,6 @@
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
       <c r="H28" s="12"/>
       <c r="I28" s="10"/>
       <c r="K28" s="1"/>
@@ -2379,14 +2352,8 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="10"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2410,8 +2377,11 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="11"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2435,9 +2405,6 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="H31" s="12"/>
       <c r="I31" s="10"/>
       <c r="K31" s="1"/>
@@ -2463,6 +2430,12 @@
       <c r="AE31" s="1"/>
     </row>
     <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="12"/>
       <c r="I32" s="10"/>
       <c r="K32" s="1"/>
@@ -2488,6 +2461,12 @@
       <c r="AE32" s="1"/>
     </row>
     <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="12"/>
       <c r="I33" s="10"/>
       <c r="K33" s="1"/>
@@ -2834,7 +2813,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -2865,7 +2844,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="3"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="3"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -2920,7 +2899,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="1"/>
       <c r="G47" s="3"/>
       <c r="H47" s="12"/>
       <c r="I47" s="10"/>
@@ -2982,14 +2961,14 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="12"/>
       <c r="I49" s="10"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -3020,7 +2999,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="3"/>
+      <c r="N50" s="1"/>
       <c r="O50" s="3"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -3075,7 +3054,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="3"/>
       <c r="H52" s="12"/>
       <c r="I52" s="10"/>
@@ -3137,7 +3116,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="12"/>
       <c r="I54" s="10"/>
@@ -3264,7 +3243,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="11"/>
+      <c r="I58" s="10"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3295,7 +3274,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="10"/>
+      <c r="I59" s="11"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3319,7 +3298,7 @@
       <c r="AE59" s="1"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="11"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3357,9 +3336,12 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="5"/>
+      <c r="I61" s="10"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -3378,7 +3360,7 @@
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+      <c r="A62" s="10"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3406,7 +3388,7 @@
       <c r="AE62" s="1"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3434,12 +3416,9 @@
       <c r="AE63" s="1"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
       <c r="H64" s="12"/>
       <c r="I64" s="5"/>
       <c r="K64" s="1"/>
@@ -3465,9 +3444,6 @@
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
       <c r="H65" s="12"/>
       <c r="I65" s="5"/>
       <c r="K65" s="1"/>
@@ -4821,6 +4797,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="5"/>
       <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -4868,6 +4845,7 @@
       <c r="D121" s="1"/>
       <c r="H121" s="12"/>
       <c r="I121" s="5"/>
+      <c r="K121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -4933,8 +4911,6 @@
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
       <c r="H124" s="12"/>
       <c r="I124" s="5"/>
       <c r="P124" s="1"/>
@@ -4956,8 +4932,6 @@
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
       <c r="H125" s="12"/>
       <c r="I125" s="5"/>
       <c r="P125" s="1"/>
@@ -5344,19 +5318,14 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
+      <c r="I179" s="5"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
-    <sortCondition ref="A2:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
+    <sortCondition ref="A2:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5368,8 +5337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5394,7 +5363,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
@@ -5403,7 +5372,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5879,7 +5848,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="15"/>
@@ -5909,7 +5878,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="15"/>
@@ -5954,7 +5923,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="15"/>
@@ -5966,10 +5935,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="15"/>
@@ -6009,13 +5978,13 @@
     </row>
     <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6024,10 +5993,10 @@
     </row>
     <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769783D-98DB-4834-98B0-E483C5942FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A3DAD5-7120-4681-8022-7A96B8E53B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2784" yWindow="1848" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="160">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,7 +600,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BM算法与字符串匹配</t>
+    <t>20230130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday算法与字符串匹配</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1092,8 @@
   <dimension ref="A1:AE180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2062,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A3DAD5-7120-4681-8022-7A96B8E53B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07936D90-7701-4C22-BEEA-815AB2BC1ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="1848" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20230105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20230110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,11 +596,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20230130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunday算法与字符串匹配</t>
+    <t>简单高效的字符串匹配算法</t>
+  </si>
+  <si>
+    <t>20230131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1092,8 +1088,8 @@
   <dimension ref="A1:AE180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1435,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
@@ -1678,7 +1674,7 @@
         <v>75</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="15"/>
@@ -1754,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1993,7 +1989,7 @@
         <v>106</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
@@ -2021,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2066,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>158</v>
@@ -2293,7 +2289,7 @@
         <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
@@ -2307,7 +2303,7 @@
         <v>86</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="15"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07936D90-7701-4C22-BEEA-815AB2BC1ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F1BCC-25C8-44F9-A796-93F450DFF637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="160">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,6 +600,10 @@
   </si>
   <si>
     <t>20230131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2065,12 +2069,12 @@
         <v>157</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="12"/>
       <c r="I22" s="10" t="s">
         <v>1</v>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F1BCC-25C8-44F9-A796-93F450DFF637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B19DF-A8A2-46CF-807A-68DDB94E8313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="暂时不管" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -599,11 +600,11 @@
     <t>简单高效的字符串匹配算法</t>
   </si>
   <si>
-    <t>20230131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20230201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1094,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2070,7 @@
         <v>157</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="15"/>
@@ -2307,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="15"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B19DF-A8A2-46CF-807A-68DDB94E8313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51498C75-2062-4EC1-AC30-1B0CBEF273CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,11 @@
     <sheet name="暂时不管" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="162">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,10 +525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20221114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SQL笔记（DQL语句）</t>
   </si>
   <si>
@@ -605,6 +600,18 @@
   </si>
   <si>
     <t>20230202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布39篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230203</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1371,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="15"/>
@@ -1392,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -1440,7 +1447,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
@@ -1589,7 +1596,7 @@
         <v>136</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="15"/>
@@ -1679,7 +1686,7 @@
         <v>75</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="15"/>
@@ -1721,13 +1728,13 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="3"/>
       <c r="P14" s="1"/>
@@ -1755,7 +1762,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1766,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="15"/>
@@ -1890,7 +1897,7 @@
         <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -1901,10 +1908,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
@@ -1935,7 +1942,7 @@
         <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1949,7 +1956,7 @@
         <v>98</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="15"/>
@@ -1977,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1994,7 +2001,7 @@
         <v>106</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
@@ -2022,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2067,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="15"/>
@@ -2112,10 +2119,10 @@
         <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2294,7 +2301,7 @@
         <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
@@ -2308,7 +2315,7 @@
         <v>86</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="15"/>
@@ -5340,10 +5347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5974,42 +5981,46 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>130</v>
-      </c>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -6017,7 +6028,6 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -6029,7 +6039,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6037,7 +6047,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -6097,7 +6107,7 @@
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -6105,7 +6115,7 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="11"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -6121,9 +6131,12 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -6422,6 +6435,8 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
@@ -6593,6 +6608,9 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51498C75-2062-4EC1-AC30-1B0CBEF273CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED8B93F-4D01-470B-B769-177239F54735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="161">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,9 +409,6 @@
   <si>
     <t>20220916</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆排序与优先队列</t>
   </si>
   <si>
     <t>Algorithm</t>
@@ -572,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20230103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20230110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20230202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +601,13 @@
   </si>
   <si>
     <t>20230203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆的性质与应用</t>
+  </si>
+  <si>
+    <t>20230209</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,8 +1096,8 @@
   <dimension ref="A1:AE180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="15"/>
@@ -1222,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="15"/>
@@ -1278,10 +1274,10 @@
         <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="15"/>
@@ -1354,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15"/>
@@ -1371,7 +1367,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="15"/>
@@ -1399,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -1416,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="15"/>
@@ -1447,7 +1443,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
@@ -1579,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="15"/>
@@ -1593,10 +1589,10 @@
         <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="15"/>
@@ -1641,7 +1637,7 @@
         <v>87</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
@@ -1686,7 +1682,7 @@
         <v>75</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="15"/>
@@ -1728,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="3"/>
@@ -1762,7 +1758,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1773,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="15"/>
@@ -1804,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="15"/>
@@ -1821,7 +1817,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="15"/>
@@ -1894,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -1908,10 +1904,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
@@ -1936,13 +1932,13 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1956,7 +1952,7 @@
         <v>98</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="15"/>
@@ -1984,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2001,7 +1997,7 @@
         <v>106</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
@@ -2029,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2074,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="15"/>
@@ -2119,10 +2115,10 @@
         <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2167,7 +2163,7 @@
         <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2181,7 +2177,7 @@
         <v>94</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="15"/>
@@ -2301,7 +2297,7 @@
         <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
@@ -2315,7 +2311,7 @@
         <v>86</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="15"/>
@@ -2390,7 +2386,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="11"/>
@@ -5860,7 +5856,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="15"/>
@@ -5947,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="15"/>
@@ -5982,10 +5978,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
@@ -6001,13 +5997,13 @@
     </row>
     <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -6016,10 +6012,10 @@
     </row>
     <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED8B93F-4D01-470B-B769-177239F54735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA03A57-3AA6-47EE-BAE0-3AA97CAB3AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="158">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,13 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LeetCode-1402题解</t>
-  </si>
-  <si>
-    <t>20220811</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C编译报错原因汇总</t>
   </si>
   <si>
@@ -423,10 +416,6 @@
   </si>
   <si>
     <t>栈及其变体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -532,13 +521,6 @@
     <t>经典动态规划算法合集</t>
   </si>
   <si>
-    <t>20221115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库去重算法概述</t>
-  </si>
-  <si>
     <t>Windows下PostgreSQL编译调试笔记</t>
   </si>
   <si>
@@ -608,6 +590,14 @@
   </si>
   <si>
     <t>20230209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230223</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,11 +1083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE180"/>
+  <dimension ref="A1:AE179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="15"/>
@@ -1203,7 +1193,7 @@
         <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="15"/>
@@ -1218,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="15"/>
@@ -1274,10 +1264,10 @@
         <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="15"/>
@@ -1350,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15"/>
@@ -1367,7 +1357,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="15"/>
@@ -1395,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -1412,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="15"/>
@@ -1443,7 +1433,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
@@ -1575,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="15"/>
@@ -1589,10 +1579,10 @@
         <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="15"/>
@@ -1637,7 +1627,7 @@
         <v>87</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
@@ -1682,7 +1672,7 @@
         <v>75</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="15"/>
@@ -1724,10 +1714,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="3"/>
@@ -1758,7 +1748,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1769,10 +1759,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="15"/>
@@ -1800,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="15"/>
@@ -1817,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="15"/>
@@ -1859,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>97</v>
@@ -1890,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -1904,10 +1894,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
@@ -1932,13 +1922,13 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1952,7 +1942,7 @@
         <v>98</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="15"/>
@@ -1980,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1994,10 +1984,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
@@ -2025,15 +2015,15 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="12"/>
       <c r="I21" s="10" t="s">
         <v>1</v>
@@ -2066,19 +2056,19 @@
       <c r="AE21" s="1"/>
     </row>
     <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>0</v>
+      <c r="A22" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="12"/>
       <c r="I22" s="10" t="s">
         <v>1</v>
@@ -2115,13 +2105,13 @@
         <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="8"/>
       <c r="G23" s="3"/>
       <c r="H23" s="12"/>
@@ -2160,15 +2150,15 @@
         <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="12"/>
       <c r="I24" s="10" t="s">
         <v>1</v>
@@ -2177,7 +2167,7 @@
         <v>94</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="15"/>
@@ -2205,10 +2195,10 @@
         <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="15"/>
@@ -2245,19 +2235,6 @@
       <c r="AE25" s="1"/>
     </row>
     <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
       <c r="H26" s="12"/>
       <c r="I26" s="10" t="s">
         <v>1</v>
@@ -2290,19 +2267,6 @@
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
       <c r="H27" s="12"/>
       <c r="I27" s="10" t="s">
         <v>1</v>
@@ -2311,7 +2275,7 @@
         <v>86</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="15"/>
@@ -2335,6 +2299,9 @@
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="10"/>
       <c r="K28" s="1"/>
@@ -2385,9 +2352,12 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>120</v>
-      </c>
+      <c r="A30" s="10"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="12"/>
       <c r="I30" s="11"/>
       <c r="K30" s="1"/>
@@ -2413,6 +2383,12 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="12"/>
       <c r="I31" s="10"/>
       <c r="K31" s="1"/>
@@ -2845,7 +2821,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="1"/>
       <c r="G45" s="3"/>
       <c r="H45" s="12"/>
       <c r="I45" s="10"/>
@@ -2907,7 +2883,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="12"/>
       <c r="I47" s="10"/>
@@ -3000,7 +2976,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="3"/>
       <c r="H50" s="12"/>
       <c r="I50" s="10"/>
@@ -3062,7 +3038,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="12"/>
       <c r="I52" s="10"/>
@@ -3244,7 +3220,7 @@
       <c r="AE57" s="1"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="11"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3306,7 +3282,7 @@
       <c r="AE59" s="1"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3337,7 +3313,7 @@
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3368,12 +3344,9 @@
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
       <c r="H62" s="12"/>
       <c r="I62" s="5"/>
       <c r="K62" s="1"/>
@@ -3399,9 +3372,6 @@
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
       <c r="H63" s="12"/>
       <c r="I63" s="5"/>
       <c r="K63" s="1"/>
@@ -4873,8 +4843,6 @@
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
       <c r="H122" s="12"/>
       <c r="I122" s="5"/>
       <c r="P122" s="1"/>
@@ -4896,8 +4864,6 @@
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
       <c r="H123" s="12"/>
       <c r="I123" s="5"/>
       <c r="P123" s="1"/>
@@ -5325,15 +5291,11 @@
       <c r="I178" s="5"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
       <c r="I179" s="5"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
-    <sortCondition ref="A2:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
+    <sortCondition ref="A2:A42"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5856,7 +5818,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="15"/>
@@ -5886,7 +5848,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="15"/>
@@ -5943,10 +5905,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="15"/>
@@ -5978,10 +5940,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
@@ -5997,13 +5959,13 @@
     </row>
     <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -6012,10 +5974,10 @@
     </row>
     <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA03A57-3AA6-47EE-BAE0-3AA97CAB3AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B5B0A-86CF-4B14-9BE8-2054D858EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="156">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,12 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C++ Primer Plus 自学笔记2：函数及数据类型简介</t>
-  </si>
-  <si>
-    <t>C++ Primer Plus 自学笔记1：C++特性及程序主体简介</t>
-  </si>
-  <si>
     <t>vim笔记</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>Windows下cmd使用技巧（持续更新）</t>
   </si>
   <si>
-    <t>ACM环境下对拍程序的写法</t>
-  </si>
-  <si>
     <t>Python图像操作</t>
   </si>
   <si>
@@ -328,9 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未分类贪心算法</t>
-  </si>
-  <si>
     <t>NP问题与算法思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,12 +326,6 @@
     <t>C指针使用笔记</t>
   </si>
   <si>
-    <t>C文件读写笔记</t>
-  </si>
-  <si>
-    <t>C字符串操作笔记</t>
-  </si>
-  <si>
     <t>20220412</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +350,6 @@
   </si>
   <si>
     <t>20220707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220712</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -491,10 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20221101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20221102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,12 +567,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20230214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20230223</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C（C++）文件读写笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C（C++）字符串操作笔记</t>
+  </si>
+  <si>
+    <t>C++ Primer Plus拾遗</t>
+  </si>
+  <si>
+    <t>C++内存管理</t>
+  </si>
+  <si>
+    <t>LeetCode贪心算法合集</t>
   </si>
 </sst>
 </file>
@@ -1083,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE179"/>
+  <dimension ref="A1:AE178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1099,7 @@
     <col min="11" max="11" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.77734375" style="2" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="1.77734375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="14" customWidth="1"/>
     <col min="15" max="15" width="13.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -1121,16 +1115,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="5" t="s">
@@ -1143,16 +1137,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1176,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="15"/>
@@ -1187,13 +1181,13 @@
       <c r="G2" s="9"/>
       <c r="H2" s="12"/>
       <c r="I2" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="15"/>
@@ -1205,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="15"/>
@@ -1216,13 +1210,13 @@
       <c r="G3" s="9"/>
       <c r="H3" s="12"/>
       <c r="I3" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="15"/>
@@ -1250,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="15"/>
@@ -1261,13 +1255,13 @@
       <c r="G4" s="9"/>
       <c r="H4" s="12"/>
       <c r="I4" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="15"/>
@@ -1295,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
@@ -1306,17 +1300,17 @@
       <c r="G5" s="3"/>
       <c r="H5" s="12"/>
       <c r="I5" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="3"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="9"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1340,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15"/>
@@ -1351,13 +1345,13 @@
       <c r="G6" s="9"/>
       <c r="H6" s="12"/>
       <c r="I6" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="15"/>
@@ -1385,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -1396,13 +1390,13 @@
       <c r="G7" s="9"/>
       <c r="H7" s="12"/>
       <c r="I7" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="15"/>
@@ -1430,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
@@ -1441,17 +1435,17 @@
       <c r="G8" s="9"/>
       <c r="H8" s="12"/>
       <c r="I8" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="9"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1475,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
@@ -1486,17 +1480,17 @@
       <c r="G9" s="3"/>
       <c r="H9" s="12"/>
       <c r="I9" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="9"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1520,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
@@ -1531,13 +1525,13 @@
       <c r="G10" s="3"/>
       <c r="H10" s="12"/>
       <c r="I10" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="15"/>
@@ -1565,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="15"/>
@@ -1576,13 +1570,13 @@
       <c r="G11" s="3"/>
       <c r="H11" s="12"/>
       <c r="I11" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="15"/>
@@ -1610,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
@@ -1621,13 +1615,13 @@
       <c r="G12" s="3"/>
       <c r="H12" s="12"/>
       <c r="I12" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
@@ -1655,29 +1649,29 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="8"/>
       <c r="G13" s="3"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="11" t="s">
-        <v>71</v>
+      <c r="I13" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="15"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1700,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -1714,15 +1708,15 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1745,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1759,10 +1753,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="15"/>
@@ -1790,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="15"/>
@@ -1804,10 +1798,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="15"/>
@@ -1832,13 +1826,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
@@ -1849,10 +1843,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="15"/>
@@ -1880,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -1894,15 +1888,15 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1922,13 +1916,13 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1936,16 +1930,16 @@
       <c r="G19" s="9"/>
       <c r="H19" s="12"/>
       <c r="I19" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
       <c r="P19" s="1"/>
@@ -1970,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1984,15 +1978,15 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="L20" s="7"/>
       <c r="M20" s="3"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="3"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2015,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="15"/>
@@ -2029,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="15"/>
@@ -2057,13 +2051,13 @@
     </row>
     <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2074,13 +2068,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="15"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
       <c r="P22" s="1"/>
@@ -2102,16 +2096,16 @@
     </row>
     <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="8"/>
       <c r="G23" s="3"/>
       <c r="H23" s="12"/>
@@ -2119,15 +2113,14 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2147,13 +2140,13 @@
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="15"/>
@@ -2167,7 +2160,7 @@
         <v>94</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="15"/>
@@ -2192,13 +2185,13 @@
     </row>
     <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="15"/>
@@ -2209,14 +2202,14 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="L25" s="7"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="3"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2240,15 +2233,15 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="15"/>
+        <v>151</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2268,19 +2261,12 @@
     </row>
     <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="12"/>
-      <c r="I27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2300,10 +2286,10 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H28" s="12"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="11"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2359,7 +2345,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="10"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2766,7 +2752,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="3"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="3"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -2828,7 +2814,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -2921,7 +2907,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="3"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="3"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -2983,7 +2969,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -3196,7 +3182,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="10"/>
+      <c r="I57" s="11"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3258,7 +3244,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="11"/>
+      <c r="I59" s="10"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3289,12 +3275,9 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="12"/>
-      <c r="I60" s="10"/>
+      <c r="I60" s="5"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -3320,12 +3303,9 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="10"/>
+      <c r="I61" s="5"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -4750,7 +4730,6 @@
       <c r="H118" s="12"/>
       <c r="I118" s="5"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
@@ -4775,7 +4754,6 @@
       <c r="H119" s="12"/>
       <c r="I119" s="5"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -4799,7 +4777,6 @@
       <c r="D120" s="1"/>
       <c r="H120" s="12"/>
       <c r="I120" s="5"/>
-      <c r="K120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -4823,7 +4800,6 @@
       <c r="D121" s="1"/>
       <c r="H121" s="12"/>
       <c r="I121" s="5"/>
-      <c r="K121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -5288,10 +5264,6 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
-      <c r="I178" s="5"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I179" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
@@ -5307,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -5333,27 +5305,27 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="15"/>
@@ -5362,13 +5334,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="15"/>
@@ -5377,13 +5349,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="15"/>
@@ -5392,13 +5364,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="15"/>
@@ -5407,13 +5379,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15"/>
@@ -5422,13 +5394,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -5437,13 +5409,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
@@ -5452,13 +5424,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="15"/>
@@ -5467,13 +5439,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="15"/>
@@ -5482,13 +5454,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="15"/>
@@ -5497,13 +5469,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="15"/>
@@ -5512,13 +5484,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="15"/>
@@ -5527,13 +5499,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15"/>
@@ -5542,13 +5514,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -5557,13 +5529,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="15"/>
@@ -5572,13 +5544,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="15"/>
@@ -5587,13 +5559,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -5602,13 +5574,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -5617,13 +5589,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="15"/>
@@ -5632,13 +5604,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="15"/>
@@ -5647,13 +5619,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="15"/>
@@ -5662,13 +5634,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
@@ -5677,13 +5649,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="15"/>
@@ -5695,10 +5667,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="15"/>
@@ -5710,10 +5682,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="15"/>
@@ -5725,10 +5697,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
@@ -5740,10 +5712,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="15"/>
@@ -5755,10 +5727,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="15"/>
@@ -5770,10 +5742,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="15"/>
@@ -5785,10 +5757,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="15"/>
@@ -5800,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="15"/>
@@ -5815,10 +5787,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="15"/>
@@ -5830,10 +5802,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="15"/>
@@ -5845,10 +5817,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="15"/>
@@ -5860,10 +5832,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="15"/>
@@ -5875,10 +5847,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="15"/>
@@ -5890,10 +5862,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="15"/>
@@ -5905,10 +5877,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="15"/>
@@ -5920,10 +5892,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="15"/>
@@ -5940,10 +5912,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
@@ -5959,13 +5931,13 @@
     </row>
     <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5974,10 +5946,10 @@
     </row>
     <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B5B0A-86CF-4B14-9BE8-2054D858EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71309C7D-D2AF-4881-9647-2240080A5957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,18 +563,10 @@
     <t>堆的性质与应用</t>
   </si>
   <si>
-    <t>20230209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20230223</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20230227</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C（C++）文件读写笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,10 +581,31 @@
     <t>C++ Primer Plus拾遗</t>
   </si>
   <si>
-    <t>C++内存管理</t>
-  </si>
-  <si>
     <t>LeetCode贪心算法合集</t>
+  </si>
+  <si>
+    <t>20230301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数模板（书8.5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用变量（书8.2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名空间（书9.3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++面向对象笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1081,7 +1094,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1877,7 +1890,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -1922,7 +1935,7 @@
         <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1981,10 +1994,10 @@
         <v>88</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="8"/>
       <c r="O20" s="9"/>
       <c r="P20" s="1"/>
@@ -2023,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="8"/>
       <c r="O21" s="9"/>
       <c r="P21" s="1"/>
@@ -2068,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
       <c r="P22" s="1"/>
@@ -2099,10 +2112,10 @@
         <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
@@ -2113,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="8"/>
@@ -2205,9 +2218,10 @@
         <v>83</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9"/>
       <c r="P25" s="1"/>
@@ -2233,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2288,6 +2302,9 @@
       <c r="A28" s="11" t="s">
         <v>110</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="11"/>
       <c r="K28" s="1"/>
@@ -2313,6 +2330,9 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="H29" s="12"/>
       <c r="I29" s="10"/>
       <c r="K29" s="1"/>
@@ -2339,6 +2359,9 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
+      <c r="B30" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2370,6 +2393,9 @@
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
+      <c r="B31" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71309C7D-D2AF-4881-9647-2240080A5957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C1734-95A0-4BAC-AA7E-E7A099E69D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="161">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,22 +607,28 @@
     <t>20230303</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>看到10.4this指针</t>
+  </si>
+  <si>
+    <t>20230306</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -631,7 +637,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -640,7 +646,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -648,7 +654,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1094,10 +1100,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
@@ -1117,7 +1123,7 @@
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1184,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1213,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1258,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="4" customFormat="1">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1303,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1348,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1393,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1438,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1483,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1528,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1573,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1618,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1663,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1708,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1753,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1798,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1843,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="10" t="s">
         <v>96</v>
       </c>
@@ -1882,7 +1888,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1933,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="10" t="s">
         <v>104</v>
       </c>
@@ -1972,7 +1978,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2023,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>151</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="3"/>
@@ -2062,7 +2068,7 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>86</v>
       </c>
@@ -2107,7 +2113,7 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>86</v>
       </c>
@@ -2151,7 +2157,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>86</v>
       </c>
@@ -2196,7 +2202,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>86</v>
       </c>
@@ -2241,7 +2247,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="H26" s="12"/>
       <c r="I26" s="10" t="s">
         <v>1</v>
@@ -2250,7 +2256,7 @@
         <v>157</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2273,7 +2279,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="H27" s="12"/>
       <c r="I27" s="10"/>
       <c r="K27" s="1"/>
@@ -2298,7 +2304,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="11" t="s">
         <v>110</v>
       </c>
@@ -2329,7 +2335,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="B29" s="1" t="s">
         <v>154</v>
       </c>
@@ -2357,7 +2363,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>155</v>
@@ -2391,7 +2397,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>156</v>
@@ -2425,7 +2431,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2456,8 +2462,11 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A33" s="10"/>
+      <c r="B33" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2487,8 +2496,11 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A34" s="10"/>
+      <c r="B34" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2518,7 +2530,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2549,7 +2561,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2580,7 +2592,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2611,7 +2623,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1">
       <c r="A38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2642,7 +2654,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2673,7 +2685,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2704,7 +2716,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="10"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2735,7 +2747,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="10"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2766,7 +2778,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="10"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2797,7 +2809,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" s="10"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2828,7 +2840,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" s="10"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2859,7 +2871,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" s="10"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2890,7 +2902,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2921,7 +2933,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" s="10"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2952,7 +2964,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" s="10"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2983,7 +2995,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" s="10"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3014,7 +3026,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" s="10"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3045,7 +3057,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" s="10"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3076,7 +3088,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53" s="10"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3107,7 +3119,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" s="10"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3138,7 +3150,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" s="10"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3169,7 +3181,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3200,7 +3212,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" s="10"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3231,7 +3243,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31">
       <c r="A58" s="11"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3262,7 +3274,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3293,7 +3305,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31">
       <c r="A60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3321,7 +3333,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3349,7 +3361,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3374,7 +3386,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3399,7 +3411,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3424,7 +3436,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3449,7 +3461,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3474,7 +3486,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3499,7 +3511,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3524,7 +3536,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3549,7 +3561,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3574,7 +3586,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3599,7 +3611,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3624,7 +3636,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3649,7 +3661,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3674,7 +3686,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3699,7 +3711,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3724,7 +3736,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3749,7 +3761,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3774,7 +3786,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3799,7 +3811,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3824,7 +3836,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3849,7 +3861,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3874,7 +3886,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3899,7 +3911,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3924,7 +3936,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3949,7 +3961,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3974,7 +3986,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3999,7 +4011,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4024,7 +4036,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4049,7 +4061,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4074,7 +4086,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4099,7 +4111,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4124,7 +4136,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4149,7 +4161,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4174,7 +4186,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4199,7 +4211,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4224,7 +4236,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4249,7 +4261,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4274,7 +4286,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4299,7 +4311,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4324,7 +4336,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4349,7 +4361,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4374,7 +4386,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4399,7 +4411,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4424,7 +4436,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4449,7 +4461,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4474,7 +4486,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4499,7 +4511,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4524,7 +4536,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4549,7 +4561,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4574,7 +4586,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4599,7 +4611,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4624,7 +4636,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4649,7 +4661,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4674,7 +4686,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4699,7 +4711,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4724,7 +4736,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4749,7 +4761,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4773,7 +4785,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31">
       <c r="A119" s="5"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4797,7 +4809,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31">
       <c r="A120" s="5"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4820,7 +4832,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31">
       <c r="A121" s="5"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4843,7 +4855,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31">
       <c r="A122" s="5"/>
       <c r="H122" s="12"/>
       <c r="I122" s="5"/>
@@ -4864,7 +4876,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31">
       <c r="A123" s="5"/>
       <c r="H123" s="12"/>
       <c r="I123" s="5"/>
@@ -4885,7 +4897,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31">
       <c r="A124" s="5"/>
       <c r="H124" s="12"/>
       <c r="I124" s="5"/>
@@ -4906,7 +4918,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31">
       <c r="A125" s="5"/>
       <c r="H125" s="12"/>
       <c r="I125" s="5"/>
@@ -4927,7 +4939,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31">
       <c r="A126" s="5"/>
       <c r="H126" s="12"/>
       <c r="I126" s="5"/>
@@ -4948,7 +4960,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31">
       <c r="A127" s="5"/>
       <c r="H127" s="12"/>
       <c r="I127" s="5"/>
@@ -4969,7 +4981,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31">
       <c r="A128" s="5"/>
       <c r="H128" s="12"/>
       <c r="I128" s="5"/>
@@ -4990,7 +5002,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31">
       <c r="A129" s="5"/>
       <c r="H129" s="12"/>
       <c r="I129" s="5"/>
@@ -5011,7 +5023,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31">
       <c r="A130" s="5"/>
       <c r="H130" s="12"/>
       <c r="I130" s="5"/>
@@ -5032,7 +5044,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31">
       <c r="A131" s="5"/>
       <c r="H131" s="12"/>
       <c r="I131" s="5"/>
@@ -5053,7 +5065,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31">
       <c r="A132" s="5"/>
       <c r="H132" s="12"/>
       <c r="I132" s="5"/>
@@ -5074,7 +5086,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31">
       <c r="A133" s="5"/>
       <c r="H133" s="12"/>
       <c r="I133" s="5"/>
@@ -5095,7 +5107,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31">
       <c r="A134" s="5"/>
       <c r="H134" s="12"/>
       <c r="I134" s="5"/>
@@ -5116,179 +5128,179 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31">
       <c r="A135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31">
       <c r="A136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31">
       <c r="A137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31">
       <c r="A138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31">
       <c r="A139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31">
       <c r="A140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31">
       <c r="A141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31">
       <c r="A142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31">
       <c r="A143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31">
       <c r="A144" s="5"/>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="5"/>
       <c r="I145" s="5"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="5"/>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="5"/>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="5"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="5"/>
       <c r="I149" s="5"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="5"/>
       <c r="I150" s="5"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="5"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="5"/>
       <c r="I152" s="5"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="5"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="5"/>
       <c r="I154" s="5"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="5"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="5"/>
       <c r="I156" s="5"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="5"/>
       <c r="I157" s="5"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="5"/>
       <c r="I158" s="5"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="5"/>
       <c r="I159" s="5"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="5"/>
       <c r="I160" s="5"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="5"/>
       <c r="I161" s="5"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="5"/>
       <c r="I162" s="5"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="5"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="5"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="5"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="5"/>
     </row>
   </sheetData>
@@ -5309,7 +5321,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
@@ -5320,7 +5332,7 @@
     <col min="7" max="7" width="13.109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5343,7 +5355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>69</v>
       </c>
@@ -5358,7 +5370,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>69</v>
       </c>
@@ -5373,7 +5385,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
         <v>69</v>
       </c>
@@ -5388,7 +5400,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
         <v>69</v>
       </c>
@@ -5403,7 +5415,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
         <v>69</v>
       </c>
@@ -5418,7 +5430,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
         <v>69</v>
       </c>
@@ -5433,7 +5445,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
         <v>69</v>
       </c>
@@ -5448,7 +5460,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
         <v>70</v>
       </c>
@@ -5463,7 +5475,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
         <v>70</v>
       </c>
@@ -5478,7 +5490,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
@@ -5493,7 +5505,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
@@ -5508,7 +5520,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="11" t="s">
         <v>70</v>
       </c>
@@ -5523,7 +5535,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="11" t="s">
         <v>70</v>
       </c>
@@ -5538,7 +5550,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
@@ -5553,7 +5565,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -5568,7 +5580,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
         <v>70</v>
       </c>
@@ -5583,7 +5595,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
         <v>70</v>
       </c>
@@ -5598,7 +5610,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
         <v>70</v>
       </c>
@@ -5613,7 +5625,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="11" t="s">
         <v>70</v>
       </c>
@@ -5628,7 +5640,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
         <v>70</v>
       </c>
@@ -5643,7 +5655,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="11" t="s">
         <v>71</v>
       </c>
@@ -5658,7 +5670,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
         <v>71</v>
       </c>
@@ -5673,7 +5685,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
         <v>71</v>
       </c>
@@ -5688,7 +5700,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -5703,7 +5715,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -5718,7 +5730,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
@@ -5733,7 +5745,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
@@ -5748,7 +5760,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
@@ -5763,7 +5775,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
@@ -5778,7 +5790,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="10" t="s">
         <v>3</v>
       </c>
@@ -5793,7 +5805,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
@@ -5808,7 +5820,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
@@ -5823,7 +5835,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
@@ -5838,7 +5850,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
         <v>3</v>
       </c>
@@ -5853,7 +5865,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -5868,7 +5880,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="10" t="s">
         <v>3</v>
       </c>
@@ -5883,7 +5895,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="10" t="s">
         <v>3</v>
       </c>
@@ -5898,7 +5910,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="10" t="s">
         <v>3</v>
       </c>
@@ -5913,7 +5925,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="10" t="s">
         <v>3</v>
       </c>
@@ -5928,7 +5940,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="10"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5936,7 +5948,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="C42" s="10" t="s">
         <v>143</v>
       </c>
@@ -5947,7 +5959,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="10"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5955,7 +5967,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="36">
       <c r="A44" s="10" t="s">
         <v>109</v>
       </c>
@@ -5970,7 +5982,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="409.6">
       <c r="A45" s="10" t="s">
         <v>116</v>
       </c>
@@ -5983,14 +5995,14 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5998,7 +6010,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="10"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6006,7 +6018,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="10"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6014,7 +6026,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6022,7 +6034,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="10"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6030,7 +6042,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="10"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6038,7 +6050,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="10"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6046,7 +6058,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="10"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6054,7 +6066,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="10"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6062,7 +6074,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6070,7 +6082,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="11"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6078,7 +6090,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="10"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6086,7 +6098,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6094,478 +6106,478 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="5"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="5"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="5"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="5"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" s="5"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="5"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="5"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="5"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="5"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" s="5"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="5"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="5"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="5"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177" s="5"/>
     </row>
   </sheetData>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C1734-95A0-4BAC-AA7E-E7A099E69D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D678C7F7-713F-464B-AF55-1B67309C0FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blogs" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,140 +495,137 @@
     <t>经典动态规划算法合集</t>
   </si>
   <si>
+    <t>20221122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一笔画问题（欧拉回路）</t>
+  </si>
+  <si>
+    <t>20221213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树算法详解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单高效的字符串匹配算法</t>
+  </si>
+  <si>
+    <t>20230201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布39篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆的性质与应用</t>
+  </si>
+  <si>
+    <t>20230223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C（C++）文件读写笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C（C++）字符串操作笔记</t>
+  </si>
+  <si>
+    <t>C++ Primer Plus拾遗</t>
+  </si>
+  <si>
+    <t>LeetCode贪心算法合集</t>
+  </si>
+  <si>
+    <t>20230301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数模板（书8.5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用变量（书8.2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名空间（书9.3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++面向对象笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到10.4this指针</t>
+  </si>
+  <si>
+    <t>20230306</t>
+  </si>
+  <si>
+    <t>20230309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Windows下PostgreSQL编译调试笔记</t>
-  </si>
-  <si>
-    <t>20221122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20221124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20221205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20221206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一笔画问题（欧拉回路）</t>
-  </si>
-  <si>
-    <t>20221209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20221213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20230110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红黑树算法详解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20230113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20230129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单高效的字符串匹配算法</t>
-  </si>
-  <si>
-    <t>20230201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布39篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20230203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆的性质与应用</t>
-  </si>
-  <si>
-    <t>20230223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C（C++）文件读写笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20230228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C（C++）字符串操作笔记</t>
-  </si>
-  <si>
-    <t>C++ Primer Plus拾遗</t>
-  </si>
-  <si>
-    <t>LeetCode贪心算法合集</t>
-  </si>
-  <si>
-    <t>20230301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数模板（书8.5）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用变量（书8.2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名空间（书9.3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++面向对象笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20230303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看到10.4this指针</t>
-  </si>
-  <si>
-    <t>20230306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -637,7 +634,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -646,7 +643,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -654,7 +651,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1100,10 +1097,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
@@ -1123,7 +1120,7 @@
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1181,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1210,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1255,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" s="4" customFormat="1">
+    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1300,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1322,7 @@
         <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="15"/>
@@ -1348,7 +1345,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -1393,15 +1390,15 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -1438,7 +1435,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1443,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
@@ -1483,7 +1480,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1525,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
@@ -1550,10 +1547,10 @@
         <v>124</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
       <c r="P10" s="1"/>
@@ -1573,7 +1570,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1615,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1637,7 @@
         <v>72</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
@@ -1663,7 +1660,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1682,7 @@
         <v>126</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="3"/>
@@ -1708,7 +1705,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -1730,10 +1727,10 @@
         <v>127</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
       <c r="P14" s="1"/>
@@ -1753,7 +1750,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1758,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1798,7 +1795,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1840,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>96</v>
       </c>
@@ -1862,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="15"/>
@@ -1888,15 +1885,15 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -1910,7 +1907,7 @@
         <v>92</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
@@ -1933,7 +1930,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>104</v>
       </c>
@@ -1941,7 +1938,7 @@
         <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1955,7 +1952,7 @@
         <v>97</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="3"/>
@@ -1978,15 +1975,15 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2000,7 +1997,7 @@
         <v>88</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="15"/>
@@ -2023,15 +2020,15 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="15"/>
@@ -2042,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="3"/>
@@ -2068,7 +2065,7 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>86</v>
       </c>
@@ -2076,7 +2073,7 @@
         <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2087,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="15"/>
@@ -2113,15 +2110,15 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
@@ -2132,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="8"/>
@@ -2157,7 +2154,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>86</v>
       </c>
@@ -2202,7 +2199,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>86</v>
       </c>
@@ -2210,7 +2207,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="15"/>
@@ -2224,7 +2221,7 @@
         <v>83</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="15"/>
@@ -2247,16 +2244,16 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="12"/>
       <c r="I26" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2279,7 +2276,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="12"/>
       <c r="I27" s="10"/>
       <c r="K27" s="1"/>
@@ -2304,12 +2301,12 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="11"/>
@@ -2335,9 +2332,9 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="10"/>
@@ -2363,10 +2360,10 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2397,10 +2394,10 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2431,7 +2428,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2462,10 +2459,10 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2496,10 +2493,10 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2530,7 +2527,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2561,7 +2558,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2592,7 +2589,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2623,7 +2620,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2654,7 +2651,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2685,7 +2682,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2716,7 +2713,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2747,7 +2744,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2778,7 +2775,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2809,7 +2806,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2840,7 +2837,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2871,7 +2868,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2902,7 +2899,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2933,7 +2930,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2964,7 +2961,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2995,7 +2992,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3026,7 +3023,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3057,7 +3054,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3088,7 +3085,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3119,7 +3116,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3150,7 +3147,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3181,7 +3178,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3212,7 +3209,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3243,7 +3240,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3274,7 +3271,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3305,7 +3302,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3333,7 +3330,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3361,7 +3358,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3386,7 +3383,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3411,7 +3408,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3436,7 +3433,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3461,7 +3458,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3486,7 +3483,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3511,7 +3508,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3536,7 +3533,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3561,7 +3558,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3586,7 +3583,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3611,7 +3608,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3636,7 +3633,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3661,7 +3658,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3686,7 +3683,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3711,7 +3708,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3736,7 +3733,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3761,7 +3758,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3786,7 +3783,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3811,7 +3808,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3836,7 +3833,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3861,7 +3858,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3886,7 +3883,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3911,7 +3908,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3936,7 +3933,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3961,7 +3958,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3986,7 +3983,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4011,7 +4008,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4036,7 +4033,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4061,7 +4058,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4086,7 +4083,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4111,7 +4108,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4136,7 +4133,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4161,7 +4158,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4186,7 +4183,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4211,7 +4208,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4236,7 +4233,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4261,7 +4258,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4286,7 +4283,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4311,7 +4308,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4336,7 +4333,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4361,7 +4358,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4386,7 +4383,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4411,7 +4408,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4436,7 +4433,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4461,7 +4458,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4486,7 +4483,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4511,7 +4508,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4536,7 +4533,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4561,7 +4558,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4586,7 +4583,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4611,7 +4608,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4636,7 +4633,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4661,7 +4658,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4686,7 +4683,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4711,7 +4708,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4736,7 +4733,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4761,7 +4758,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4785,7 +4782,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4809,7 +4806,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4832,7 +4829,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4855,7 +4852,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="H122" s="12"/>
       <c r="I122" s="5"/>
@@ -4876,7 +4873,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="H123" s="12"/>
       <c r="I123" s="5"/>
@@ -4897,7 +4894,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="H124" s="12"/>
       <c r="I124" s="5"/>
@@ -4918,7 +4915,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="H125" s="12"/>
       <c r="I125" s="5"/>
@@ -4939,7 +4936,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="H126" s="12"/>
       <c r="I126" s="5"/>
@@ -4960,7 +4957,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="H127" s="12"/>
       <c r="I127" s="5"/>
@@ -4981,7 +4978,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="H128" s="12"/>
       <c r="I128" s="5"/>
@@ -5002,7 +4999,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="H129" s="12"/>
       <c r="I129" s="5"/>
@@ -5023,7 +5020,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="H130" s="12"/>
       <c r="I130" s="5"/>
@@ -5044,7 +5041,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="H131" s="12"/>
       <c r="I131" s="5"/>
@@ -5065,7 +5062,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="H132" s="12"/>
       <c r="I132" s="5"/>
@@ -5086,7 +5083,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="H133" s="12"/>
       <c r="I133" s="5"/>
@@ -5107,7 +5104,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="H134" s="12"/>
       <c r="I134" s="5"/>
@@ -5128,179 +5125,179 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:31">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="I145" s="5"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="I149" s="5"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="I150" s="5"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="I152" s="5"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="I154" s="5"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="I156" s="5"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="I157" s="5"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="I158" s="5"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="I159" s="5"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="I160" s="5"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="I161" s="5"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="I162" s="5"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
     </row>
   </sheetData>
@@ -5321,7 +5318,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
@@ -5332,7 +5329,7 @@
     <col min="7" max="7" width="13.109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5355,7 +5352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>69</v>
       </c>
@@ -5370,7 +5367,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>69</v>
       </c>
@@ -5385,7 +5382,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>69</v>
       </c>
@@ -5400,7 +5397,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>69</v>
       </c>
@@ -5415,7 +5412,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>69</v>
       </c>
@@ -5430,7 +5427,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>69</v>
       </c>
@@ -5445,7 +5442,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>69</v>
       </c>
@@ -5460,7 +5457,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>70</v>
       </c>
@@ -5475,7 +5472,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>70</v>
       </c>
@@ -5490,7 +5487,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
@@ -5505,7 +5502,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
@@ -5520,7 +5517,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>70</v>
       </c>
@@ -5535,7 +5532,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>70</v>
       </c>
@@ -5550,7 +5547,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
@@ -5565,7 +5562,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -5580,7 +5577,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>70</v>
       </c>
@@ -5595,7 +5592,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>70</v>
       </c>
@@ -5610,7 +5607,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>70</v>
       </c>
@@ -5625,7 +5622,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>70</v>
       </c>
@@ -5640,7 +5637,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>70</v>
       </c>
@@ -5655,7 +5652,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>71</v>
       </c>
@@ -5670,7 +5667,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>71</v>
       </c>
@@ -5685,7 +5682,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>71</v>
       </c>
@@ -5700,7 +5697,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -5715,7 +5712,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -5730,7 +5727,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
@@ -5745,7 +5742,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
@@ -5760,7 +5757,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
@@ -5775,7 +5772,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
@@ -5790,7 +5787,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>3</v>
       </c>
@@ -5805,7 +5802,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
@@ -5820,7 +5817,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
@@ -5835,7 +5832,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
@@ -5850,7 +5847,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>3</v>
       </c>
@@ -5865,7 +5862,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -5880,7 +5877,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>3</v>
       </c>
@@ -5895,7 +5892,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>3</v>
       </c>
@@ -5910,7 +5907,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>3</v>
       </c>
@@ -5925,7 +5922,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>3</v>
       </c>
@@ -5940,7 +5937,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5948,18 +5945,18 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5967,7 +5964,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="36">
+    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>109</v>
       </c>
@@ -5982,7 +5979,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="409.6">
+    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>116</v>
       </c>
@@ -5995,14 +5992,14 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6010,7 +6007,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6018,7 +6015,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6026,7 +6023,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6034,7 +6031,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6042,7 +6039,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6050,7 +6047,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6058,7 +6055,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6066,7 +6063,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6074,7 +6071,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6082,7 +6079,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6090,7 +6087,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6098,7 +6095,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6106,478 +6103,478 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
     </row>
   </sheetData>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D678C7F7-713F-464B-AF55-1B67309C0FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD5778-AE2F-426A-8974-EFD1B9071CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="161">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,10 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引用变量（书8.2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命名空间（书9.3）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,6 +604,14 @@
   </si>
   <si>
     <t>Windows下PostgreSQL编译调试笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230317</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,11 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE178"/>
+  <dimension ref="A1:AE177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="3"/>
@@ -1682,7 +1686,7 @@
         <v>126</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="3"/>
@@ -1727,7 +1731,7 @@
         <v>127</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="3"/>
@@ -1859,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>130</v>
@@ -1997,7 +2001,7 @@
         <v>88</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="15"/>
@@ -2042,7 +2046,7 @@
         <v>148</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="3"/>
@@ -2087,7 +2091,7 @@
         <v>147</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="15"/>
@@ -2221,7 +2225,7 @@
         <v>83</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="15"/>
@@ -2250,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2360,7 +2364,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>152</v>
@@ -2396,9 +2400,6 @@
     </row>
     <row r="31" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
-      <c r="B31" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2430,6 +2431,9 @@
     </row>
     <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
+      <c r="B32" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2462,7 +2466,7 @@
     <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2495,9 +2499,6 @@
     </row>
     <row r="34" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
-      <c r="B34" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2527,7 +2528,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2558,7 +2559,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2620,7 +2621,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2756,7 +2757,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="3"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="3"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2787,7 +2788,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -2811,7 +2812,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="3"/>
       <c r="H44" s="12"/>
       <c r="I44" s="10"/>
@@ -2842,7 +2843,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="12"/>
       <c r="I45" s="10"/>
@@ -2911,7 +2912,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="3"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="3"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -2942,7 +2943,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -2966,7 +2967,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="3"/>
       <c r="H49" s="12"/>
       <c r="I49" s="10"/>
@@ -2997,7 +2998,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="12"/>
       <c r="I50" s="10"/>
@@ -3186,7 +3187,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="10"/>
+      <c r="I56" s="11"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3210,14 +3211,14 @@
       <c r="AE56" s="1"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="11"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="11"/>
+      <c r="I57" s="10"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3241,7 +3242,7 @@
       <c r="AE57" s="1"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="10"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3279,12 +3280,9 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="10"/>
+      <c r="I59" s="5"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3303,7 +3301,7 @@
       <c r="AE59" s="1"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3334,9 +3332,6 @@
       <c r="A61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
       <c r="H61" s="12"/>
       <c r="I61" s="5"/>
       <c r="K61" s="1"/>
@@ -4740,7 +4735,6 @@
       <c r="H117" s="12"/>
       <c r="I117" s="5"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -4788,7 +4782,6 @@
       <c r="D119" s="1"/>
       <c r="H119" s="12"/>
       <c r="I119" s="5"/>
-      <c r="K119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -4831,8 +4824,6 @@
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
       <c r="H121" s="12"/>
       <c r="I121" s="5"/>
       <c r="P121" s="1"/>
@@ -5106,24 +5097,7 @@
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
-      <c r="H134" s="12"/>
       <c r="I134" s="5"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
-      <c r="T134" s="1"/>
-      <c r="U134" s="1"/>
-      <c r="V134" s="1"/>
-      <c r="W134" s="1"/>
-      <c r="X134" s="1"/>
-      <c r="Y134" s="1"/>
-      <c r="Z134" s="1"/>
-      <c r="AA134" s="1"/>
-      <c r="AB134" s="1"/>
-      <c r="AC134" s="1"/>
-      <c r="AD134" s="1"/>
-      <c r="AE134" s="1"/>
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
@@ -5293,16 +5267,12 @@
       <c r="A176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
-      <c r="I177" s="5"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
-    <sortCondition ref="A2:A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD5778-AE2F-426A-8974-EFD1B9071CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5558044-E6AA-4C3D-BF7A-BBFB58BBE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="162">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
   </si>
   <si>
     <t>匈牙利算法与二部图匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20220218</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -593,12 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看到10.4this指针</t>
-  </si>
-  <si>
-    <t>20230306</t>
-  </si>
-  <si>
     <t>20230309</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +602,22 @@
   </si>
   <si>
     <t>20230317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1-11.5运算符重载与友元函数暂时跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230325</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,8 +1106,8 @@
   <dimension ref="A1:AE177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1135,16 +1141,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="5" t="s">
@@ -1157,16 +1163,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1193,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="15"/>
@@ -1201,13 +1207,13 @@
       <c r="G2" s="9"/>
       <c r="H2" s="12"/>
       <c r="I2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="15"/>
@@ -1222,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="15"/>
@@ -1230,13 +1236,13 @@
       <c r="G3" s="9"/>
       <c r="H3" s="12"/>
       <c r="I3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="15"/>
@@ -1264,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="15"/>
@@ -1275,13 +1281,13 @@
       <c r="G4" s="9"/>
       <c r="H4" s="12"/>
       <c r="I4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="15"/>
@@ -1312,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
@@ -1320,13 +1326,13 @@
       <c r="G5" s="3"/>
       <c r="H5" s="12"/>
       <c r="I5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="15"/>
@@ -1354,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15"/>
@@ -1365,13 +1371,13 @@
       <c r="G6" s="9"/>
       <c r="H6" s="12"/>
       <c r="I6" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="15"/>
@@ -1399,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
@@ -1410,13 +1416,13 @@
       <c r="G7" s="9"/>
       <c r="H7" s="12"/>
       <c r="I7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="15"/>
@@ -1444,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
@@ -1455,13 +1461,13 @@
       <c r="G8" s="9"/>
       <c r="H8" s="12"/>
       <c r="I8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="15"/>
@@ -1500,13 +1506,13 @@
       <c r="G9" s="3"/>
       <c r="H9" s="12"/>
       <c r="I9" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="15"/>
@@ -1545,13 +1551,13 @@
       <c r="G10" s="3"/>
       <c r="H10" s="12"/>
       <c r="I10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="3"/>
@@ -1579,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="15"/>
@@ -1590,13 +1596,13 @@
       <c r="G11" s="3"/>
       <c r="H11" s="12"/>
       <c r="I11" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="15"/>
@@ -1627,7 +1633,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
@@ -1635,13 +1641,13 @@
       <c r="G12" s="3"/>
       <c r="H12" s="12"/>
       <c r="I12" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
@@ -1683,10 +1689,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="3"/>
@@ -1728,10 +1734,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="3"/>
@@ -1759,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -1776,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="15"/>
@@ -1804,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="15"/>
@@ -1818,10 +1824,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="15"/>
@@ -1846,13 +1852,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
@@ -1863,10 +1869,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="15"/>
@@ -1894,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
@@ -1908,10 +1914,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="15"/>
@@ -1936,13 +1942,13 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
@@ -1953,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="3"/>
@@ -1984,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1998,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="15"/>
@@ -2029,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="15"/>
@@ -2043,10 +2049,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="3"/>
@@ -2071,13 +2077,13 @@
     </row>
     <row r="22" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2088,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="15"/>
@@ -2116,13 +2122,13 @@
     </row>
     <row r="23" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
@@ -2133,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="8"/>
@@ -2160,13 +2166,13 @@
     </row>
     <row r="24" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="15"/>
@@ -2177,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="15"/>
@@ -2205,13 +2211,13 @@
     </row>
     <row r="25" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="15"/>
@@ -2222,10 +2228,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="15"/>
@@ -2254,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2307,10 +2313,10 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="11"/>
@@ -2338,7 +2344,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="10"/>
@@ -2367,7 +2373,7 @@
     <row r="30" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2432,7 +2438,7 @@
     <row r="32" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2466,7 +2472,7 @@
     <row r="33" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5310,21 +5316,21 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -5339,7 +5345,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
@@ -5354,7 +5360,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
@@ -5369,7 +5375,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>44</v>
@@ -5384,7 +5390,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>45</v>
@@ -5399,7 +5405,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>46</v>
@@ -5414,7 +5420,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>47</v>
@@ -5429,7 +5435,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -5444,7 +5450,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -5459,7 +5465,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
@@ -5474,7 +5480,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
@@ -5489,7 +5495,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
@@ -5504,7 +5510,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -5519,7 +5525,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDes